--- a/Part_2_data/false_match_on_title.xlsx
+++ b/Part_2_data/false_match_on_title.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E324"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>match_on_title</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>levenshtein</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -477,6 +482,9 @@
       <c r="E2" t="b">
         <v>0</v>
       </c>
+      <c r="F2" t="n">
+        <v>0.03846153846153846</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -500,6 +508,9 @@
       <c r="E3" t="b">
         <v>0</v>
       </c>
+      <c r="F3" t="n">
+        <v>0.1052631578947368</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -523,6 +534,9 @@
       <c r="E4" t="b">
         <v>0</v>
       </c>
+      <c r="F4" t="n">
+        <v>0.2142857142857143</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -546,6 +560,9 @@
       <c r="E5" t="b">
         <v>0</v>
       </c>
+      <c r="F5" t="n">
+        <v>0.1176470588235294</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -569,6 +586,9 @@
       <c r="E6" t="b">
         <v>0</v>
       </c>
+      <c r="F6" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -592,6 +612,9 @@
       <c r="E7" t="b">
         <v>0</v>
       </c>
+      <c r="F7" t="n">
+        <v>0.6470588235294118</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -615,6 +638,9 @@
       <c r="E8" t="b">
         <v>0</v>
       </c>
+      <c r="F8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -638,6 +664,9 @@
       <c r="E9" t="b">
         <v>0</v>
       </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -661,6 +690,9 @@
       <c r="E10" t="b">
         <v>0</v>
       </c>
+      <c r="F10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -684,6 +716,9 @@
       <c r="E11" t="b">
         <v>0</v>
       </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -707,6 +742,9 @@
       <c r="E12" t="b">
         <v>0</v>
       </c>
+      <c r="F12" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -730,6 +768,9 @@
       <c r="E13" t="b">
         <v>0</v>
       </c>
+      <c r="F13" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -753,6 +794,9 @@
       <c r="E14" t="b">
         <v>0</v>
       </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -776,6 +820,9 @@
       <c r="E15" t="b">
         <v>0</v>
       </c>
+      <c r="F15" t="n">
+        <v>0.09523809523809523</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -799,6 +846,9 @@
       <c r="E16" t="b">
         <v>0</v>
       </c>
+      <c r="F16" t="n">
+        <v>0.3043478260869565</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -822,6 +872,9 @@
       <c r="E17" t="b">
         <v>0</v>
       </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -845,6 +898,9 @@
       <c r="E18" t="b">
         <v>0</v>
       </c>
+      <c r="F18" t="n">
+        <v>0.1333333333333333</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -868,6 +924,9 @@
       <c r="E19" t="b">
         <v>0</v>
       </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -891,6 +950,9 @@
       <c r="E20" t="b">
         <v>0</v>
       </c>
+      <c r="F20" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -914,6 +976,9 @@
       <c r="E21" t="b">
         <v>0</v>
       </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -937,6 +1002,9 @@
       <c r="E22" t="b">
         <v>0</v>
       </c>
+      <c r="F22" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -960,6 +1028,9 @@
       <c r="E23" t="b">
         <v>0</v>
       </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -983,6 +1054,9 @@
       <c r="E24" t="b">
         <v>0</v>
       </c>
+      <c r="F24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1006,6 +1080,9 @@
       <c r="E25" t="b">
         <v>0</v>
       </c>
+      <c r="F25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1029,6 +1106,9 @@
       <c r="E26" t="b">
         <v>0</v>
       </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1052,6 +1132,9 @@
       <c r="E27" t="b">
         <v>0</v>
       </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1075,6 +1158,9 @@
       <c r="E28" t="b">
         <v>0</v>
       </c>
+      <c r="F28" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1098,6 +1184,9 @@
       <c r="E29" t="b">
         <v>0</v>
       </c>
+      <c r="F29" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1121,6 +1210,9 @@
       <c r="E30" t="b">
         <v>0</v>
       </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1144,6 +1236,9 @@
       <c r="E31" t="b">
         <v>0</v>
       </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1167,6 +1262,9 @@
       <c r="E32" t="b">
         <v>0</v>
       </c>
+      <c r="F32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1190,6 +1288,9 @@
       <c r="E33" t="b">
         <v>0</v>
       </c>
+      <c r="F33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1213,6 +1314,9 @@
       <c r="E34" t="b">
         <v>0</v>
       </c>
+      <c r="F34" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1236,6 +1340,9 @@
       <c r="E35" t="b">
         <v>0</v>
       </c>
+      <c r="F35" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1259,6 +1366,9 @@
       <c r="E36" t="b">
         <v>0</v>
       </c>
+      <c r="F36" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1282,6 +1392,9 @@
       <c r="E37" t="b">
         <v>0</v>
       </c>
+      <c r="F37" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1305,6 +1418,9 @@
       <c r="E38" t="b">
         <v>0</v>
       </c>
+      <c r="F38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1328,6 +1444,9 @@
       <c r="E39" t="b">
         <v>0</v>
       </c>
+      <c r="F39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1351,6 +1470,9 @@
       <c r="E40" t="b">
         <v>0</v>
       </c>
+      <c r="F40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1374,6 +1496,9 @@
       <c r="E41" t="b">
         <v>0</v>
       </c>
+      <c r="F41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1397,6 +1522,9 @@
       <c r="E42" t="b">
         <v>0</v>
       </c>
+      <c r="F42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1420,6 +1548,9 @@
       <c r="E43" t="b">
         <v>0</v>
       </c>
+      <c r="F43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1443,6 +1574,9 @@
       <c r="E44" t="b">
         <v>0</v>
       </c>
+      <c r="F44" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1466,6 +1600,9 @@
       <c r="E45" t="b">
         <v>0</v>
       </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1489,6 +1626,9 @@
       <c r="E46" t="b">
         <v>0</v>
       </c>
+      <c r="F46" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1512,6 +1652,9 @@
       <c r="E47" t="b">
         <v>0</v>
       </c>
+      <c r="F47" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1535,6 +1678,9 @@
       <c r="E48" t="b">
         <v>0</v>
       </c>
+      <c r="F48" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1558,6 +1704,9 @@
       <c r="E49" t="b">
         <v>0</v>
       </c>
+      <c r="F49" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1581,6 +1730,9 @@
       <c r="E50" t="b">
         <v>0</v>
       </c>
+      <c r="F50" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1604,6 +1756,9 @@
       <c r="E51" t="b">
         <v>0</v>
       </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1627,6 +1782,9 @@
       <c r="E52" t="b">
         <v>0</v>
       </c>
+      <c r="F52" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1650,6 +1808,9 @@
       <c r="E53" t="b">
         <v>0</v>
       </c>
+      <c r="F53" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1673,6 +1834,9 @@
       <c r="E54" t="b">
         <v>0</v>
       </c>
+      <c r="F54" t="n">
+        <v>0.5833333333333334</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1696,6 +1860,9 @@
       <c r="E55" t="b">
         <v>0</v>
       </c>
+      <c r="F55" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1719,6 +1886,9 @@
       <c r="E56" t="b">
         <v>0</v>
       </c>
+      <c r="F56" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1742,6 +1912,9 @@
       <c r="E57" t="b">
         <v>0</v>
       </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1765,6 +1938,9 @@
       <c r="E58" t="b">
         <v>0</v>
       </c>
+      <c r="F58" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1788,6 +1964,9 @@
       <c r="E59" t="b">
         <v>0</v>
       </c>
+      <c r="F59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1811,6 +1990,9 @@
       <c r="E60" t="b">
         <v>0</v>
       </c>
+      <c r="F60" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1834,6 +2016,9 @@
       <c r="E61" t="b">
         <v>0</v>
       </c>
+      <c r="F61" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1857,6 +2042,9 @@
       <c r="E62" t="b">
         <v>0</v>
       </c>
+      <c r="F62" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -1880,6 +2068,9 @@
       <c r="E63" t="b">
         <v>0</v>
       </c>
+      <c r="F63" t="n">
+        <v>0.1333333333333333</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -1903,6 +2094,9 @@
       <c r="E64" t="b">
         <v>0</v>
       </c>
+      <c r="F64" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -1926,6 +2120,9 @@
       <c r="E65" t="b">
         <v>0</v>
       </c>
+      <c r="F65" t="n">
+        <v>0.5294117647058824</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -1949,6 +2146,9 @@
       <c r="E66" t="b">
         <v>0</v>
       </c>
+      <c r="F66" t="n">
+        <v>0.08333333333333333</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -1972,6 +2172,9 @@
       <c r="E67" t="b">
         <v>0</v>
       </c>
+      <c r="F67" t="n">
+        <v>0.5833333333333334</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -1995,6 +2198,9 @@
       <c r="E68" t="b">
         <v>0</v>
       </c>
+      <c r="F68" t="n">
+        <v>0.1875</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2018,6 +2224,9 @@
       <c r="E69" t="b">
         <v>0</v>
       </c>
+      <c r="F69" t="n">
+        <v>0.7272727272727273</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2041,6 +2250,9 @@
       <c r="E70" t="b">
         <v>0</v>
       </c>
+      <c r="F70" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2064,6 +2276,9 @@
       <c r="E71" t="b">
         <v>0</v>
       </c>
+      <c r="F71" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2087,6 +2302,9 @@
       <c r="E72" t="b">
         <v>0</v>
       </c>
+      <c r="F72" t="n">
+        <v>0.8571428571428571</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2110,6 +2328,9 @@
       <c r="E73" t="b">
         <v>0</v>
       </c>
+      <c r="F73" t="n">
+        <v>0.1333333333333333</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2133,6 +2354,9 @@
       <c r="E74" t="b">
         <v>0</v>
       </c>
+      <c r="F74" t="n">
+        <v>0.1428571428571428</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2156,6 +2380,9 @@
       <c r="E75" t="b">
         <v>0</v>
       </c>
+      <c r="F75" t="n">
+        <v>0.07692307692307693</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2179,6 +2406,9 @@
       <c r="E76" t="b">
         <v>0</v>
       </c>
+      <c r="F76" t="n">
+        <v>0.6923076923076923</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2202,6 +2432,9 @@
       <c r="E77" t="b">
         <v>0</v>
       </c>
+      <c r="F77" t="n">
+        <v>0.07692307692307693</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2225,6 +2458,9 @@
       <c r="E78" t="b">
         <v>0</v>
       </c>
+      <c r="F78" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2248,6 +2484,9 @@
       <c r="E79" t="b">
         <v>0</v>
       </c>
+      <c r="F79" t="n">
+        <v>0.5384615384615384</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2271,6 +2510,9 @@
       <c r="E80" t="b">
         <v>0</v>
       </c>
+      <c r="F80" t="n">
+        <v>0.1538461538461539</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2294,6 +2536,9 @@
       <c r="E81" t="b">
         <v>0</v>
       </c>
+      <c r="F81" t="n">
+        <v>0.625</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2317,6 +2562,9 @@
       <c r="E82" t="b">
         <v>0</v>
       </c>
+      <c r="F82" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2340,6 +2588,9 @@
       <c r="E83" t="b">
         <v>0</v>
       </c>
+      <c r="F83" t="n">
+        <v>0.05555555555555555</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2363,6 +2614,9 @@
       <c r="E84" t="b">
         <v>0</v>
       </c>
+      <c r="F84" t="n">
+        <v>0.1333333333333333</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2386,6 +2640,9 @@
       <c r="E85" t="b">
         <v>0</v>
       </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2409,6 +2666,9 @@
       <c r="E86" t="b">
         <v>0</v>
       </c>
+      <c r="F86" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2432,6 +2692,9 @@
       <c r="E87" t="b">
         <v>0</v>
       </c>
+      <c r="F87" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2455,6 +2718,9 @@
       <c r="E88" t="b">
         <v>0</v>
       </c>
+      <c r="F88" t="n">
+        <v>0.2307692307692308</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2478,6 +2744,9 @@
       <c r="E89" t="b">
         <v>0</v>
       </c>
+      <c r="F89" t="n">
+        <v>0.07142857142857142</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2501,6 +2770,9 @@
       <c r="E90" t="b">
         <v>0</v>
       </c>
+      <c r="F90" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2524,6 +2796,9 @@
       <c r="E91" t="b">
         <v>0</v>
       </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2547,6 +2822,9 @@
       <c r="E92" t="b">
         <v>0</v>
       </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2570,6 +2848,9 @@
       <c r="E93" t="b">
         <v>0</v>
       </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2593,6 +2874,9 @@
       <c r="E94" t="b">
         <v>0</v>
       </c>
+      <c r="F94" t="n">
+        <v>0.6111111111111112</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2616,6 +2900,9 @@
       <c r="E95" t="b">
         <v>0</v>
       </c>
+      <c r="F95" t="n">
+        <v>0.5454545454545454</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2639,6 +2926,9 @@
       <c r="E96" t="b">
         <v>0</v>
       </c>
+      <c r="F96" t="n">
+        <v>0.1538461538461539</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2662,6 +2952,9 @@
       <c r="E97" t="b">
         <v>0</v>
       </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2685,6 +2978,9 @@
       <c r="E98" t="b">
         <v>0</v>
       </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2708,6 +3004,9 @@
       <c r="E99" t="b">
         <v>0</v>
       </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2731,6 +3030,9 @@
       <c r="E100" t="b">
         <v>0</v>
       </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2754,6 +3056,9 @@
       <c r="E101" t="b">
         <v>0</v>
       </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2777,6 +3082,9 @@
       <c r="E102" t="b">
         <v>0</v>
       </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -2800,6 +3108,9 @@
       <c r="E103" t="b">
         <v>0</v>
       </c>
+      <c r="F103" t="n">
+        <v>0.04545454545454546</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -2823,6 +3134,9 @@
       <c r="E104" t="b">
         <v>0</v>
       </c>
+      <c r="F104" t="n">
+        <v>0.6923076923076923</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -2846,6 +3160,9 @@
       <c r="E105" t="b">
         <v>0</v>
       </c>
+      <c r="F105" t="n">
+        <v>0.07142857142857142</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -2869,6 +3186,9 @@
       <c r="E106" t="b">
         <v>0</v>
       </c>
+      <c r="F106" t="n">
+        <v>0.4411764705882353</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -2892,6 +3212,9 @@
       <c r="E107" t="b">
         <v>0</v>
       </c>
+      <c r="F107" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -2915,6 +3238,9 @@
       <c r="E108" t="b">
         <v>0</v>
       </c>
+      <c r="F108" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -2938,6 +3264,9 @@
       <c r="E109" t="b">
         <v>0</v>
       </c>
+      <c r="F109" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -2961,6 +3290,9 @@
       <c r="E110" t="b">
         <v>0</v>
       </c>
+      <c r="F110" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -2984,6 +3316,9 @@
       <c r="E111" t="b">
         <v>0</v>
       </c>
+      <c r="F111" t="n">
+        <v>0.55</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3007,6 +3342,9 @@
       <c r="E112" t="b">
         <v>0</v>
       </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3030,6 +3368,9 @@
       <c r="E113" t="b">
         <v>0</v>
       </c>
+      <c r="F113" t="n">
+        <v>0.05882352941176471</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3053,6 +3394,9 @@
       <c r="E114" t="b">
         <v>0</v>
       </c>
+      <c r="F114" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3076,6 +3420,9 @@
       <c r="E115" t="b">
         <v>0</v>
       </c>
+      <c r="F115" t="n">
+        <v>0.07692307692307693</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3099,6 +3446,9 @@
       <c r="E116" t="b">
         <v>0</v>
       </c>
+      <c r="F116" t="n">
+        <v>0.4117647058823529</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3122,6 +3472,9 @@
       <c r="E117" t="b">
         <v>0</v>
       </c>
+      <c r="F117" t="n">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3145,6 +3498,9 @@
       <c r="E118" t="b">
         <v>0</v>
       </c>
+      <c r="F118" t="n">
+        <v>0.4666666666666667</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3168,6 +3524,9 @@
       <c r="E119" t="b">
         <v>0</v>
       </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3191,6 +3550,9 @@
       <c r="E120" t="b">
         <v>0</v>
       </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3214,6 +3576,9 @@
       <c r="E121" t="b">
         <v>0</v>
       </c>
+      <c r="F121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3237,6 +3602,9 @@
       <c r="E122" t="b">
         <v>0</v>
       </c>
+      <c r="F122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3260,6 +3628,9 @@
       <c r="E123" t="b">
         <v>0</v>
       </c>
+      <c r="F123" t="n">
+        <v>0.09090909090909091</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3283,6 +3654,9 @@
       <c r="E124" t="b">
         <v>0</v>
       </c>
+      <c r="F124" t="n">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3306,6 +3680,9 @@
       <c r="E125" t="b">
         <v>0</v>
       </c>
+      <c r="F125" t="n">
+        <v>0.5789473684210527</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3329,6 +3706,9 @@
       <c r="E126" t="b">
         <v>0</v>
       </c>
+      <c r="F126" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3352,6 +3732,9 @@
       <c r="E127" t="b">
         <v>0</v>
       </c>
+      <c r="F127" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3375,6 +3758,9 @@
       <c r="E128" t="b">
         <v>0</v>
       </c>
+      <c r="F128" t="n">
+        <v>0.5454545454545454</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3398,6 +3784,9 @@
       <c r="E129" t="b">
         <v>0</v>
       </c>
+      <c r="F129" t="n">
+        <v>0.05882352941176471</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3421,6 +3810,9 @@
       <c r="E130" t="b">
         <v>0</v>
       </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3444,6 +3836,9 @@
       <c r="E131" t="b">
         <v>0</v>
       </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3467,6 +3862,9 @@
       <c r="E132" t="b">
         <v>0</v>
       </c>
+      <c r="F132" t="n">
+        <v>0.06666666666666667</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3490,6 +3888,9 @@
       <c r="E133" t="b">
         <v>0</v>
       </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3513,6 +3914,9 @@
       <c r="E134" t="b">
         <v>0</v>
       </c>
+      <c r="F134" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3536,6 +3940,9 @@
       <c r="E135" t="b">
         <v>0</v>
       </c>
+      <c r="F135" t="n">
+        <v>0.05555555555555555</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3559,6 +3966,9 @@
       <c r="E136" t="b">
         <v>0</v>
       </c>
+      <c r="F136" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3582,6 +3992,9 @@
       <c r="E137" t="b">
         <v>0</v>
       </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3605,6 +4018,9 @@
       <c r="E138" t="b">
         <v>0</v>
       </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3628,6 +4044,9 @@
       <c r="E139" t="b">
         <v>0</v>
       </c>
+      <c r="F139" t="n">
+        <v>0.08333333333333333</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3651,6 +4070,9 @@
       <c r="E140" t="b">
         <v>0</v>
       </c>
+      <c r="F140" t="n">
+        <v>0.8461538461538461</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3674,6 +4096,9 @@
       <c r="E141" t="b">
         <v>0</v>
       </c>
+      <c r="F141" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3697,6 +4122,9 @@
       <c r="E142" t="b">
         <v>0</v>
       </c>
+      <c r="F142" t="n">
+        <v>0.1764705882352941</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -3720,6 +4148,9 @@
       <c r="E143" t="b">
         <v>0</v>
       </c>
+      <c r="F143" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -3743,6 +4174,9 @@
       <c r="E144" t="b">
         <v>0</v>
       </c>
+      <c r="F144" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -3766,6 +4200,9 @@
       <c r="E145" t="b">
         <v>0</v>
       </c>
+      <c r="F145" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -3789,6 +4226,9 @@
       <c r="E146" t="b">
         <v>0</v>
       </c>
+      <c r="F146" t="n">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -3812,6 +4252,9 @@
       <c r="E147" t="b">
         <v>0</v>
       </c>
+      <c r="F147" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -3835,6 +4278,9 @@
       <c r="E148" t="b">
         <v>0</v>
       </c>
+      <c r="F148" t="n">
+        <v>0.1333333333333333</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -3858,6 +4304,9 @@
       <c r="E149" t="b">
         <v>0</v>
       </c>
+      <c r="F149" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -3881,6 +4330,9 @@
       <c r="E150" t="b">
         <v>0</v>
       </c>
+      <c r="F150" t="n">
+        <v>0.06666666666666667</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -3904,6 +4356,9 @@
       <c r="E151" t="b">
         <v>0</v>
       </c>
+      <c r="F151" t="n">
+        <v>0.2222222222222222</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -3927,6 +4382,9 @@
       <c r="E152" t="b">
         <v>0</v>
       </c>
+      <c r="F152" t="n">
+        <v>0.05882352941176471</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -3950,6 +4408,9 @@
       <c r="E153" t="b">
         <v>0</v>
       </c>
+      <c r="F153" t="n">
+        <v>0.1666666666666667</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -3973,6 +4434,9 @@
       <c r="E154" t="b">
         <v>0</v>
       </c>
+      <c r="F154" t="n">
+        <v>0.08333333333333333</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -3996,6 +4460,9 @@
       <c r="E155" t="b">
         <v>0</v>
       </c>
+      <c r="F155" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4019,6 +4486,9 @@
       <c r="E156" t="b">
         <v>0</v>
       </c>
+      <c r="F156" t="n">
+        <v>0.6521739130434783</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4042,6 +4512,9 @@
       <c r="E157" t="b">
         <v>0</v>
       </c>
+      <c r="F157" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4065,6 +4538,9 @@
       <c r="E158" t="b">
         <v>0</v>
       </c>
+      <c r="F158" t="n">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4088,6 +4564,9 @@
       <c r="E159" t="b">
         <v>0</v>
       </c>
+      <c r="F159" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4111,6 +4590,9 @@
       <c r="E160" t="b">
         <v>0</v>
       </c>
+      <c r="F160" t="n">
+        <v>0.1818181818181818</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4134,6 +4616,9 @@
       <c r="E161" t="b">
         <v>0</v>
       </c>
+      <c r="F161" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4157,6 +4642,9 @@
       <c r="E162" t="b">
         <v>0</v>
       </c>
+      <c r="F162" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4180,6 +4668,9 @@
       <c r="E163" t="b">
         <v>0</v>
       </c>
+      <c r="F163" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4203,6 +4694,9 @@
       <c r="E164" t="b">
         <v>0</v>
       </c>
+      <c r="F164" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4226,6 +4720,9 @@
       <c r="E165" t="b">
         <v>0</v>
       </c>
+      <c r="F165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4249,6 +4746,9 @@
       <c r="E166" t="b">
         <v>0</v>
       </c>
+      <c r="F166" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4272,6 +4772,9 @@
       <c r="E167" t="b">
         <v>0</v>
       </c>
+      <c r="F167" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4295,6 +4798,9 @@
       <c r="E168" t="b">
         <v>0</v>
       </c>
+      <c r="F168" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4318,6 +4824,9 @@
       <c r="E169" t="b">
         <v>0</v>
       </c>
+      <c r="F169" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4341,6 +4850,9 @@
       <c r="E170" t="b">
         <v>0</v>
       </c>
+      <c r="F170" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4364,6 +4876,9 @@
       <c r="E171" t="b">
         <v>0</v>
       </c>
+      <c r="F171" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4387,6 +4902,9 @@
       <c r="E172" t="b">
         <v>0</v>
       </c>
+      <c r="F172" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4410,6 +4928,9 @@
       <c r="E173" t="b">
         <v>0</v>
       </c>
+      <c r="F173" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4433,6 +4954,9 @@
       <c r="E174" t="b">
         <v>0</v>
       </c>
+      <c r="F174" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4456,6 +4980,9 @@
       <c r="E175" t="b">
         <v>0</v>
       </c>
+      <c r="F175" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4479,6 +5006,9 @@
       <c r="E176" t="b">
         <v>0</v>
       </c>
+      <c r="F176" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4502,6 +5032,9 @@
       <c r="E177" t="b">
         <v>0</v>
       </c>
+      <c r="F177" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4525,6 +5058,9 @@
       <c r="E178" t="b">
         <v>0</v>
       </c>
+      <c r="F178" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4548,6 +5084,9 @@
       <c r="E179" t="b">
         <v>0</v>
       </c>
+      <c r="F179" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4571,6 +5110,9 @@
       <c r="E180" t="b">
         <v>0</v>
       </c>
+      <c r="F180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4594,6 +5136,9 @@
       <c r="E181" t="b">
         <v>0</v>
       </c>
+      <c r="F181" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4617,6 +5162,9 @@
       <c r="E182" t="b">
         <v>0</v>
       </c>
+      <c r="F182" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -4640,6 +5188,9 @@
       <c r="E183" t="b">
         <v>0</v>
       </c>
+      <c r="F183" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -4663,6 +5214,9 @@
       <c r="E184" t="b">
         <v>0</v>
       </c>
+      <c r="F184" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -4686,6 +5240,9 @@
       <c r="E185" t="b">
         <v>0</v>
       </c>
+      <c r="F185" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -4709,6 +5266,9 @@
       <c r="E186" t="b">
         <v>0</v>
       </c>
+      <c r="F186" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -4732,6 +5292,9 @@
       <c r="E187" t="b">
         <v>0</v>
       </c>
+      <c r="F187" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -4755,6 +5318,9 @@
       <c r="E188" t="b">
         <v>0</v>
       </c>
+      <c r="F188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -4778,6 +5344,9 @@
       <c r="E189" t="b">
         <v>0</v>
       </c>
+      <c r="F189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -4801,6 +5370,9 @@
       <c r="E190" t="b">
         <v>0</v>
       </c>
+      <c r="F190" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -4824,6 +5396,9 @@
       <c r="E191" t="b">
         <v>0</v>
       </c>
+      <c r="F191" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -4847,6 +5422,9 @@
       <c r="E192" t="b">
         <v>0</v>
       </c>
+      <c r="F192" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -4870,6 +5448,9 @@
       <c r="E193" t="b">
         <v>0</v>
       </c>
+      <c r="F193" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -4893,6 +5474,9 @@
       <c r="E194" t="b">
         <v>0</v>
       </c>
+      <c r="F194" t="n">
+        <v>0.8333333333333334</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -4916,6 +5500,9 @@
       <c r="E195" t="b">
         <v>0</v>
       </c>
+      <c r="F195" t="n">
+        <v>0.1818181818181818</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -4939,6 +5526,9 @@
       <c r="E196" t="b">
         <v>0</v>
       </c>
+      <c r="F196" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -4962,6 +5552,9 @@
       <c r="E197" t="b">
         <v>0</v>
       </c>
+      <c r="F197" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -4985,6 +5578,9 @@
       <c r="E198" t="b">
         <v>0</v>
       </c>
+      <c r="F198" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -5008,6 +5604,9 @@
       <c r="E199" t="b">
         <v>0</v>
       </c>
+      <c r="F199" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -5031,6 +5630,9 @@
       <c r="E200" t="b">
         <v>0</v>
       </c>
+      <c r="F200" t="n">
+        <v>0.3846153846153846</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -5054,6 +5656,9 @@
       <c r="E201" t="b">
         <v>0</v>
       </c>
+      <c r="F201" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -5077,6 +5682,9 @@
       <c r="E202" t="b">
         <v>0</v>
       </c>
+      <c r="F202" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -5100,6 +5708,9 @@
       <c r="E203" t="b">
         <v>0</v>
       </c>
+      <c r="F203" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -5123,6 +5734,9 @@
       <c r="E204" t="b">
         <v>0</v>
       </c>
+      <c r="F204" t="n">
+        <v>0.8181818181818182</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -5146,6 +5760,9 @@
       <c r="E205" t="b">
         <v>0</v>
       </c>
+      <c r="F205" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -5169,6 +5786,9 @@
       <c r="E206" t="b">
         <v>0</v>
       </c>
+      <c r="F206" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -5192,6 +5812,9 @@
       <c r="E207" t="b">
         <v>0</v>
       </c>
+      <c r="F207" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -5215,6 +5838,9 @@
       <c r="E208" t="b">
         <v>0</v>
       </c>
+      <c r="F208" t="n">
+        <v>0.4166666666666667</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -5238,6 +5864,9 @@
       <c r="E209" t="b">
         <v>0</v>
       </c>
+      <c r="F209" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -5261,6 +5890,9 @@
       <c r="E210" t="b">
         <v>0</v>
       </c>
+      <c r="F210" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -5284,6 +5916,9 @@
       <c r="E211" t="b">
         <v>0</v>
       </c>
+      <c r="F211" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -5307,6 +5942,9 @@
       <c r="E212" t="b">
         <v>0</v>
       </c>
+      <c r="F212" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -5330,6 +5968,9 @@
       <c r="E213" t="b">
         <v>0</v>
       </c>
+      <c r="F213" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -5353,6 +5994,9 @@
       <c r="E214" t="b">
         <v>0</v>
       </c>
+      <c r="F214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -5376,6 +6020,9 @@
       <c r="E215" t="b">
         <v>0</v>
       </c>
+      <c r="F215" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -5399,6 +6046,9 @@
       <c r="E216" t="b">
         <v>0</v>
       </c>
+      <c r="F216" t="n">
+        <v>0.9473684210526315</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -5422,6 +6072,9 @@
       <c r="E217" t="b">
         <v>0</v>
       </c>
+      <c r="F217" t="n">
+        <v>0.07142857142857142</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -5445,6 +6098,9 @@
       <c r="E218" t="b">
         <v>0</v>
       </c>
+      <c r="F218" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -5468,6 +6124,9 @@
       <c r="E219" t="b">
         <v>0</v>
       </c>
+      <c r="F219" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -5491,6 +6150,9 @@
       <c r="E220" t="b">
         <v>0</v>
       </c>
+      <c r="F220" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -5514,6 +6176,9 @@
       <c r="E221" t="b">
         <v>0</v>
       </c>
+      <c r="F221" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -5537,6 +6202,9 @@
       <c r="E222" t="b">
         <v>0</v>
       </c>
+      <c r="F222" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -5560,6 +6228,9 @@
       <c r="E223" t="b">
         <v>0</v>
       </c>
+      <c r="F223" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -5583,6 +6254,9 @@
       <c r="E224" t="b">
         <v>0</v>
       </c>
+      <c r="F224" t="n">
+        <v>0.9090909090909091</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -5606,6 +6280,9 @@
       <c r="E225" t="b">
         <v>0</v>
       </c>
+      <c r="F225" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -5629,6 +6306,9 @@
       <c r="E226" t="b">
         <v>0</v>
       </c>
+      <c r="F226" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -5652,6 +6332,9 @@
       <c r="E227" t="b">
         <v>0</v>
       </c>
+      <c r="F227" t="n">
+        <v>0.6666666666666666</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -5676,6 +6359,9 @@
       <c r="E228" t="b">
         <v>0</v>
       </c>
+      <c r="F228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -5701,6 +6387,9 @@
       <c r="E229" t="b">
         <v>0</v>
       </c>
+      <c r="F229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -5725,6 +6414,9 @@
       <c r="E230" t="b">
         <v>0</v>
       </c>
+      <c r="F230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -5748,6 +6440,9 @@
       <c r="E231" t="b">
         <v>0</v>
       </c>
+      <c r="F231" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -5771,6 +6466,9 @@
       <c r="E232" t="b">
         <v>0</v>
       </c>
+      <c r="F232" t="n">
+        <v>0.9333333333333333</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -5795,6 +6493,9 @@
       <c r="E233" t="b">
         <v>0</v>
       </c>
+      <c r="F233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -5818,6 +6519,9 @@
       <c r="E234" t="b">
         <v>0</v>
       </c>
+      <c r="F234" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -5841,6 +6545,9 @@
       <c r="E235" t="b">
         <v>0</v>
       </c>
+      <c r="F235" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -5864,6 +6571,9 @@
       <c r="E236" t="b">
         <v>0</v>
       </c>
+      <c r="F236" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -5887,6 +6597,9 @@
       <c r="E237" t="b">
         <v>0</v>
       </c>
+      <c r="F237" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -5910,6 +6623,9 @@
       <c r="E238" t="b">
         <v>0</v>
       </c>
+      <c r="F238" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -5934,6 +6650,9 @@
       <c r="E239" t="b">
         <v>0</v>
       </c>
+      <c r="F239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -5957,6 +6676,9 @@
       <c r="E240" t="b">
         <v>0</v>
       </c>
+      <c r="F240" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -5980,6 +6702,9 @@
       <c r="E241" t="b">
         <v>0</v>
       </c>
+      <c r="F241" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -6003,6 +6728,9 @@
       <c r="E242" t="b">
         <v>0</v>
       </c>
+      <c r="F242" t="n">
+        <v>0.4285714285714285</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -6026,6 +6754,9 @@
       <c r="E243" t="b">
         <v>0</v>
       </c>
+      <c r="F243" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -6049,6 +6780,9 @@
       <c r="E244" t="b">
         <v>0</v>
       </c>
+      <c r="F244" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -6072,6 +6806,9 @@
       <c r="E245" t="b">
         <v>0</v>
       </c>
+      <c r="F245" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -6095,6 +6832,9 @@
       <c r="E246" t="b">
         <v>0</v>
       </c>
+      <c r="F246" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -6118,6 +6858,9 @@
       <c r="E247" t="b">
         <v>0</v>
       </c>
+      <c r="F247" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -6141,6 +6884,9 @@
       <c r="E248" t="b">
         <v>0</v>
       </c>
+      <c r="F248" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -6164,6 +6910,9 @@
       <c r="E249" t="b">
         <v>0</v>
       </c>
+      <c r="F249" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -6187,6 +6936,9 @@
       <c r="E250" t="b">
         <v>0</v>
       </c>
+      <c r="F250" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -6210,6 +6962,9 @@
       <c r="E251" t="b">
         <v>0</v>
       </c>
+      <c r="F251" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -6233,6 +6988,9 @@
       <c r="E252" t="b">
         <v>0</v>
       </c>
+      <c r="F252" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -6256,6 +7014,9 @@
       <c r="E253" t="b">
         <v>0</v>
       </c>
+      <c r="F253" t="n">
+        <v>0.09090909090909091</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -6279,6 +7040,9 @@
       <c r="E254" t="b">
         <v>0</v>
       </c>
+      <c r="F254" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -6302,6 +7066,9 @@
       <c r="E255" t="b">
         <v>0</v>
       </c>
+      <c r="F255" t="n">
+        <v>0.9444444444444444</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -6325,6 +7092,9 @@
       <c r="E256" t="b">
         <v>0</v>
       </c>
+      <c r="F256" t="n">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -6349,6 +7119,9 @@
       <c r="E257" t="b">
         <v>0</v>
       </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -6372,6 +7145,9 @@
       <c r="E258" t="b">
         <v>0</v>
       </c>
+      <c r="F258" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -6395,6 +7171,9 @@
       <c r="E259" t="b">
         <v>0</v>
       </c>
+      <c r="F259" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -6418,6 +7197,9 @@
       <c r="E260" t="b">
         <v>0</v>
       </c>
+      <c r="F260" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -6441,6 +7223,9 @@
       <c r="E261" t="b">
         <v>0</v>
       </c>
+      <c r="F261" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -6465,6 +7250,9 @@
       <c r="E262" t="b">
         <v>0</v>
       </c>
+      <c r="F262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -6488,6 +7276,9 @@
       <c r="E263" t="b">
         <v>0</v>
       </c>
+      <c r="F263" t="n">
+        <v>0.09090909090909091</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -6511,6 +7302,9 @@
       <c r="E264" t="b">
         <v>0</v>
       </c>
+      <c r="F264" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -6534,6 +7328,9 @@
       <c r="E265" t="b">
         <v>0</v>
       </c>
+      <c r="F265" t="n">
+        <v>0.0625</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -6557,6 +7354,9 @@
       <c r="E266" t="b">
         <v>0</v>
       </c>
+      <c r="F266" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -6581,6 +7381,9 @@
       <c r="E267" t="b">
         <v>0</v>
       </c>
+      <c r="F267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -6604,6 +7407,9 @@
       <c r="E268" t="b">
         <v>0</v>
       </c>
+      <c r="F268" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -6627,6 +7433,9 @@
       <c r="E269" t="b">
         <v>0</v>
       </c>
+      <c r="F269" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -6650,6 +7459,9 @@
       <c r="E270" t="b">
         <v>0</v>
       </c>
+      <c r="F270" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -6673,6 +7485,9 @@
       <c r="E271" t="b">
         <v>0</v>
       </c>
+      <c r="F271" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -6696,6 +7511,9 @@
       <c r="E272" t="b">
         <v>0</v>
       </c>
+      <c r="F272" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -6719,6 +7537,9 @@
       <c r="E273" t="b">
         <v>0</v>
       </c>
+      <c r="F273" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -6742,6 +7563,9 @@
       <c r="E274" t="b">
         <v>0</v>
       </c>
+      <c r="F274" t="n">
+        <v>0.125</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -6765,6 +7589,9 @@
       <c r="E275" t="b">
         <v>0</v>
       </c>
+      <c r="F275" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -6788,6 +7615,9 @@
       <c r="E276" t="b">
         <v>0</v>
       </c>
+      <c r="F276" t="n">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -6812,6 +7642,9 @@
       <c r="E277" t="b">
         <v>0</v>
       </c>
+      <c r="F277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -6835,6 +7668,9 @@
       <c r="E278" t="b">
         <v>0</v>
       </c>
+      <c r="F278" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -6859,6 +7695,9 @@
       <c r="E279" t="b">
         <v>0</v>
       </c>
+      <c r="F279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -6882,6 +7721,9 @@
       <c r="E280" t="b">
         <v>0</v>
       </c>
+      <c r="F280" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -6905,6 +7747,9 @@
       <c r="E281" t="b">
         <v>0</v>
       </c>
+      <c r="F281" t="n">
+        <v>0.09090909090909091</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -6928,6 +7773,9 @@
       <c r="E282" t="b">
         <v>0</v>
       </c>
+      <c r="F282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -6951,6 +7799,9 @@
       <c r="E283" t="b">
         <v>0</v>
       </c>
+      <c r="F283" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -6974,6 +7825,9 @@
       <c r="E284" t="b">
         <v>0</v>
       </c>
+      <c r="F284" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -6997,6 +7851,9 @@
       <c r="E285" t="b">
         <v>0</v>
       </c>
+      <c r="F285" t="n">
+        <v>0.7142857142857143</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -7020,6 +7877,9 @@
       <c r="E286" t="b">
         <v>0</v>
       </c>
+      <c r="F286" t="n">
+        <v>0.9230769230769231</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -7043,6 +7903,9 @@
       <c r="E287" t="b">
         <v>0</v>
       </c>
+      <c r="F287" t="n">
+        <v>0.03846153846153846</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -7066,6 +7929,9 @@
       <c r="E288" t="b">
         <v>0</v>
       </c>
+      <c r="F288" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -7089,6 +7955,9 @@
       <c r="E289" t="b">
         <v>0</v>
       </c>
+      <c r="F289" t="n">
+        <v>0.8181818181818182</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -7112,6 +7981,9 @@
       <c r="E290" t="b">
         <v>0</v>
       </c>
+      <c r="F290" t="n">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -7135,6 +8007,9 @@
       <c r="E291" t="b">
         <v>0</v>
       </c>
+      <c r="F291" t="n">
+        <v>0.3529411764705883</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -7158,6 +8033,9 @@
       <c r="E292" t="b">
         <v>0</v>
       </c>
+      <c r="F292" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -7181,6 +8059,9 @@
       <c r="E293" t="b">
         <v>0</v>
       </c>
+      <c r="F293" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -7204,6 +8085,9 @@
       <c r="E294" t="b">
         <v>0</v>
       </c>
+      <c r="F294" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -7227,6 +8111,9 @@
       <c r="E295" t="b">
         <v>0</v>
       </c>
+      <c r="F295" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -7250,6 +8137,9 @@
       <c r="E296" t="b">
         <v>0</v>
       </c>
+      <c r="F296" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -7273,6 +8163,9 @@
       <c r="E297" t="b">
         <v>0</v>
       </c>
+      <c r="F297" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -7297,6 +8190,9 @@
       <c r="E298" t="b">
         <v>0</v>
       </c>
+      <c r="F298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -7321,6 +8217,9 @@
       <c r="E299" t="b">
         <v>0</v>
       </c>
+      <c r="F299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -7345,6 +8244,9 @@
       <c r="E300" t="b">
         <v>0</v>
       </c>
+      <c r="F300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -7368,6 +8270,9 @@
       <c r="E301" t="b">
         <v>0</v>
       </c>
+      <c r="F301" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -7391,6 +8296,9 @@
       <c r="E302" t="b">
         <v>0</v>
       </c>
+      <c r="F302" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -7414,6 +8322,9 @@
       <c r="E303" t="b">
         <v>0</v>
       </c>
+      <c r="F303" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -7437,6 +8348,9 @@
       <c r="E304" t="b">
         <v>0</v>
       </c>
+      <c r="F304" t="n">
+        <v>0.0625</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -7460,6 +8374,9 @@
       <c r="E305" t="b">
         <v>0</v>
       </c>
+      <c r="F305" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -7483,6 +8400,9 @@
       <c r="E306" t="b">
         <v>0</v>
       </c>
+      <c r="F306" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -7506,6 +8426,9 @@
       <c r="E307" t="b">
         <v>0</v>
       </c>
+      <c r="F307" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -7530,6 +8453,9 @@
       <c r="E308" t="b">
         <v>0</v>
       </c>
+      <c r="F308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -7553,6 +8479,9 @@
       <c r="E309" t="b">
         <v>0</v>
       </c>
+      <c r="F309" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -7577,6 +8506,9 @@
       <c r="E310" t="b">
         <v>0</v>
       </c>
+      <c r="F310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -7600,6 +8532,9 @@
       <c r="E311" t="b">
         <v>0</v>
       </c>
+      <c r="F311" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -7623,6 +8558,9 @@
       <c r="E312" t="b">
         <v>0</v>
       </c>
+      <c r="F312" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -7646,6 +8584,9 @@
       <c r="E313" t="b">
         <v>0</v>
       </c>
+      <c r="F313" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -7669,6 +8610,9 @@
       <c r="E314" t="b">
         <v>0</v>
       </c>
+      <c r="F314" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -7693,6 +8637,9 @@
       <c r="E315" t="b">
         <v>0</v>
       </c>
+      <c r="F315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -7716,6 +8663,9 @@
       <c r="E316" t="b">
         <v>0</v>
       </c>
+      <c r="F316" t="n">
+        <v>0.9166666666666666</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -7739,6 +8689,9 @@
       <c r="E317" t="b">
         <v>0</v>
       </c>
+      <c r="F317" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -7762,6 +8715,9 @@
       <c r="E318" t="b">
         <v>0</v>
       </c>
+      <c r="F318" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -7785,6 +8741,9 @@
       <c r="E319" t="b">
         <v>0</v>
       </c>
+      <c r="F319" t="n">
+        <v>0.07692307692307693</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -7808,6 +8767,9 @@
       <c r="E320" t="b">
         <v>0</v>
       </c>
+      <c r="F320" t="n">
+        <v>0.9411764705882353</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -7831,6 +8793,9 @@
       <c r="E321" t="b">
         <v>0</v>
       </c>
+      <c r="F321" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -7854,6 +8819,9 @@
       <c r="E322" t="b">
         <v>0</v>
       </c>
+      <c r="F322" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -7877,6 +8845,9 @@
       <c r="E323" t="b">
         <v>0</v>
       </c>
+      <c r="F323" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -7899,6 +8870,9 @@
       </c>
       <c r="E324" t="b">
         <v>0</v>
+      </c>
+      <c r="F324" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Part_2_data/false_match_on_title.xlsx
+++ b/Part_2_data/false_match_on_title.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/Part_2_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDFB5D0-5EA3-8A4E-9428-0F717655EAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908A755-855A-AE47-9A5E-F98E43D8CAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34180" yWindow="1100" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$324</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -2988,8 +2991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D325" sqref="D325"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Part_2_data/false_match_on_title.xlsx
+++ b/Part_2_data/false_match_on_title.xlsx
@@ -1,29 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11122"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/Part_2_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D908A755-855A-AE47-9A5E-F98E43D8CAFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF37E0-7370-1440-B039-51FD9DA27FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34180" yWindow="1100" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$324</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$324</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="11" r:id="rId3"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="875">
   <si>
     <t>DOI</t>
   </si>
@@ -2626,13 +2643,55 @@
   </si>
   <si>
     <t>COVID-19 Ölüm Hızını Etkileyen Faktörlerin Küresel Bazda Değerlendirilmesi</t>
+  </si>
+  <si>
+    <t>semantic noise</t>
+  </si>
+  <si>
+    <t>Inconsistent value representation</t>
+  </si>
+  <si>
+    <t>datatype noise</t>
+  </si>
+  <si>
+    <t>incorrect value</t>
+  </si>
+  <si>
+    <t>Information loss</t>
+  </si>
+  <si>
+    <t>Missing information</t>
+  </si>
+  <si>
+    <t>error_classification</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of error_classification</t>
+  </si>
+  <si>
+    <t>Error or noise classification</t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2646,6 +2705,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2655,7 +2721,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2678,18 +2744,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2702,6 +2790,2713 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Poppy Riddle" refreshedDate="45989.50280115741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="324" xr:uid="{BE8D97D8-8858-4E4F-B159-AD67E1A7AF2D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F1048576" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="DOI" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="title" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="oa_title" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="match_on_title" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="levenshtein" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
+    </cacheField>
+    <cacheField name="error_classification" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="Inconsistent value representation"/>
+        <s v="semantic noise"/>
+        <s v="Information loss"/>
+        <m/>
+        <s v="Missing information"/>
+        <s v="incorrect value"/>
+        <s v="datatype noise"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="324">
+  <r>
+    <s v="10.1007/s00108-024-01719-x"/>
+    <s v="Akuter ischämischer Schlaganfall und erhöhter Troponinwert – Update des Mannheimer Algorithmus"/>
+    <s v="Acute ischemic stroke and troponin elevation: update of the Mannheim clinical algorithm"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1523/eneuro.0449-24.2025"/>
+    <s v="Alpha-Frequency Stimulation Enhances Synchronization of Alpha Oscillations with Default Mode Network Connectivity"/>
+    <s v="Alpha-frequency stimulation strengthens coupling between temporal fluctuations in alpha oscillation power and default mode network connectivity"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="10.30627/cuilah.1168171"/>
+    <s v="TASAVVUFÎ DÜŞÜNCENİN MODERNİZMİN ÜRETTİĞİ PSİKO-SOSYAL DÜŞÜNCE AKIMLARINA KARŞI ALTERNATİF ANLAYIŞ TARZLARI-I"/>
+    <s v="Alternative Approaches Offered By Sufism To Counter Psycho-Social Thoughts Generated By Modernism-I"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.18403/emakalat.1125911"/>
+    <s v="Ebû’l-Kâsım Abdilvâhid b. Ahmed el-Kirmânî’ye Nispet Edilen 73 Fırka Tasnifli Bir Risâle’nin Tahlil ve Tercümesi"/>
+    <s v="Analysis and Translation of an Epistle the 73 Sects Classification Attributed to Abū al-Qāsim Abd al-Wāhid b. Ahmad al-Kirmānī"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.35675/befdergi.1275536"/>
+    <s v="Türkiye’deki Bilişsel Esneklik Konulu Makalelerin İncelenmesi: Bir Betimsel İçerik Analizi Çalışması"/>
+    <s v="Analysis of Articles on Cognitive Flexibility in Türkiye: A Descriptive Content Analysis"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.30783/nevsosbilen.1269730"/>
+    <s v="TURİZM EĞİTİMİ ALAN ÖĞRENCİLERİN SÜRDÜRÜLEBİLİR TURİZME İLİŞKİN METAFORLARININ ANALİZİ"/>
+    <s v="ANALYSIS OF TOURISM EDUCATION STUDENTS’ METAPHORS REGARDING SUSTAINABLE TOURISM"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.51764/smutgd.1122647"/>
+    <s v="CAM ELYAF TAKVİYELİ PRECAST BETON CEPHE PANELLERİNİN UYGULANIŞI (ANKARA ÖRNEKLEMİ)"/>
+    <s v="Application of Glass Fiber Reinforced Precast Concrete Facade Panels (Ankara Sample)"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.34108/eujhs.901613"/>
+    <s v="DİŞ HEKİMLİĞİ FAKÜLTESİNE BAŞVURAN HASTALARIN BİR YILLIK DAHİLİYE KONSÜLTASYON RAPORLARININ DEĞERLENDİRİLMESİ"/>
+    <s v="ASSESSMENT OF ONE-YEAR INTERNAL MEDICINE CONSULTATION REPORTS OF PATIENTS PRESENTING TO THE FACULTY OF DENTISTRY"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.38155/ksbd.1076418"/>
+    <s v="Âşıkların Dilinden Kuşlar: Kuş Destanları (Karşılaştırmalı Bir İnceleme)"/>
+    <s v="Birds In The Words of Minstrels: Epics About Birds (A Comperative Review)"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.17153/oguiibf.1270793"/>
+    <s v="Achieving Green Innovation Through CEOs’ Green Transformational Leadership and Green Absorptive Capacity: Evidence from the Textile Industry"/>
+    <s v="CEO’ların Yeşil Dönüşümcü Liderliği ve Yeşil Özümseme Kapasitesi Aracılığıyla Yeşil İnovasyona Ulaşmak: Tekstil Sektöründen Kanıtlar"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.17131/milel.977552"/>
+    <s v="Şehir ve Kutsal: Osmanlı’da Dini Mimarinin Dönüşümü"/>
+    <s v="City and the Sacred: Transformation of Religious Architecture in the Ottoman Empire"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.55959/msu0579-9368-1-64-2-3"/>
+    <s v="Конструктивное решение обратной задачи рассеяния для систем дифференциальных уравнений с особенностью"/>
+    <s v="Constructive solution of scattering inverse problem for systems of ordinary differential equations with singularities"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.7827/turkishstudies.44390"/>
+    <s v="Assessing of Factors Effecting COVID-19 Mortality Rate on a Global Basis"/>
+    <s v="COVID-19 Ölüm Hızını Etkileyen Faktörlerin Küresel Bazda Değerlendirilmesi"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.46672/ms.23.1.6"/>
+    <s v="Capital Matters: Middle Class between Welcome Culture and Ukrainian Crisis"/>
+    <s v="Do kapitala je – srednja klasa između kulture dobrodošlice i ukrajinske izbjegličke krize"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.17826/cumj.1134852"/>
+    <s v="Ovaryum yüzey epiteli primordial folikül ve primer folikül öncüsü yapılara farklılaşıyor mu?"/>
+    <s v="Does the ovarian surface epithelium differentiate into primordial follicle and primary follicle precursor structures?"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.46250/kulturder.1185916"/>
+    <s v="Dugin'in Moderniteye Yaklaşımı"/>
+    <s v="Dugin’s Approach to Modernity"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.19052/ap.vol1.iss76.7"/>
+    <s v="EDIC: estrategia didáctica para el desarrollo de competencias en innovación sostenible"/>
+    <s v="EDIC"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.18037/ausbd.1316536"/>
+    <s v="Türkiye'de Almanca Konuşan Göçmen Profesörlerin Eğitim Gelişimi Girişimleri"/>
+    <s v="Educational Development Initiatives of German-Speaking Émigré Professors in Türkiye"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.35305/rece.v1i16.589"/>
+    <s v="El desarrollo cognitivo a través del juego dramático"/>
+    <s v="EL DESARROLLO COGNITIVO A TRAVÉS DEL JUEGO DRAMÁTICO"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.20453/rmh.v32i2.3981"/>
+    <s v="Epidemiologia da violência contra adolescentes no Brasil: Análise de dados do sistema de vigilância de violência e acidentes"/>
+    <s v="Epidemiology of violence against adolescents in Brazil: Data analysis of the violence and accident surveillance system"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.5961/higheredusci.1276355"/>
+    <s v="Akredite Olmuş Bir Fizyoterapi ve Rehabilitasyon Lisans Programındaki Öğrencilerin Akreditasyon Farkındalıklarının Değerlendirmesi"/>
+    <s v="Evaluation of Accreditation Awareness of Students in an Accredited Physiotherapy and Rehabilitation Undergraduate Program"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.18586/msufbd.1105486"/>
+    <s v="Süt Sağma Makinesinde Asenkron Motorun Performansının Deneysel Olarak Değerlendirilmesi"/>
+    <s v="Experimental Performance Evaluation of an Asynchronous Engine in Milking Machine"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.7240/jeps.955944"/>
+    <s v="Non-isothermal Reduction Kinetics of Gördes Laterite in CO Atmosphere"/>
+    <s v="Gördes Lateritinin CO Atmosferinde İzotermal Olmayan İndirgenme Kinetiği"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.35440/hutfd.752701"/>
+    <s v="Kalp Hızı Değişkenliği ve Serebrovasküler Olaylar"/>
+    <s v="Heart Rate Variability and Cerebrovascular Events"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.21763/tjfmpc.1242007"/>
+    <s v="48 Ay Ve Daha Küçük Çocuğu Olan Ebeveynlerin Çocukluk Çağı Aşılarına Yönelik Bilgi, Tutum Ve Davranışlarının İncelenmesi"/>
+    <s v="Investigation of Knowledge, Attitudes and Behaviors of Parents with Children 48 Months and Younger towards Childhood Vaccinations"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1007/s13138-024-00231-x"/>
+    <s v="Urteilsverzerrungen beim Diagnostizieren von Fehlkonzepten bei Dezimalbrüchen"/>
+    <s v="Judgment Bias in Diagnosing Misconceptions with Decimal Fractions"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.53601/tourismandrecreation.1351137"/>
+    <s v="Kayseri örneğinde sürdürülebilir gastronomi turizmi ve coğrafi işaretli ürünler"/>
+    <s v="KAYSERİ ÖRNEĞİNDE SÜRDÜRÜLEBİLİR GASTRONOMİ TURİZMİ VE COĞRAFİ İŞARETLİ ÜRÜNLER"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1142/s0218348x24501433"/>
+    <s v="LEVERAGING LOTUS SEEDS’ DISTRIBUTION PATTERNS FOR FRACTAL SUPER-ROPE OPTIMIZATION"/>
+    <s v="Leveraging Lotus Seeds' Distribution Patterns for Fractal Super-Rope Optimization"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1002/ejhf.2809"/>
+    <s v="Association between serum albumin and outcomes in heart failure and secondary mitral regurgitation: the &lt;scp&gt;COAPT&lt;/scp&gt; trial"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1002/ejhf.2888"/>
+    <s v="Pre discharge and early post discharge management of patients hospitalized for acute heart failure: A scientific statement by the Heart Failure Association of the ESC"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1002/ejhf.3215"/>
+    <s v="Interatrial shunt therapy in advanced heart failure: Outcomes from the open label cohort of the RELIEVE HF trial"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1002/ijgo.14089"/>
+    <s v="Impact of nerve sparing posterolateral parametrial excision for deep infiltrating endometriosis on postoperative bowel, urinary, and sexual function"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1002/ijgo.14542"/>
+    <s v="The adverse effects of climate change on congenital birth defects"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1002/ijgo.15766"/>
+    <s v="Perinatal management for fetal oral epignathus with &lt;scp&gt;duplication of the pituitary gland (DPG)&lt;/scp&gt; plus syndrome: A case report and literature review"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-030-51241-5_23"/>
+    <s v="Migrants’ Access to Social Protection in Portugal"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-030-70692-0_8"/>
+    <s v="Political Attention in a Creeping Crisis: The Case of Climate Change and Migration"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-030-76505-7_1"/>
+    <s v="Vision Zero and Other Road Safety Targets"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-030-76716-7_10"/>
+    <s v="The Universal Thermal Climate Index as an Operational Forecasting Tool of Human Biometeorological Conditions in Europe"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-030-81226-3_2"/>
+    <s v="Migrant Digital Space: Building an Incomplete Map to Navigate Public Online Migration"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-030-82052-7_8"/>
+    <s v="Laboratory/Pathology Services and Blood Bank"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-031-05660-4_21"/>
+    <s v="Historic Gardens as a Cultural Task: Climate Adaptation Strategies and Understanding of Nature"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-031-11701-5_19"/>
+    <s v="Male Sex Hormones in Andrology Today"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-031-29187-6_7"/>
+    <s v="EU Issue Voting in Simultaneous Elections: The Case of Belgium"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-031-76345-8_5"/>
+    <s v="Challenges in the Process of Recognition and Enforcement of Foreign Arbitral Awards in the Republic of North Macedonia"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-658-42221-9_10"/>
+    <s v="KulturSchule und Fortbildung im Urteil der Fortgebildeten"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-3-662-65964-9_4"/>
+    <s v="Automatische Klassifikation offensiver deutscher Sprache in sozialen Netzwerken"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-981-16-8028-1_10"/>
+    <s v="The Compressor: Gas Turbine Engine Keystone"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-981-33-6761-6_11"/>
+    <s v="Climate Change Resiliency Through Mangrove Conservation: The Case of Alitas Farmers of Infanta, Philippines"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/978-981-97-1379-0_5"/>
+    <s v="Theoretical Definition of a Scale-up"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s00268-020-05453-x"/>
+    <s v="Factors Associated with High Preoperative Anxiety: Results from Cluster Analysis"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s00268-023-07195-y"/>
+    <s v="Survival Impacts of Impaired Lung Functions and Comorbidities on Elderly Esophageal Cancer Patients"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s00737-024-01529-y"/>
+    <s v="Refugee mothers’ mental health in Denmark: possibilities and limits of home visiting programs"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s10049-024-01405-3"/>
+    <s v="Notaufnahmevorstellungen von älteren Menschen mit Sturz"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s10984-025-09533-4"/>
+    <s v="Inclusion in culturally and linguistically diverse bilingual schools in the Netherlands: promising beginnings, ongoing challenges"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s11270-025-07979-z"/>
+    <s v="Preliminary Laboratory Assessment of the Removal of Heavy Metals from Metal Plating Wastewater by Electrocoagulation"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s11306-024-02175-2"/>
+    <s v="Infants with biliary atresia exhibit an altered amino acid profile in their newborn screening"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s11332-025-01371-4"/>
+    <s v="Associations between internal and external training load measures and neuromuscular performance in elite soccer players"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s12209-024-00413-1"/>
+    <s v="Data-Driven Design of Single-Atom Electrocatalysts with Intrinsic Descriptors for Carbon Dioxide Reduction Reaction"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s12594-022-1928-y"/>
+    <s v="Foreland Basin Geometry and Disposition of Major Thrust Faults as Proxies for Identification of Segmentation along the Himalayan Arc"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s12594-022-2132-9"/>
+    <s v="Implications of Magnetic Properties in the Concentration and Distribution of REEs in Beach Placer Monazites: A Case Study from Chhatrapur Coast, Odisha"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1007/s13304-024-01973-6"/>
+    <s v="Two institutes’ experience in laparoendoscopic “rendezvous” technique for patients undergoing laparoscopic cholecystectomy for stones in the gallbladder and bile duct: a prospective randomized comparative clinical trial"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1016/j.jsxm.2020.01.002"/>
+    <s v="Objective and Subjective Measures of Premature Ejaculation: How Closely Do They Correspond and How Well Are the Subjective Measures Recalled?"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1016/j.wjorl.2021.07.002"/>
+    <s v="Safety of restarting continuous positive airway pressure (CPAP) therapy following endoscopic endonasal skull base surgery"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1016/s0969-4765(20)30105-3"/>
+    <s v="China's busiest airport goes fully biometric"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1038/ndigest.2021.211013"/>
+    <s v="「妊娠させた」雄ラットの研究が中国で倫理的論争に火を付けた"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1038/ndigest.2022.220134"/>
+    <s v="学術界サバイバル術入門 — 助成金を申請する③： 研究課題の準備（後編）"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1038/s41598-024-71635-5"/>
+    <s v="Satellitome analysis on the pale-breasted thrush Turdus leucomelas (Passeriformes; Turdidae) uncovers the putative co-evolution of sex chromosomes and satellite DNAs"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1038/s41598-025-98956-3"/>
+    <s v="Evaluating main gas emission and energy consumption economy during tobacco leaf curing life cycle based on clean energy"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1038/s44284-025-00213-1"/>
+    <s v="Parallel scaling of elite wealth in ancient Roman and modern cities with implications for understanding urban inequality"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1038/s44318-024-00158-6"/>
+    <s v="T4 DNA polymerase prevents deleterious on-target DNA damage and enhances precise CRISPR editing"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1039/9781839165733-00353"/>
+    <s v="Ozonation Nanobubble Technology"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1093/jsxmed/qdad060.235"/>
+    <s v="(250) Male Physicians as Patients: Is Fertility an Issue?"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1093/jsxmed/qdad062.043"/>
+    <s v="(53) INVESTIGATION ON A TREATMENT OPTION FOR CERVICAL CANCER CAUSED BY PERSISTING HPV16 INFECTIONS: PHASE 1 DOSE-ESCALATION STUDY OF IMMUNOTHERAPY WITH DELNSE6E7 IN HPV-16 INFECTED WOMEN WITH NORMAL CYTOLOGY, CIN1 OR CIN2"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1093/jsxmed/qdae054.048"/>
+    <s v="(050) RESULTS FROM A PATIENT SURVEY EXPLORING THE EFFECTS OF FLIBANSERIN IN WOMEN WITH HYPOACTIVE SEXUAL DESIRE DISORDER (HSDD) BASED ON TREATMENT DURATION"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1111/1440-1703.12415"/>
+    <s v="Variability in methane emissions from stems and buttress roots of Bruguiera gymnorrhiza trees in a subtropical mangrove forest"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1142/s0219887825501142"/>
+    <s v="On the laser effect on particle decay in strong-field QED"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1142/s1758825124501254"/>
+    <s v="Improving the Solution Procedure of Incremental Harmonic Balance Method for Multi-Degree-of-Freedom Self-Excited Vibration Systems"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1142/s1793292025500547"/>
+    <s v="Thermal Radiation Effect on Magneto-Hydrodynamic Nanofluid Flow Over A Rotating Horizontal Annulus with Porous Medium"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1163/15685314-04803005"/>
+    <s v="An Ethnographic Study of Cross-Cultural Relations between China and Pakistan under the Umbrella of the China-Pakistan Economic Corridor"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2020-139780"/>
+    <s v="Outcomes of Patients with Multiple Myeloma Harboring Gain/Amplification 1q in the Era of Modern Therapy"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2021-145886"/>
+    <s v="Efficacy and Safety of Tinzaparin in CAT Patients with Hematological Malignancy"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2021-146871"/>
+    <s v="A Novel Autochthonous Mouse Model Serves As a Preclinical Evaluation Platform and Explores Dual BTK and BCL2 Inhibition for Activated B Cell-like Diffuse Large B Cell Lymphoma"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2021-147907"/>
+    <s v="Updated Results of a Phase 1/2 Clinical Study of Zinc Finger Nuclease-Mediated Editing of BCL11A in Autologous Hematopoietic Stem Cells for Transfusion-Dependent Beta Thalassemia"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2021-148485"/>
+    <s v="Development of Novel CAR Therapies for Diffuse Large B-Cell Lymphoma Using Genome-Wide Overexpression Screens"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2021-148782"/>
+    <s v="Interim Analysis of Mmrf Curecloud Research Initiative Identifies High Prevalence and Patterns of Clonal Hematopoiesis of Indeterminate Potential (CHIP) Mutations in a Real World Myeloma Cohort"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2021-151349"/>
+    <s v="Sickle Cell Hemoglobin Induces Autophagy in Human Macrophages"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2021-153076"/>
+    <s v="Targeting FOLR1 in High-Risk CBF2AT3-GLIS2 AML with Stro-002 FOLR1-Directed Antibody-Drug Conjugate"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2023-173905"/>
+    <s v="A Multicenter Study Analyzing Survival and Prognostic Factors in Patients with Leukemic Phase Follicular Lymphoma"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2023-174351"/>
+    <s v="Impact of Iron Supplementation in Anemic Voluntary First-Time Blood Donors-Results of a Pilot Trial in Ghana"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2023-178331"/>
+    <s v="Analysis of Factors Associated with Increased Hematology/Oncology Fellowship Twitter Account Followership"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2023-185432"/>
+    <s v="Preclinical Characterization of the Anti-Leukemia Activity of the CD33/CD16/NKG2D Immune Modulating TriNKET ® BMS-986357 (CC-96191)"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2023-190271"/>
+    <s v="Exploring the Efficacy and Feasibility of Outpatient Blinatumomab Short Cycles in Pediatric Patients with Relapsed/Refractory B-ALL in LMIC: Preliminary Results"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2023-190375"/>
+    <s v="Stable MGUS and SMM Are Characterized By Distinct Senescent Features in the Pre-Malignant Plasma Cells and the Proximate Bone Microenvironment"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2024-203903"/>
+    <s v="Measurable Residual Disease Monitoring By Duplex Sequencing for TP53 in the Post Allogeneic Stem Cell Transplantation Study with Eprenetapopt (APR-246) + Azacitidine Strongly Predicts Outcomes"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2024-205445"/>
+    <s v="Monoclonal Gammopathy of Renal Significance: Diagnosis, Treatment and Prognosis. Experience in a Spanish Hospital Institution"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2024-210584"/>
+    <s v="Expression of ROR1 and ROR2 in Hairy Cell Leukemia Cells Enhances Constitutive Activation of ERK1/2 and Cancer Stemness"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood-2024-210804"/>
+    <s v="Personalized Transplant Decision Making for Myelofibrosis in the Era of Molecular Genetics and JAK Inhibition"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1182/blood.2020005602"/>
+    <s v="Increased lipid metabolism impairs NK cell function and mediates adaptation to the lymphoma environment"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1186/s10020-025-01177-7"/>
+    <s v="Distinctive features of blood- and ascitic fluid-derived extracellular vesicles in ovarian cancer patients"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1186/s11658-024-00638-x"/>
+    <s v="mTOR/miR-142-3p/PRAS40 signaling cascade is critical for tuberous sclerosis complex-associated renal cystogenesis"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1186/s12985-020-01404-z"/>
+    <s v="Hepatitis B and hepatitis C prevalence among people living with HIV/AIDS in China: a systematic review and Meta-analysis"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1186/s40537-025-01118-5"/>
+    <s v="Maximizing data quality while ensuring data protection in service-based data pipelines"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1186/s40623-025-02182-0"/>
+    <s v="Investigating a continental Australian VGOS VLBI intensive for UT1-UTC determination"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1186/s40792-024-02009-2"/>
+    <s v="A case of preoperative embolization for a giant hypervascular pancreatic serous cystic neoplasm in pancreaticoduodenectomy"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.12968/s0306-3747(22)70013-9"/>
+    <s v="Dow launches silicone-based synthetic leather"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.12968/s0306-3747(23)70096-1"/>
+    <s v="Pyrum Innovations AG breakthrough in recycling carbon fiber-reinforced plastics and to recycle Mercedes-Benz tires"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.12968/s0306-3747(24)70786-6"/>
+    <s v="Milliken &amp;amp; company developing flame-resistant fabrics for Artemis astronauts"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.12968/s1350-4789(22)70069-4"/>
+    <s v="ESA raises concerns over EU's proposal to outlaw use of PFAS"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1364/oe.550678"/>
+    <s v="Spectroscopy and efficient OPSL-pumped laser operation of Er:BaF&lt;sub&gt;2&lt;/sub&gt; crystal at 2.8 µm"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1364/oe.553095"/>
+    <s v="MIMO equalization with adaptive intermodal interference cancellation for mitigating effect of mode-dependent loss in SDM transmission over coupled multi-core fiber"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1364/oe.554821"/>
+    <s v="Broadband, high-linearity TFLN electro-optic modulator for integrated microwave photonics using reconfigurable dual-parallel modulation"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1364/oe.558880"/>
+    <s v="High-fidelity and high-power vortex beam generation via all-fiberized Raman amplification in passive ring-core fiber"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1364/optcon.554179"/>
+    <s v="Lensless diffraction imaging using a rotated slit modulation"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.15372/gig2023191"/>
+    <s v="Structure of the hydrothermal system of thermal fields inferred from geological-geophysical modeling: a case study of the kambalny volcanic ridge (kamchatka)"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1557/s43578-025-01573-z"/>
+    <s v="Insights into the origins of friction in hard materials via two-axis nanoindentation"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1891/jnm-d-20-00019"/>
+    <s v="Psychometric Evaluation of a 10-Item Health Insurance Knowledge Scale"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1891/nn-2023-0003"/>
+    <s v="Evolution of Feeding and Developmental Outcomes in Infants With Moderate Hypoxic-Ischemic Encephalopathy: A Pilot Study"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.31857/s0015323022600691"/>
+    <s v="The Microstructural and Phase Evolution of the 3D Printed Ti–6Al–4V Alloy during Mechanical Loading"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.31857/s0026365624040024"/>
+    <s v="Microalgae from eroded soils in the northern Fergana valley, Uzbekistan"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.31857/s0044452923010059"/>
+    <s v="BIOELECTRICAL IMPEDANCE OF THE LEFT VENTRICULAR MYOCARDIUM, LUNG IN RATS AFTER FORCED SWIMMING TRAINING AND SUBSEQUENT DETRAINING"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.31857/s0044457x23601529"/>
+    <s v="Vanishing Superstructure: Crystal and Local Structures of Ni3 – xMTe2 (M = Sb, Sn)"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.31857/s0207401x24030053"/>
+    <s v="Kinetics of Thermal Decomposition of N-Propargil Derivatives of 7&amp;lt;i&amp;gt;H&amp;lt;/i&amp;gt;-Difurazanofuxanoazepine and 7&amp;lt;i&amp;gt;H&amp;lt;/i&amp;gt;-Trifurasanoazepine"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.31857/s0374064123070063"/>
+    <s v="Variatsionnye metody resheniya zadach, svyazannykh s iskusstvennym intellektom"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.33235/anzcj.30.3.46-59"/>
+    <s v="Impact and implications of changing practice in pelvic floor procedures: results from a registry survey"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.33585/cmy.75103"/>
+    <s v="Mycena laevigata (Fungi, Agaricales) in the heart of Central Europe – a prominent species of old-growth forests."/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.34133/jbioxresearch.0028"/>
+    <s v="Immunotherapeutic Potential of Lactobacillus Species as Immune Checkpoint Inhibitors in Cancer Immunotherapy"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.34922/ae.2022.35.3.017"/>
+    <s v="Physical rehabilitation for osteochondrosis of the cervical and thoracic spine in elderly and senile people (Stage 3)"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.3917/lp.416.0037"/>
+    <s v="Henri Wallon, autrui et le travail : une perspective"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.3917/rphi.234.0511"/>
+    <s v="Que reste-t‑il de nos émotions passées ?"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.4103/ds.ds-d-23-00241"/>
+    <s v="Risk of nonmelanoma skin cancer in patients taking Janus kinase inhibitors for inflammatory bowel disease: A systematic review and meta-analysis"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.4140/tcp.n.2025.111"/>
+    <s v="Building an Age-Friendly Ecosystem: The Role of Pharmacists in Advancing the 4Ms"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.4158/ep-2020-0110"/>
+    <s v="Comparing Stereotactic Radiosurgery and Fractionated Stereotactic Radiotherapy in Treating patients with Growth Hormone-Secreting Adenomas: A Systematic Review and Meta-analysis"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.4213/mzm13458"/>
+    <s v="Гипотеза о размерности: решение и дальнейшие перспективы"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.54648/erpl2023012"/>
+    <s v="Artificial Intelligence as a Communication Tool in Contract Law"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.36681/tused.2020.44"/>
+    <s v="Students’ critical thinking skills based on gender and knowledge group"/>
+    <s v="Students Critical Thinking Skills Based on Gender And Knowledge Group"/>
+    <b v="1"/>
+    <n v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.5553/jv/016758502023049003008"/>
+    <s v="Vijftig jaar onderzoek naar jeugdcriminaliteit en jeugdstrafrecht"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.5553/jv/016758502024050004007"/>
+    <s v="Omarm de chaos"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.62713/aic.3725"/>
+    <s v="Application of Osborne's Ligament Suspension and Ulnar Nerve Anterior Transposition in Conjunction with Transcutaneous Electrical Nerve Stimulation for Managing Cubital Tunnel Syndrome: A Retrospective Study"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.71330/nucleus.44.01-2.1024"/>
+    <s v="ANALYTIC SOLUTION FOR PIPE FLOW OF AN OLDROYD 8-CONSTANT FLUID"/>
+    <s v="nan"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1075/tilar.27.01mat"/>
+    <s v="Learning how to communicate in infancy"/>
+    <s v="None"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.20884/1.bioe.2022.4.2.4621"/>
+    <s v="no title"/>
+    <s v="None"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="10.20884/1.sa.2022.3.2.4867"/>
+    <s v="no title"/>
+    <s v="None"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <s v="10.34083/akaded.730833"/>
+    <s v="Fatma Aliye’nin Romanlarındaki Erkek Kahramanlar Üzerine"/>
+    <s v="On The Male Characters in Fatma Aliye’s Novels"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.17826/cumj.637614"/>
+    <s v="Evaluation of pregnancy rates in infertile women after application of ovulation induction and intrauterine insemination"/>
+    <s v="Ovulasyon indüksiyonu ve intrauterin inseminasyon sonrası infertil kadınlarda gebelik hızlarının değerlendirilmesi"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.51473/rcmos.v2i1.265"/>
+    <s v="Estratégias pedagógicas para alunos com baixa visão"/>
+    <s v="Pedagogical strategies for students with low vision"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.15311/selcukdentj.1238899"/>
+    <s v="Dental İmplantolojide Polietereterketon (PEEK): Geleneksel Derleme"/>
+    <s v="Polyetheretherketone (PEEK) in Dental Implantology: Traditional Review"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.31127/tuje.674035"/>
+    <s v="Production of new type insulation material: Expanded Perlite-Silica aerogel composite"/>
+    <s v="PRODUCTION OF NEW TYPE INSULATION MATERIAL: EXPANDED PERLITE-SILICA AEROGEL COMPOSITE"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.31185/lark.vol3.iss51.3133"/>
+    <s v="الإنهيار النفسي وعلاقته بأساليب التعامل مع الضغوط لدى مدرسي المرحلة الإعدادية"/>
+    <s v="Psychological Breakdown and its Correlation with Coping Strategies Among Middle School Teachers."/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.51891/rease.v10i4.13723"/>
+    <s v="ELEVANDO A QUALIDADE EDUCACIONAL EM ESCOLAS PÚBLICAS DE ENSINO FUNDAMENTAL: ESTRATÉGIAS E DESAFIOS"/>
+    <s v="RAISING EDUCATIONAL QUALITY IN PUBLIC ELEMENTARY SCHOOLS: STRATEGIES AND CHALLENGES"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.46237/amusbfd.1213541"/>
+    <s v="Pain Status of Healthcare Workers after COVID-19"/>
+    <s v="Sağlık Çalışanlarında COVID-19 Sonrası Ağrı Durumu"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1364/oe.531354"/>
+    <s v="Self-powered γ-In&lt;sub&gt;2&lt;/sub&gt;Se&lt;sub&gt;3&lt;/sub&gt;/p-Si heterojunction for photodetection: exploring humidity and light intensity dependent photoresponse"/>
+    <s v="Self-Powered γ-In2Se3/p-Si Heterojunction for Photodetection: Exploring Humidity and Light Intensity Dependent Photoresponse"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.55546/jmm.1354113"/>
+    <s v="Experimental Investigation of Ballistic Performance of Free Particle Armor Systems"/>
+    <s v="Serbest Parçacıklı Zırh Sistemlerinin Balistik Performansının Deneysel Olarak İncelenmesi"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.24193/subbto.2022.2.13"/>
+    <s v="STILLNESS AS A MEANS TO ATTAIN TO THE GODLY PASSION OF LOVE"/>
+    <s v="Stillness as a Means to Attain to the Godly Passion of Love"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.31185/eduj.vol53.iss2.3777"/>
+    <s v="اثر انموذج هيرمان في الاستيعابالمفاهيمي في مادة مبادئ علم النفس لطلاب الخامس الادبي"/>
+    <s v="The effect of Hermann's model on conceptual comprehension in the Principles of Psychology course for fifth grade students"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.26389/ajsrp.c140922"/>
+    <s v="العلاقة بين التفكير الاختراعي والذكاء لدى طالبات المرحلة المتوسطة الموهوبات بمدينة مكة المكرمة"/>
+    <s v="The relationship between inventive thinking and intelligence among talented middle school students in Makkah Al-Mukarramah"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.53286/arts.v6i1.1784"/>
+    <s v="بنية الزمان والمكان في المجموعة القصصية (رجفة العناوين) لظافر الجبيري"/>
+    <s v="The Structure of the Setting in Dhafer Al-Jubairi’s Collection of Short Stories Rajfat Al-Anaween (The Shiver of Titles)"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1007/s00063-022-00982-w"/>
+    <s v="Thrombotisch-thrombozytopenische Purpura – eine differenzialdiagnostische Herausforderung im Notfall"/>
+    <s v="Thrombotic thrombocytopenic purpura—a differential diagnostic challenge in an emergency"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.53048/johass.977133"/>
+    <s v="Online Science Teaching Supported by Web 2.0 Tool: Virtual Museum Event"/>
+    <s v="Web 2.0 Aracı ile Desteklenen Çevrim İçi Fen Bilimleri Öğretimi: Sanal Müze Etkinliği"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.33629/auhfd.1065878"/>
+    <s v="ESER SÖZLEŞMESİNDE İKAME YOLUYLA İFAYA GİDİLMESİ HALİNDE MASRAFLARIN AVANS OLARAK TALEP EDİLEBİLİRLİĞİ"/>
+    <s v="Whether Expenses Can Be Demanded as Advance Payment in Performance by Substitution in Construction Contracts"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.32410/huj-10509"/>
+    <s v="Unlocking the symbols of Sherko Bekas Bracelet Book through the Collective Unconscious"/>
+    <s v="رمزگشایی کتاب ملوانکه (گردنبند) شیرکو بیکس از رهگذر ناخودآگاه جمعی"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.36322/jksc.v1i2.4815"/>
+    <s v="In poetic necessity"/>
+    <s v="في الضرورة الشعرية"/>
+    <b v="0"/>
+    <n v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.62452/0ys65329"/>
+    <s v="Mapa conceptual interactivo para la enseñanza de la Programación Lógica y Prolog de la asignatura Inteligencia Artificial"/>
+    <s v="Interactive conceptual map for the teaching of logic programming and prolog of the Artificial Intelligence subject"/>
+    <b v="0"/>
+    <n v="0.9375"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.21897/rmvz.3078"/>
+    <s v="Hallazgos histopatológicos en nematodos Anisakidae, expuestos a extractos acuosos vegetales con capacidad nematicida &amp;lt;i&amp;gt;in vitro&amp;lt;/i&amp;gt;"/>
+    <s v="Histopathological findings in Anisakidae nematodes exposed to aqueous plant extracts with nematicidal capacity&amp;lt;i&amp;gt; in vitro&amp;lt;/i&amp;gt;"/>
+    <b v="0"/>
+    <n v="0.9285714285714286"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1039/d4qm00417e"/>
+    <s v="High performance inverted planar perovskite solar cells enhanced by heteroatomic functionalized hole transport materials"/>
+    <s v="High Performance Inverted Planar Perovskite Solar Cells Enhanced by Heteroatomic Functionalized Hole Transport Materials"/>
+    <b v="1"/>
+    <n v="0.92307692307692313"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.4000/recherchestravaux.2547"/>
+    <s v="Introduction. Devenir orphelin : entre l’ordre des choses et le désordre des affects"/>
+    <s v="Introduction. To Become an Orphan: Between Nature of Things and Emotional Turmoil"/>
+    <b v="0"/>
+    <n v="0.92307692307692313"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1115/1.4068056"/>
+    <s v="Research on a Stacking Ensemble Model With Adaptive Feature Weighting for Predicting the Tribological Properties of Lubricating Grease"/>
+    <s v="Research on a stacking ensemble model with adaptive feature weighting for predicting the tribological properties of lubricating grease"/>
+    <b v="0"/>
+    <n v="0.92307692307692313"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.32579/mecmua.982371"/>
+    <s v="en-Nisa 4/34. Ayeti Bağlamında “Nuşûz” ve “Darb” Kelimelerinin Anlam Kronolojisi"/>
+    <s v="The Meaning Chronology of The Words “Nushûz” and “Darb” in The Light of 34th Verse of Surah Nisa"/>
+    <b v="0"/>
+    <n v="0.92307692307692313"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1002/cphc.202400936"/>
+    <s v="Commercial Silica Materials Functionalized with a Versatile Organocatalyst for the Catalysis Of Acylation Reactions in Liquid Media"/>
+    <s v="Commercial silica materials functionalized with a versatile organocatalyst for the catalysis of acylation reactions in liquid media"/>
+    <b v="1"/>
+    <n v="0.91666666666666663"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.16899/jcm.1241809"/>
+    <s v="Results of Adjuvant Radiotherapy Based on Sedlis Criteria in Early Stage Cervical Cancer"/>
+    <s v="Erken Evre Serviks Kanserinde Sedlis Kriterleri Gözönünde Bulundurularak Uygulanan Adjuvant Radyoterapi Sonuçları"/>
+    <b v="0"/>
+    <n v="0.91666666666666663"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1039/d5cc00753d"/>
+    <s v="Serendipitous pathway to naphtho[2,1-b]furan and its thioether enabled by triflic acid and thiol-mediated reaction"/>
+    <s v="Serendipitous Pathway to Naphtho[2,1-b]furan and Its Thioether Enabled by Triflic Acid and Thiol Mediated Reaction"/>
+    <b v="1"/>
+    <n v="0.90909090909090906"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1210/jendso/bvad154"/>
+    <s v="Association Between Renal Sinus Fat and Cardiometabolic and Renin-Angiotensin System Parameters in Primary Aldosteronism"/>
+    <s v="Association between renal sinus fat and cardiometabolic and renin-angiotensin system parameters in primary aldosteronism"/>
+    <b v="1"/>
+    <n v="0.90909090909090906"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.56294/hl202336"/>
+    <s v="Leadership styles and organizational climate among employees in Lima, Peru"/>
+    <s v="Estilos de liderazgo y el clima organizacional en colaboradores de Lima, Perú"/>
+    <b v="0"/>
+    <n v="0.90909090909090906"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.20854/bujse.1036232"/>
+    <s v="MÜHENDİSLİK ÖĞRENCİLERİNDE COVID-19 PANDEMİSİNİN ERGONOMİK KOŞULLAR ÜZERİNE ETKİSİ"/>
+    <s v="THE EFFECT OF COVID-19 PANDEMIC ON ERGONOMIC CONDITIONS IN ENGINEERING STUDENTS"/>
+    <b v="0"/>
+    <n v="0.90909090909090906"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1039/d4ee03293d"/>
+    <s v="Deciphering anomalous zinc ion storage in intermediate-state MnO&lt;sub&gt;2&lt;/sub&gt; during layer-to-tunnel structural transition"/>
+    <s v="Deciphering Anomalous Zinc Ions Storage in Intermediate State MnO2 of Layer-to-Tunnel Transition"/>
+    <b v="0"/>
+    <n v="0.9"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1115/1.4066385"/>
+    <s v="Evaluating Fracture Energy Predictions Using Phase-Field and Gradient-Enhanced Damage Models for Elastomers"/>
+    <s v="Evaluating fracture energy predictions using phase-field and gradient-enhanced damage models for elastomers"/>
+    <b v="1"/>
+    <n v="0.9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1523/jneurosci.1964-24.2025"/>
+    <s v="Novel Verbal Instructions Recruit Abstract Neural Patterns of Time-Variable Information Dimensionality"/>
+    <s v="Novel verbal instructions recruit abstract neural patterns of time-variable information dimensionality"/>
+    <b v="1"/>
+    <n v="0.9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.24193/subbeng.2024.1.1"/>
+    <s v="Leveraging smart contracts for enhanced traceability and security in bank transactions on a blockchain platform"/>
+    <s v="Leveraging Smart Contracts for Enhanced Traceability and Security in Bank Transactions on a Blockchain Platform"/>
+    <b v="1"/>
+    <n v="0.9"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d4ee02763a"/>
+    <s v="Rational design principles of single-atom catalysts for hydrogen production and hydrogenation"/>
+    <s v="Rational Design Principles of Single-Atom Catalysts in Hydrogen Production and Hydrogenation"/>
+    <b v="1"/>
+    <n v="0.875"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.32600/huefd.1190158"/>
+    <s v="Moneta: The Abject Mother in Keats’ 'The Fall of Hyperion'"/>
+    <s v="Moneta: Keats’in 'The Fall of Hyperion' Şiirinde Zelil Anne"/>
+    <b v="0"/>
+    <n v="0.875"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1093/chemle/upaf084"/>
+    <s v="Photo- and Cu(I)-promoted branched-selective formal hydroacylation of terminal alkynes via the intermolecular coupling of siloxycarbenes with alkyne–Cu complexes"/>
+    <s v="Photo- and Cu(I)-Promoted Branched-Selective Formal Hydroacylation of Terminal Alkynes via the Intermolecular Coupling of Siloxycarbenes with Alkyne–Cu Complexes"/>
+    <b v="1"/>
+    <n v="0.84615384615384615"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1142/s0218216524500287"/>
+    <s v="From integrals to combinatorial formulas of finite type invariants — A case study"/>
+    <s v="From Integrals To Combinatorial Formulas Of Finite Type Invariants - A Case Study"/>
+    <b v="1"/>
+    <n v="0.84615384615384615"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d4tc04190a"/>
+    <s v="Structural frustration effects by mixed alkali ions in ferroelectric Dion–Jacobson layered perovskites (Cs,Rb)NdNb&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;7&lt;/sub&gt;"/>
+    <s v="Structural Frustration Effects by Mixed Alkali Ions in Ferroelectric Dion-Jacobson Layered Perovskites (Cs,Rb)NdNb&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;7&lt;/sub&gt;"/>
+    <b v="1"/>
+    <n v="0.81818181818181823"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/jbcr/iraf006"/>
+    <s v="Carbohydrate and Wound Healing in Critically Ill Burn Patients: A Retrospective Cohort Study"/>
+    <s v="Carbohydrate and wound healing in critically ill burn patients: A retrospective cohort study"/>
+    <b v="1"/>
+    <n v="0.81818181818181823"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/law/9780192897923.003.0042"/>
+    <s v="Commission on Human Rights"/>
+    <s v="1949, Commission on Human RightsDraft International Covenant on Human Rights: Fifth session"/>
+    <b v="0"/>
+    <n v="0.8"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="10.4103/ijohs.ijohs_8_21"/>
+    <s v="Laser versus surgical"/>
+    <s v="Laser versus surgical: Different treatment modalities of mucocele: A case series"/>
+    <b v="1"/>
+    <n v="0.8"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d5mh00046g"/>
+    <s v="Unravelling the mechanism of coloration and prolonged discoloration in abnormally thermochromic PDMS nanocomposites"/>
+    <s v="Unravelling the Mechanism of Coloration and Prolonged Discoloration in Abnormally Thermochromic PDMS Nanocomposites"/>
+    <b v="1"/>
+    <n v="0.77777777777777779"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/ptep/ptae187"/>
+    <s v="Cluster Configurations in Li Isotopes in the Variation of Multi-Bases of the Antisymmetrized Molecular Dynamics"/>
+    <s v="Cluster configurations in Li isotopes in the variation of multi-bases of the antisymmetrized molecular dynamics"/>
+    <b v="1"/>
+    <n v="0.77777777777777779"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/gbe/evaf050"/>
+    <s v="Inferring the Selective History of CNVs Using a Maximum Likelihood Model"/>
+    <s v="Inferring the selective history of CNVs using a maximum likelihood model"/>
+    <b v="1"/>
+    <n v="0.75"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.4103/njm.njm_124_21"/>
+    <s v="Reflective Practice and Resident Doctors"/>
+    <s v="Reflective practice and resident doctors"/>
+    <b v="1"/>
+    <n v="0.75"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1017/gmh.2023.74"/>
+    <s v="Active mobility and mental health: A scoping review towards a healthier world"/>
+    <s v="Active Mobility and Mental Health: A Scoping Review towards a Healthier World"/>
+    <b v="1"/>
+    <n v="0.7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d4cc04065a"/>
+    <s v="Chloride Induced S–C bond selective cleavage of disulfides to access unsymmetrical β-fluorodisulfides"/>
+    <s v="Chloride Induced S-C bond Selective Cleavage of Disulfides to Access Unsymmetrical β-Fluorodisulfides"/>
+    <b v="1"/>
+    <n v="0.7"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1177/09637214241304326"/>
+    <s v="Ecospirituality"/>
+    <s v="Ecospirituality and the Moralization of Nature"/>
+    <b v="0"/>
+    <n v="0.66666666666666663"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <s v="10.18795/gumusmaviatlas.681798"/>
+    <s v="Yeni Çağ Felsefesinde Duyulur Niteliklere İlişkin Dört Mukayese: Hobbes, Descartes, Locke ve Berkeley"/>
+    <s v="Four Comparisons on Sensible Qualities in Early Modern Philosophy: Hobbes, Descartes, Locke and Berkeley"/>
+    <b v="0"/>
+    <n v="0.66666666666666663"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.24141/1/10/1/7"/>
+    <s v="Haiku-poezija i Shinrin-yoku"/>
+    <s v="Haiku poetry and Shinrin-yoku"/>
+    <b v="0"/>
+    <n v="0.66666666666666663"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.11606/issn.2179-0892.geousp.2023.192816"/>
+    <s v="A inserção do espaço geográfico de Milton Santos na matriz althusseriana de interpretação da totalidade social: uma estrutura como as outras?"/>
+    <s v="La inserción del espacio geográfico de Milton Santos en la matriz de interpretación althusseriana de la totalidad social: ¿una estructura como las demás?"/>
+    <b v="1"/>
+    <n v="0.65217391304347827"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d4ay00993b"/>
+    <s v="Isothermal recombinase polymerase amplification and silver nanoparticle assay: a sustainable approach for ultrasensitive detection of Klebsiella pneumoniae"/>
+    <s v="Isothermal Recombinase polymerase amplification and Silver Nanoparticle Assay: A Sustainable Approach for Ultrasensitive Detection of Klebsiella pneumoniae"/>
+    <b v="1"/>
+    <n v="0.6428571428571429"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.4000/apliut.8343"/>
+    <s v="2006 – « Lecture assistée par ordinateur : application à l’anglais de l’informatique »"/>
+    <s v="2006 – « Computer-assisted reading : an English for computer science application »"/>
+    <b v="0"/>
+    <n v="0.6428571428571429"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.21438/rbgas(2024)112832"/>
+    <s v="Composição microbiológica e indicadores físicos e químicos de biofertilizantes líquidos"/>
+    <s v="Composi o microbiol gica e indicadores f sicos e qu micos de biofertilizantes l quidos"/>
+    <b v="0"/>
+    <n v="0.6428571428571429"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1103/physrevd.110.092002"/>
+    <s v="Observation of double &lt;mml:math xmlns:mml=&quot;http://www.w3.org/1998/Math/MathML&quot; display=&quot;inline&quot;&gt;&lt;mml:mrow&gt;&lt;mml:mi&gt;J&lt;/mml:mi&gt;&lt;/mml:mrow&gt;&lt;mml:mo&gt;/&lt;/mml:mo&gt;&lt;mml:mi&gt;ψ&lt;/mml:mi&gt;&lt;/mml:math&gt; meson production in &lt;mml:math xmlns:mml=&quot;http://www.w3.org/1998/Math/MathML&quot; display=&quot;inline&quot;&gt;&lt;mml:mrow&gt;&lt;mml:mi&gt;p&lt;/mml:mi&gt;&lt;mml:mi&gt;Pb&lt;/mml:mi&gt;&lt;/mml:mrow&gt;&lt;/mml:math&gt; collisions at &lt;mml:math xmlns:mml=&quot;http://www.w3.org/1998/Math/MathML&quot; display=&quot;inline&quot;&gt;&lt;mml:mrow&gt;&lt;mml:msqrt&gt;&lt;mml:mrow&gt;&lt;mml:msub&gt;&lt;mml:mrow&gt;&lt;mml:mi&gt;s&lt;/mml:mi&gt;&lt;/mml:mrow&gt;&lt;mml:mrow&gt;&lt;mml:mi&gt;NN&lt;/mml:mi&gt;&lt;/mml:mrow&gt;&lt;/mml:msub&gt;&lt;/mml:mrow&gt;&lt;/mml:msqrt&gt;&lt;mml:mo&gt;=&lt;/mml:mo&gt;&lt;mml:mn&gt;8.16&lt;/mml:mn&gt;&lt;mml:mtext&gt; &lt;/mml:mtext&gt;&lt;mml:mtext&gt; &lt;/mml:mtext&gt;&lt;mml:mi&gt;TeV&lt;/mml:mi&gt;&lt;/mml:mrow&gt;&lt;/mml:math&gt;"/>
+    <s v="Observation of double &amp;lt;math display=&amp;quot;inline&amp;quot;&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;mi&amp;gt;J&amp;lt;/mi&amp;gt;&amp;lt;/mrow&amp;gt;&amp;lt;mo&amp;gt;/&amp;lt;/mo&amp;gt;&amp;lt;mi&amp;gt;ψ&amp;lt;/mi&amp;gt;&amp;lt;/math&amp;gt; meson production in &amp;lt;math display=&amp;quot;inline&amp;quot;&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;mi&amp;gt;p&amp;lt;/mi&amp;gt;&amp;lt;mi&amp;gt;Pb&amp;lt;/mi&amp;gt;&amp;lt;/mrow&amp;gt;&amp;lt;/math&amp;gt; collisions at &amp;lt;math display=&amp;quot;inline&amp;quot;&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;msqrt&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;msub&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;mi&amp;gt;s&amp;lt;/mi&amp;gt;&amp;lt;/mrow&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;mi&amp;gt;NN&amp;lt;/mi&amp;gt;&amp;lt;/…"/>
+    <b v="0"/>
+    <n v="0.6428571428571429"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="10.1093/jge/gxaf022"/>
+    <s v="Evaluation of low-resistivity reservoirs based on the new three-water model and comprehensive identification of fluid properties using a committee machine—a case study of the Dongying Formation Member 1 Reservoir in the Gangdong Fault Zone"/>
+    <s v="Evaluation of Low-Resistivity Reservoirs Based on the New Three-Water Model and Comprehensive Identification of Fluid Properties Using a Committee Machine-A Case Study of the Dongying Formation Member 1 Reservoir in the Gangdong Fault Zone"/>
+    <b v="1"/>
+    <n v="0.625"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/ski2.240"/>
+    <s v="Systematic Review of Clinical Practice Guidelines for Acne Vulgaris Published Between January 2017 and July 2021"/>
+    <s v="Systematic review of clinical practice guidelines for acne vulgaris published between January 2017 and July 2021"/>
+    <b v="1"/>
+    <n v="0.61538461538461542"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1051/0004-6361/202348898"/>
+    <s v="Making the unmodulated Pyramid wavefront sensor smart"/>
+    <s v="Making the unmodulated Pyramid wavefront sensor smart. Closed-loop demonstration of neural network wavefront reconstruction with MagAO-X"/>
+    <b v="0"/>
+    <n v="0.61538461538461542"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="10.1111/1468-0424.12757"/>
+    <s v="On knowing nature's syntax: Preliminary cisness, victorian physiology and George Eliot"/>
+    <s v="On Knowing Nature's Syntax: Preliminary Cisness, Victorian Physiology and George Eliot"/>
+    <b v="1"/>
+    <n v="0.6"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1159/000542522"/>
+    <s v="Is Poor Self-Rated Health Associated with Higher Caries Experience in Adults? The HUNT4 Oral Health Study"/>
+    <s v="Is poor self-rated health associated with higher caries experience in adults? The HUNT4 Oral Health Study"/>
+    <b v="1"/>
+    <n v="0.5714285714285714"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/law/9780198827528.003.0014"/>
+    <s v="Fintech and Financial Markets Infrastructure—A Legal and Regulatory Perspective"/>
+    <s v="Part V New Financial Technology in Financial Markets and Infrastructure, 14 Fintech and Financial Markets Infrastructure—A Legal and Regulatory Perspective"/>
+    <b v="0"/>
+    <n v="0.5625"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="10.1093/molbev/msae108"/>
+    <s v="Historic dog Furs Unravel the Origin and Artificial Selection of Modern Nordic Lapphund and Elkhound dog Breeds"/>
+    <s v="Historic dog furs unravel the origin and artificial selection of modern Nordic Lapphund and Elkhound dog breeds"/>
+    <b v="1"/>
+    <n v="0.53846153846153844"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.22199/issn.0717-6279-6048"/>
+    <s v="Higher order mKdV breathers"/>
+    <s v="Higher order mKdV breathers: nonlinear stability"/>
+    <b v="1"/>
+    <n v="0.5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.31260/repertmedcir.01217372.1235"/>
+    <s v="Tratamiento endoscópico del divertículo de Zenker"/>
+    <s v="Tratamiento endoscópico del Tratamiento endoscópico del divertículo de Zenker divertículo de Zenker"/>
+    <b v="0"/>
+    <n v="0.5"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="10.3847/2515-5172/ad7113"/>
+    <s v="Determination of the Abundance of Mercury from the Hg ii Line at 5677.10 Å in Late B-type Stars. V. HD 174933 (112 Her)"/>
+    <s v="Determination of the Abundance of Mercury from the Hg ii Line at 5677.10 Å in Late B-type Stars. V. HD 174933 (112 Her)"/>
+    <b v="1"/>
+    <n v="0.5"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.4103/srmjrds.srmjrds_46_22"/>
+    <s v="Effects of platelet-rich fibrin in the surgical extraction of mandibular third molar"/>
+    <s v="Effects of platelet-rich fibrin in the surgical extraction of mandibular third molar: A systematic review and meta-analysis"/>
+    <b v="1"/>
+    <n v="0.41666666666666669"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.15575/psy.v9i1.7571"/>
+    <s v="Instrument Development of Determinants of Students Academic Performance Using Rasch Model Analysis"/>
+    <s v="Development of Student Academic Performance Determinants Using Rasch Model Analysis"/>
+    <b v="0"/>
+    <n v="0.4"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1515/hmbci-2020-0014"/>
+    <s v="Association ofnitric oxidesynthase3gene rs1799983 G/T polymorphism with idiopathic asthenozoospermia in Iranian Azeri males: a case-control study"/>
+    <s v="Association of nitric oxide  synthase  3 gene rs1799983 G/T polymorphism with idiopathic asthenozoospermia in Iranian Azeri males: a case-control study"/>
+    <b v="1"/>
+    <n v="0.3888888888888889"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.31006/gipad.1508210"/>
+    <s v="Sürdürülebilirliğin Satın Alma Niyeti Üzerine Bibliyometrik Bir Analiz"/>
+    <s v="Sürdürülebilirliğin Satın Alma Niyeti Üzerine Web of Science Veri Tabanı Aracılığıyla Bibliyometrik Bir Analiz"/>
+    <b v="0"/>
+    <n v="0.38461538461538458"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="10.1075/pbns.313.12luo"/>
+    <s v="Modified self-praise in social media"/>
+    <s v="Chapter 12. Modified self-praise in social media"/>
+    <b v="0"/>
+    <n v="0.33333333333333331"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="10.1093/bioinformatics/btae516"/>
+    <s v="WatFinder: a ProDy tool for protein–water interactions"/>
+    <s v="WatFinder: A ProDy tool for protein-water interactions"/>
+    <b v="1"/>
+    <n v="0.33333333333333331"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/humrep/deae108.111"/>
+    <s v="O-100 Chronic endometritis - research and practice"/>
+    <s v="O-100 Chronic endometritis - research and practice"/>
+    <b v="1"/>
+    <n v="0.33333333333333331"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1209/0295-5075/ada8d5"/>
+    <s v="On the equation of motion in supersymmetric Yang-Mills plasma"/>
+    <s v="On the equation of motion in N = 4 supersymmetric Yang-Mills plasma"/>
+    <b v="1"/>
+    <n v="0.33333333333333331"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1364/ol.551558"/>
+    <s v="Fiber-optic round trip time transfer tolerant to OSNR degradation via forward frequency transmission"/>
+    <s v="Fiber-optic round-trip time transfer insensitive to OSNR degradation based on forward frequency transmission"/>
+    <b v="1"/>
+    <n v="0.33333333333333331"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.2174/0929866529666220905112156"/>
+    <s v="Amplification of Amyloid Protein-induced Aggregation of the Eukaryotic_x000a_Ribosome"/>
+    <s v="Amplification of Amyloid Protein-induced Aggregation of the Eukaryotic Ribosome"/>
+    <b v="1"/>
+    <n v="0.33333333333333331"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.33735/phimisci.2020.i.48"/>
+    <s v="The varieties of selflessness"/>
+    <s v="varieties of selflessness"/>
+    <b v="1"/>
+    <n v="0.33333333333333331"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1155/2021/9376134"/>
+    <s v="Hypertension and the Risk of All Cause and Cause Specific Mortality: An Outcome Wide Association Study of 67 Causes of Death in the National Health Interview Survey"/>
+    <s v="Hypertension and the Risk of All-Cause and Cause-Specific Mortality: An Outcome-Wide Association Study of 67 Causes of Death in the National Health Interview Survey"/>
+    <b v="1"/>
+    <n v="0.31578947368421051"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.37697/eskiyeni.838001"/>
+    <s v="İbnü’s-Salâh’a Nispet Edilen Müsnedü’l-Hâfız Osmân b. es-Salâh el-Eserî fîmâ verede mine’l-ehâdîs fî fazli’l-İskenderiyye ve ʿAskalân İsimli Eser Üzerine Bir Değerlendirme"/>
+    <s v="İbnü’s-Salâh’a Nispet Edilen Müsnedü’l-Hâfız Osmân b. es-Salâh el-Eserî Fîmâ Verede Mine’l-Ehâdîs Fî Fazli’l-İskenderiyye ve Askalân İsimli Eser Üzerine Bir Değerlendirme"/>
+    <b v="1"/>
+    <n v="0.31578947368421051"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.2174/0929867328666211214165814"/>
+    <s v="A Novel Approach for Designing Electrochemical Aptamer-Based_x000a_Biosensor for Ultrasensitive Detection of Zearalenone as a Prevalent_x000a_Estrogenic Mycotoxin"/>
+    <s v="A Novel Approach for Designing Electrochemical Aptamer-Based Biosensor for Ultrasensitive Detection of Zearalenone as a Prevalent Estrogenic Mycotoxin"/>
+    <b v="1"/>
+    <n v="0.30769230769230771"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d2sc06436g"/>
+    <s v="Regulating the assembly and expansion of the silver cluster from the Ag&lt;sub&gt;37&lt;/sub&gt;to Ag&lt;sub&gt;46&lt;/sub&gt;nanowheel driven by heteroanions"/>
+    <s v="Regulating the assembly and expansion of the silver cluster from the Ag&lt;sub&gt;37&lt;/sub&gt; to Ag&lt;sub&gt;46&lt;/sub&gt; nanowheel driven by heteroanions"/>
+    <b v="1"/>
+    <n v="0.3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1088/1361-6668/adbf53"/>
+    <s v="Enhancement of 2G-HTS wire performance in strong magnetic fields through heavy ion irradiation"/>
+    <s v="Enhancement of 2G-HTS wires performance in strong magnetic field through heavy ions irradiation"/>
+    <b v="1"/>
+    <n v="0.3"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d4nj03981e"/>
+    <s v="Enhanced piezoelectricity in Al&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;3&lt;/sub&gt; (0001) single crystal substrate-sintered Bi&lt;sub&gt;12&lt;/sub&gt;TiO&lt;sub&gt;20&lt;/sub&gt;–BaTiO&lt;sub&gt;3&lt;/sub&gt; composite ceramics"/>
+    <s v="Enhanced piezoelectricity in Al&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;3&lt;/sub&gt; (0001) single crystal substrate sintered Bi&lt;sub&gt;12&lt;/sub&gt;TiO&lt;sub&gt;20&lt;/sub&gt;-BaTiO&lt;sub&gt;3&lt;/sub&gt; composite ceramics"/>
+    <b v="1"/>
+    <n v="0.27272727272727271"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/jctb.7575"/>
+    <s v="Ultrahigh capacitive performance of O and&lt;scp&gt;Mg&lt;/scp&gt;self dual doped activated carbon fromAnanas comosusleaf fiber using a redox additive based electrolyte"/>
+    <s v="Ultrahigh capacitive performance of O and &lt;scp&gt;Mg&lt;/scp&gt; self dual doped activated carbon from Ananas comosus leaf fiber using a redox additive based electrolyte"/>
+    <b v="1"/>
+    <n v="0.26315789473684209"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/ange.202505405"/>
+    <s v="Engineering Bodipy Based Metal–Organic Frameworks for Efficient Full Spectrum Photocatalysis in Amide Synthesis"/>
+    <s v="Engineering Bodipy Based Metal−Organic Frameworks for Effi cient Full Spectrum Photocatalysis in Amide Synthesis"/>
+    <b v="1"/>
+    <n v="0.25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d4sc06441k"/>
+    <s v="Reassessing the role and lifetime of Q&lt;sub&gt;x&lt;/sub&gt; in the energy transfer dynamics of chlorophyll a"/>
+    <s v="Reassessing the role and lifetime of Qx in the energy transfer dynamics of Chlorophyll a"/>
+    <b v="1"/>
+    <n v="0.25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/humrep/dead093.277"/>
+    <s v="O-227 Viral, bacterial and fungal infections in patients with recurrent miscarriage"/>
+    <s v="O-227 Viral, bacterial and fungal infections in patients with recurrent miscarriage"/>
+    <b v="1"/>
+    <n v="0.25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1103/physrevd.110.036015"/>
+    <s v="Quasi-two-body decays &lt;mml:math xmlns:mml=&quot;http://www.w3.org/1998/Math/MathML&quot; display=&quot;inline&quot;&gt;&lt;mml:mi&gt;B&lt;/mml:mi&gt;&lt;mml:mo stretchy=&quot;false&quot;&gt;→&lt;/mml:mo&gt;&lt;mml:mi&gt;P&lt;/mml:mi&gt;&lt;mml:msub&gt;&lt;mml:mi&gt;f&lt;/mml:mi&gt;&lt;mml:mn&gt;0&lt;/mml:mn&gt;&lt;/mml:msub&gt;&lt;mml:mo stretchy=&quot;false&quot;&gt;(&lt;/mml:mo&gt;&lt;mml:mn&gt;500&lt;/mml:mn&gt;&lt;mml:mo stretchy=&quot;false&quot;&gt;)&lt;/mml:mo&gt;&lt;mml:mo stretchy=&quot;false&quot;&gt;→&lt;/mml:mo&gt;&lt;mml:mi&gt;P&lt;/mml:mi&gt;&lt;mml:msup&gt;&lt;mml:mi&gt;π&lt;/mml:mi&gt;&lt;mml:mo&gt;+&lt;/mml:mo&gt;&lt;/mml:msup&gt;&lt;mml:msup&gt;&lt;mml:mi&gt;π&lt;/mml:mi&gt;&lt;mml:mo&gt;−&lt;/mml:mo&gt;&lt;/mml:msup&gt;&lt;/mml:math&gt; in the perturbative QCD approach"/>
+    <s v="Quasi-two-body decays &lt;mml:math xmlns:mml=&quot;http://www.w3.org/1998/Math/MathML&quot; display=&quot;inline&quot;&gt;&lt;mml:mi&gt;B&lt;/mml:mi&gt;&lt;mml:mo stretchy=&quot;false&quot;&gt;→&lt;/mml:mo&gt;&lt;mml:mi&gt;P&lt;/mml:mi&gt;&lt;mml:msub&gt;&lt;mml:mi&gt;f&lt;/mml:mi&gt;&lt;mml:mn&gt;0&lt;/mml:mn&gt;&lt;/mml:msub&gt;&lt;mml:mo stretchy=&quot;false&quot;&gt;(&lt;/mml:mo&gt;&lt;mml:mn&gt;500&lt;/mml:mn&gt;&lt;mml:mo stretchy=&quot;false&quot;&gt;)&lt;/mml:mo&gt;&lt;mml:mo stretchy=&quot;false&quot;&gt;→&lt;/mml:mo&gt;&lt;mml:mi&gt;P&lt;/mml:mi&gt;&lt;mml:msup&gt;&lt;mml:mi&gt;π&lt;/mml:mi&gt;&lt;mml:mo&gt;+&lt;/mml:mo&gt;&lt;/mml:msup&gt;&lt;mml:msup&gt;&lt;mml:mi&gt;π&lt;/mml:mi&gt;&lt;mml:mo&gt;−&lt;/mml:mo&gt;&lt;/mml:msup&gt;&lt;/mml:math&gt; in the…"/>
+    <b v="1"/>
+    <n v="0.25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1136/jitc-2021-sitc2021.048"/>
+    <s v="48 Immune environment correlates with NSCLC and CRC patient survival"/>
+    <s v="48 Immune environment correlates with NSCLC and CRC patient survival"/>
+    <b v="1"/>
+    <n v="0.25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1177/09715231231223848"/>
+    <s v="Democratisation and State–religion Relations in Post-authoritarian Indonesia and Pakistan (1998–2018)"/>
+    <s v="Democratisation and State– religion Relations in Post-authoritarian Indonesia and Pakistan (1998–2018)"/>
+    <b v="1"/>
+    <n v="0.25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.37741/t.71.4.2"/>
+    <s v="Destination Choice,_x000a_Satisfaction, and Loyalty of Ski Tourists in the Indian Himalayas"/>
+    <s v="Destination Choice, Satisfaction, and Loyalty of Ski Tourists in the Indian Himalayas"/>
+    <b v="1"/>
+    <n v="0.25"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/nop/npae008"/>
+    <s v="NovelEGFRmutations in diffuse midline gliomas using cost-effective strategies: A report of 2 cases"/>
+    <s v="Novel EGFR mutations in diffuse midline gliomas using cost-effective strategies: A report of 2 cases"/>
+    <b v="1"/>
+    <n v="0.23076923076923081"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1142/s0219887824501810"/>
+    <s v="Little rip and pseudo rip cosmological models with coupled dark energy based on a new generalized entropy"/>
+    <s v="Little Rip and Pseudo Rip cosmological models with coupled dark energy based on a new generalized entropy"/>
+    <b v="1"/>
+    <n v="0.23076923076923081"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/humrep/dead093.554"/>
+    <s v="P-194 Initial experience of using iDAScore as a tool to predict euploid blastocysts"/>
+    <s v="P-194 Initial experience of using iDAScore as a tool to predict euploid blastocysts"/>
+    <b v="1"/>
+    <n v="0.22222222222222221"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1111/1467-923x.13233"/>
+    <s v="Building a More United Kingdom: a Conservative Case for Constitutional Reform&lt;sup&gt;1&lt;/sup&gt;"/>
+    <s v="Building a More United Kingdom: a Conservative Case for Constitutional Reform &lt;sup&gt;1&lt;/sup&gt;"/>
+    <b v="1"/>
+    <n v="0.22222222222222221"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1111/jpy.13286"/>
+    <s v="Core metabolism plasticity in phytoplankton: Response of Dunaliella tertiolecta to oil exposure"/>
+    <s v="Core metabolism plasticity in phytoplankton: Response of Dunaliella tertiolecta to oil exposure"/>
+    <b v="1"/>
+    <n v="0.22222222222222221"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1155/2020/8861969"/>
+    <s v="Experimental Study on Lateral Permeability Evolution of Sandstone under Seepage Damage Coupling"/>
+    <s v="Experimental Study on Lateral Permeability Evolution of Sandstone under Seepage-Damage Coupling"/>
+    <b v="1"/>
+    <n v="0.22222222222222221"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1227/neu.0000000000001880_430"/>
+    <s v="430 Trans-cerebellar Stereotactic-guided Cisternoperitoneal Shunt Placement for Idiopathic Intracranial Hypertension"/>
+    <s v="430 Trans-cerebellar Stereotactic-guided Cisternoperitoneal Shunt Placement for Idiopathic Intracranial Hypertension"/>
+    <b v="1"/>
+    <n v="0.22222222222222221"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1038/s41467-024-51160-9"/>
+    <s v="Bleaching protection and axial sectioning in fluorescence nanoscopy through two-photon activation at 515 nm"/>
+    <s v="Bleaching protection and axial sectioning in fluorescence nanoscopy through two-photon activation at 515 nm"/>
+    <b v="1"/>
+    <n v="0.2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1055/a-2563-9844"/>
+    <s v="Population Health in Neurology and the Transformative Promise of Artificial Intelligence and Large Language Models"/>
+    <s v="Population Health in Neurology and the Transformative Promise of AI and Large Language Models"/>
+    <b v="1"/>
+    <n v="0.2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/humrep/deac106.011"/>
+    <s v="P-349 European Atlas of fertility treatment policies - education and advocacy tool"/>
+    <s v="P-349 European Atlas of fertility treatment policies - education and advocacy tool"/>
+    <b v="1"/>
+    <n v="0.2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/rheumatology/keaf142.157"/>
+    <s v="P117 Remote monitoring of rheumatoid arthritis using RAPID3 to support patient-initiated follow up"/>
+    <s v="P117 Remote monitoring of rheumatoid arthritis using RAPID3 to support patient-initiated follow up"/>
+    <b v="1"/>
+    <n v="0.2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1097/mcc.0000000000001214"/>
+    <s v="Does targeted temperature management at 33 °C improve outcome after cardiac arrest?"/>
+    <s v="Does targeted temperature management at 33 °C improve outcome after cardiac arrest?"/>
+    <b v="1"/>
+    <n v="0.2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1111/ijd.17038"/>
+    <s v="Drug survival, effectiveness, and safety of brodalumab for moderate to severe psoriasis up to 3 years"/>
+    <s v="Drug survival, effectiveness, and safety of brodalumab for moderate to severe psoriasis up to 3 years"/>
+    <b v="1"/>
+    <n v="0.2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1155/2024/5560922"/>
+    <s v="Identification of Senescence Associated Biomarkers in Diabetic Glomerulopathy Using Integrated Bioinformatics Analysis"/>
+    <s v="Identification of Senescence-Associated Biomarkers in Diabetic Glomerulopathy Using Integrated Bioinformatics Analysis"/>
+    <b v="1"/>
+    <n v="0.2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1227/neu.0000000000002809_372"/>
+    <s v="372 Differences in Oligodendrogenesis Between Human and Rodent Spinal Cord Stem Cells"/>
+    <s v="372 Differences in Oligodendrogenesis Between Human and Rodent Spinal Cord Stem Cells"/>
+    <b v="1"/>
+    <n v="0.2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1364/oe.541425"/>
+    <s v="SNSPD-based detector system for NASA’s Deep Space Optical Communications project"/>
+    <s v="An SNSPD-based detector system for NASA's Deep Space Optical Communications project"/>
+    <b v="1"/>
+    <n v="0.2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1558/bar.18313"/>
+    <s v="&amp;lt;i&amp;gt;Social Skins of the Head: Body Beliefs and Ritual in Ancient Mesoamerica and the Andes&amp;lt;/i&amp;gt; Edited by V. Tiesler and M. C. Lozada (2018)"/>
+    <s v="Social Skins of the Head: Body Beliefs and Ritual in Ancient Mesoamerica and the Andes edited by V. Tiesler and M. C. Lozada (2018)"/>
+    <b v="1"/>
+    <n v="0.1875"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d2en00837h"/>
+    <s v="In situconstruction of a magnesium foliar fertilizer with pH-controlled release and high adhesion capacity"/>
+    <s v="In situ construction of a magnesium foliar fertilizer with pH-controlled release and high adhesion capacity"/>
+    <b v="1"/>
+    <n v="0.1818181818181818"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/geront/gnaf065"/>
+    <s v="Social Relations of Older Adults With Intellectual Disabilities From a Life Course Perspective"/>
+    <s v="Social Relations of Older Adults with Intellectual Disabilities from a Life Course Perspective"/>
+    <b v="1"/>
+    <n v="0.1818181818181818"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/rheumatology/keae163.190"/>
+    <s v="P151 Nailfold capillaroscopy for prediction of novel severe organ involvement and mortality in systemic sclerosis"/>
+    <s v="P151 Nailfold capillaroscopy for prediction of novel severe organ involvement and mortality in systemic sclerosis"/>
+    <b v="1"/>
+    <n v="0.1818181818181818"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1155/2020/1053818"/>
+    <s v="Development of an Alternative Low Cost Larval Diet for Mass Rearing of Aedes aegypti Mosquitoes"/>
+    <s v="Development of an Alternative Low-Cost Larval Diet for Mass Rearing of Aedes aegypti Mosquitoes"/>
+    <b v="1"/>
+    <n v="0.1818181818181818"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.3390/labmed2010002"/>
+    <s v="Case Report: Temporary Molecular Relapse of Myeloid Leukemias in the Setting of COVID-19 and Viral-Induced Immunosuppression"/>
+    <s v="Temporary Molecular Relapse of Myeloid Leukemias in the Setting of COVID-19 and Viral-Induced Immunosuppression"/>
+    <b v="0"/>
+    <n v="0.1818181818181818"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.51220/jmr.v18i1.6"/>
+    <s v="Repositioning Urban Agenda For Sustainable Development Goals In Jammu And_x000a_Kashmir"/>
+    <s v="Repositioning Urban Agenda For Sustainable Development Goals In Jammu And Kashmir"/>
+    <b v="1"/>
+    <n v="0.1818181818181818"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/chem.202402809"/>
+    <s v="Pioneering Metal Free Late Stage C−H Functionalization Using Acridinium Salt Photocatalysis"/>
+    <s v="Pioneering Metal Free Late Stage C H Functionalization Using Acridinium Salt Photocatalysis"/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/nafm.10660"/>
+    <s v="Microsatellite Variation in Yukon River Coho Salmon: Population Structure and Application to Mixed-Stock Analysis"/>
+    <s v="Microsatellite Variation in Yukon River Coho Salmon: Population Structure and Application to Mixed Stock Analysis"/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/bjs/znab135.043"/>
+    <s v="209 Breast Lymphoma Treatment Outcomes in a Pakistani Population: 20 Years of Experience at a Single Centre"/>
+    <s v="209 Breast Lymphoma Treatment Outcomes in a Pakistani Population: 20 Years of Experience at a Single Centre"/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/bjs/znab430.099"/>
+    <s v="P-L06 Establishing minimum datasets and disease specific forms for cancer patients in multidisciplinary team meetings"/>
+    <s v="P-L06 Establishing minimum datasets and disease specific forms for cancer patients in multidisciplinary team meetings"/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/humrep/dead093.146"/>
+    <s v="O-119 Time-lapse comprehensive portrait of cytoplasmic strings appearing during blastulation: prevalence and implications for embryo assessment."/>
+    <s v="O-119 Time-lapse comprehensive portrait of cytoplasmic strings appearing during blastulation: prevalence and implications for embryo assessment."/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/mnras/stab1476"/>
+    <s v="The HST large programme on ω Centauri – IV. Catalogue of two external fields"/>
+    <s v="The HST large programme on ω Centauri – IV. Catalogue of two external fields"/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1097/mbc.0000000000001342"/>
+    <s v="Impact of cytochrome P-450 3A4 enzyme/P-glycoprotein inducing antiseizure medications on direct oral anticoagulant therapy"/>
+    <s v="Impact of cytochrome P-450 3A4 enzyme/P-glycoprotein inducing antiseizure medications on direct oral anticoagulant therapy"/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1136/archdischild-2023-nppg.47"/>
+    <s v="SP2 Drug information for parents/carers taking babies home – Survey of healthcare professionals and parents/carers"/>
+    <s v="SP2 Drug information for parents/carers taking babies home – Survey of healthcare professionals and parents/carers"/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.2174/1567202620666230303144323"/>
+    <s v="Curcumin Alleviates Oxidative Stress, Neuroinflammation, and Promotes_x000a_Behavioral Recovery After Traumatic Brain Injury"/>
+    <s v="Curcumin Alleviates Oxidative Stress, Neuroinflammation, and Promotes Behavioral Recovery After Traumatic Brain Injury"/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.21931/bj/2024.01.01.75"/>
+    <s v="Evaluation of DNA damage through cytogenetic approach in smokers and vapers with and without_x000a_nicotine compared with control group"/>
+    <s v="Evaluation of DNA damage through cytogenetic approach in smokers and vapers with and without nicotine compared with control group"/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.36937/ben.2024.4951"/>
+    <s v="Development and Performance Evaluation of Push Type Manually Operated Hilling_x000a_Corn with Double Wheel Hoe"/>
+    <s v="Development and Performance Evaluation of Push Type Manually Operated Hilling Corn with Double Wheel Hoe"/>
+    <b v="1"/>
+    <n v="0.16666666666666671"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/cbdv.202402361"/>
+    <s v="Pleurotus ostreatus Copper Nanoparticles: In Vitro and In Silico Evaluation of the Antioxidant, Antibacterial, and Antidiabetic Activities"/>
+    <s v="Pleurotus Ostreatus Copper Nanoparticles: In Vitro and In Silico Evaluation of the Antioxidant, Antibacterial and Antidiabetic Activities"/>
+    <b v="1"/>
+    <n v="0.15384615384615391"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1049/ipr2.12030"/>
+    <s v="Providing clear pruning threshold: A novel CNN pruning method via L&lt;sub&gt;0&lt;/sub&gt; regularisation"/>
+    <s v="Providing clear pruning threshold: A novel CNN pruning method via L &lt;sub&gt;0&lt;/sub&gt; regularisation"/>
+    <b v="1"/>
+    <n v="0.15384615384615391"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.5604/01.3001.0013.8156"/>
+    <s v="SOLUTIONS ENSURING SAFETY DURING TRANSPORT_x000a_OF STATE VIPS BY MILITARY AIRFCRAFT (part 2)"/>
+    <s v="SOLUTIONS ENSURING SAFETY DURING TRANSPORT OF STATE VIPS BY MILITARY AIRFCRAFT (part 2)"/>
+    <b v="1"/>
+    <n v="0.15384615384615391"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/ange.202424183"/>
+    <s v="Silylation of Aryl and Alkyl Chlorides by a Seven Membered Dialkoxysilyl Group Si(pan)Me via an In Situ Generated Silylpotassium"/>
+    <s v="Silylation of Aryl and Alkyl Chlorides by a Seven Membered Dialkoxysilyl Group Si(pan)Me via an in situ Generated Silylpotassium"/>
+    <b v="1"/>
+    <n v="0.14285714285714279"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/mop.33643"/>
+    <s v="A multiband quasi Yagi antenna using stepped driver and slotted ground for 2.4/3.5/5.2 GHz bands applications"/>
+    <s v="A multiband quasi Yagi antenna using stepped driver and slotted ground for 2.4/3.5/5.2 GHz bands applications"/>
+    <b v="1"/>
+    <n v="0.14285714285714279"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1051/cocv/2019034"/>
+    <s v="A minimisation problem in L&lt;sup&gt;∞&lt;/sup&gt;with PDE and unilateral constraints"/>
+    <s v="A minimisation problem in L&lt;sup&gt;∞&lt;/sup&gt; with PDE and unilateral constraints"/>
+    <b v="1"/>
+    <n v="0.14285714285714279"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/mnras/stae2419"/>
+    <s v="Constraining planetary albedo of JWST targets in the TESS bandpass, using TESS, HST, and Spitzer eclipse depth observations"/>
+    <s v="Constraining planetary Albedo of JWST targets in the TESS bandpass, using TESS, HST and Spitzer eclipse depth observations"/>
+    <b v="1"/>
+    <n v="0.14285714285714279"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.33845/0033-3239-2023-72-3-65-71"/>
+    <s v="ЭФФЕКТИВНОСТЬ ПРИМЕНЕНИЯ КОРМОВОЙ ДОБАВКИ &quot;БЕТАКОРМ&quot; ПРИ КОКЦИДИОЗЕ ЦЫПЛЯТ-БРОЙЛЕРОВ_x000a_Ильин Г.М., Рябцев П.С., Комарчев А.С."/>
+    <s v="ЭФФЕКТИВНОСТЬ ПРИМЕНЕНИЯ КОРМОВОЙ ДОБАВКИ &quot;БЕТАКОРМ&quot; ПРИ КОКЦИДИОЗЕ ЦЫПЛЯТ-БРОЙЛЕРОВ Ильин Г.М., Рябцев П.С., Комарчев А.С."/>
+    <b v="0"/>
+    <n v="0.14285714285714279"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="10.3389/fnut.2025.1551349"/>
+    <s v="Association between neutrophil-percentage-to-albumin ratio and periodontitis: insights from a population-based study"/>
+    <s v="Association between neutrophil-percentage-to-albumin ratio and periodontitis: insights from a population-based study."/>
+    <b v="1"/>
+    <n v="0.14285714285714279"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.34091/ajss.13.2.04"/>
+    <s v="The Effect of Explicit Knowledge Sharing on Human Resource Performance_x000a_Efficiency: Moderating Role of Human Capacity Development"/>
+    <s v="The Effect of Explicit Knowledge Sharing on Human Resource Performance Efficiency: Moderating Role of Human Capacity Development"/>
+    <b v="1"/>
+    <n v="0.14285714285714279"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/nbm.5134"/>
+    <s v="Free breathing abdominal chemical exchange saturation transfer imaging using water presaturation and respiratory gating at 3.0 T"/>
+    <s v="Free breathing abdominal chemical exchange saturation transfer imaging using water presaturation and respiratory gating at 3.0 T"/>
+    <b v="1"/>
+    <n v="0.1333333333333333"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1063/5.0188693"/>
+    <s v="Investigation of laser plasma instabilities driven by 527 nm laser pulses relevant for direct drive inertial confinement fusion"/>
+    <s v="Investigation of laser plasma instabilities driven by 527 nm laser pulses relevant for direct drive inertial confinement fusion"/>
+    <b v="1"/>
+    <n v="0.1333333333333333"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1145/3682067"/>
+    <s v="Efficiently Gluing Pre-Trained Language and Vision Models for Image Captioning"/>
+    <s v="Efficiently Gluing Pre-trained Language and Vision Models for Image Captioning"/>
+    <b v="1"/>
+    <n v="0.125"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.35940/ijrte.a3015.059120"/>
+    <s v="The Fourth Most Utility: Compressed Air Engine"/>
+    <s v="The Fourth Most Utility: - Compressed Air Engine"/>
+    <b v="0"/>
+    <n v="0.125"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="10.1002/jbm.a.37614"/>
+    <s v="Heparin–collagen I bilayers stimulate&lt;scp&gt;FAK&lt;/scp&gt;/&lt;scp&gt;ERK&lt;/scp&gt;½ signaling via α2β1 integrin to support the growth and anti inflammatory potency of mesenchymal stromal cells"/>
+    <s v="Heparin–collagen I bilayers stimulate &lt;scp&gt;FAK&lt;/scp&gt;/&lt;scp&gt;ERK&lt;/scp&gt;½ signaling via α2β1 integrin to support the growth and anti inflammatory potency of mesenchymal stromal cells"/>
+    <b v="1"/>
+    <n v="0.1176470588235294"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d5ay00460h"/>
+    <s v="A BODIPY-based fluorescent probe for rapid detection of NO in cells and zebrafish"/>
+    <s v="BODIPY-based fluorescent probe for rapid detection of NO in cells and zebrafish"/>
+    <b v="1"/>
+    <n v="0.1111111111111111"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/bjs/znab430.230"/>
+    <s v="P-P06 Ward based goal directed fluid therapy (GDFT) in acute pancreatitis (GAP) trial: a feasibility randomised controlled trial [ISRCTN 36077283]"/>
+    <s v="P-P06 Ward based goal directed fluid therapy (GDFT) in acute pancreatitis (GAP) trial: a feasibility randomised controlled trial [ISRCTN 36077283]"/>
+    <b v="1"/>
+    <n v="0.1111111111111111"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1097/prs.0000000000011236"/>
+    <s v="Use of Resorbable Fixation for Posterior Cranial Vault Distraction Osteogenesis"/>
+    <s v="The Use of Resorbable Fixation for Posterior Cranial Vault Distraction Osteogenesis"/>
+    <b v="1"/>
+    <n v="0.1111111111111111"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1142/s0218001424340012"/>
+    <s v="Simulation Analysis and Image Processing of the Exhaust Silencing Chamber and Coil"/>
+    <s v="Simulation Analysis &amp;amp; Image Processing of the Exhaust Silencing Chamber and Coil"/>
+    <b v="0"/>
+    <n v="0.1111111111111111"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="10.1158/1055-9965.epi-24-1398"/>
+    <s v="Racialized Economic Segregation, Treatment, and Outcomes in Women with Triple-Negative Breast Cancer"/>
+    <s v="Racialized Economic Segregation, Treatment and Outcomes in Women with Triple-Negative Breast Cancer"/>
+    <b v="1"/>
+    <n v="0.1111111111111111"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1177/01926233241278298"/>
+    <s v="Toxicologic Pathology Forum: mRNA Vaccine Safety–Separating Fact From Fiction"/>
+    <s v="Toxicologic Pathology Forum*: mRNA Vaccine Safety–Separating Fact From Fiction"/>
+    <b v="0"/>
+    <n v="0.1111111111111111"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="10.26656/fr.2017.5(6).125"/>
+    <s v="Electronic nose to differentiate between several drying techniques for_x000a_Origanum syriacum leaves"/>
+    <s v="Electronic nose to differentiate between several drying techniques for Origanum syriacum leaves"/>
+    <b v="1"/>
+    <n v="0.1111111111111111"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.3828/index.2024.26"/>
+    <s v="Dictionary of basic indexing terminology: Polish and Czech; Słownik podstawowej terminologii indeksacyjnej: polski i czeski; Slovník základní terminologie indexování: polský a český"/>
+    <s v="Dictionary of basic indexing terminology: Polish and Czech Słownik podstawowej terminologii indeksacyjnej: polski i czeski Slovník základní terminologie indexování: polský a český"/>
+    <b v="1"/>
+    <n v="0.1111111111111111"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.47836/mjms.17.3.05"/>
+    <s v="Variable-order Implicit Fractional Differential Equations based on the_x000a_Kuratowski MNC Technique"/>
+    <s v="Variable-order Implicit Fractional Differential Equations based on the Kuratowski MNC Technique"/>
+    <b v="1"/>
+    <n v="0.1111111111111111"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.55529/jcfmbs.35.6.16"/>
+    <s v="Assets Investment and Financial Performance of_x000a_Deposit Money Banks in Nigeria (2016-2021)"/>
+    <s v="Assets Investment and Financial Performance of Deposit Money Banks in Nigeria (2016-2021)"/>
+    <b v="1"/>
+    <n v="0.1111111111111111"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1111/neup.12938"/>
+    <s v="Senile plaque associated transactive response DNA binding protein 43 in Alzheimer's disease: A case report spanning 16 years of memory loss"/>
+    <s v="Senile plaque associated transactive response DNA binding protein 43 in Alzheimer's disease: A case report spanning 16 years of memory loss"/>
+    <b v="1"/>
+    <n v="0.10526315789473679"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.3233/jifs-240788"/>
+    <s v="RETRACTED: HRU-TNet: Hybrid Residual U-Transformer Network for diabetic retinopathy multi-lesion segmentation"/>
+    <s v="HRU-TNet: Hybrid Residual U-Transformer Network for diabetic retinopathy multi-lesion segmentation"/>
+    <b v="0"/>
+    <n v="0.1"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.18499/2070-478x-2021-14-1-75-84"/>
+    <s v="Instrumental Non-Invasive Diagnostics of the Depth of Skin Burn: Current Opportunities and Unsolved Problems"/>
+    <s v="Instrumental Non-Invasive Diagnostics of the Depth of Skin Burn:&amp;#x0D; Current Opportunities and Unsolved Problems"/>
+    <b v="0"/>
+    <n v="0.1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="10.1093/mnras/staf007"/>
+    <s v="The XMM Cluster Survey: automating the estimation of hydrostatic mass for large samples of galaxy clusters – I. Methodology, validation, and application to the SDSSRM-XCS sample"/>
+    <s v="The XMM Cluster Survey: Automating the estimation of hydrostatic mass for large samples of galaxy clusters – I. Methodology, validation, &amp;amp; application to the SDSSRM-XCS sample"/>
+    <b v="0"/>
+    <n v="0.1"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="10.1093/humrep/deae108.1004"/>
+    <s v="P-674 Rescue oocyte collection: a strategy to reduce cycle cancellations in natural/natural modified IVF/ ICSI cycles with luteinising hormone (LH) surge among poor responder patients"/>
+    <s v="P-674 Rescue oocyte collection: a strategy to reduce cycle cancellations in natural/natural modified IVF/ ICSI cycles with luteinising hormone (LH) surge among poor responder patients"/>
+    <b v="1"/>
+    <n v="9.5238095238095233E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d4ce01230e"/>
+    <s v="Three-phase reversible mechanochemical interconversion of hydrogen-bonded melamine : barbiturate co-crystals: from rosette to linear tape polymorphs"/>
+    <s v="Three-phase reversible mechanochemical interconversion of hydrogen-bonded melamine:barbiturate co-crystals: from rosette to linear tape polymorphs"/>
+    <b v="1"/>
+    <n v="9.0909090909090912E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1051/e3sconf/202454909025"/>
+    <s v="RETRACTED: Factors of sustainable development of labour productivity in capital repairs in the Russian Federation and the EU"/>
+    <s v="Factors of sustainable development of labour productivity in capital repairs in the Russian Federation and the EU"/>
+    <b v="0"/>
+    <n v="9.0909090909090912E-2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1039/d4tc03255a"/>
+    <s v="High-efficiency organic light-emitting diodes based on cationic iridium(&lt;scp&gt;iii&lt;/scp&gt;) complexes with double tridentate ligands"/>
+    <s v="High-efficiency organic light-emitting diodes based on cationic iridium(III) complexes with double tridentate ligands"/>
+    <b v="0"/>
+    <n v="9.0909090909090912E-2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1093/jge/gxae055"/>
+    <s v="Numerical simulation of acoustic wave propagation by finite element method based on optimized matrices"/>
+    <s v="Numerical simulation of acoustic waves propagation by finite element method based on optimized matrices"/>
+    <b v="1"/>
+    <n v="9.0909090909090912E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/iub.2329"/>
+    <s v="Schizandrin A inhibits cellular phenotypes of breast cancer cells by repressing &lt;scp&gt;miR&lt;/scp&gt; 155"/>
+    <s v="Schizandrin A inhibits cellular phenotypes of breast cancer cells by repressing &lt;scp&gt;miR&lt;/scp&gt;  155"/>
+    <b v="1"/>
+    <n v="8.3333333333333329E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.32890/uumjls2021.12.1.11"/>
+    <s v="ANALISIS LITERATUR TENTANG TATACARA PERBICARAAN JENAYAH SYARIAH BAGI ORANG KURANG UPAYA DI MAHKAMAH SYARIAH_x000a_(Literature Analysis on Syariah Criminal Trial Procedures for Person with Disabilities in Syariah Court)"/>
+    <s v="ANALISIS LITERATUR TENTANG TATACARA PERBICARAAN JENAYAH SYARIAH BAGI ORANG KURANG UPAYA DI MAHKAMAH SYARIAH (Literature Analysis on Syariah Criminal Trial Procedures for Person with Disabilities in Syariah Court)"/>
+    <b v="0"/>
+    <n v="8.3333333333333329E-2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.1088/1757-899x/925/1/012047"/>
+    <s v="Comparative Study on Mechanical Properties of SiC/Gr &amp;amp;Al&lt;sub&gt;2&lt;/sub&gt;O&lt;sub&gt;3&lt;/sub&gt;/Gr reinforced AL6061 hybrid metal matrix composites"/>
+    <s v="Comparative Study on Mechanical Properties of SiC/Gr &amp;Al2O3/Gr reinforced AL6061 hybrid metal matrix composites"/>
+    <b v="0"/>
+    <n v="8.3333333333333329E-2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1111/nana.13044"/>
+    <s v="Crafting a national identity: The role of geography textbooks in 1930s Turkey's nation building project"/>
+    <s v="Crafting a national identity: The role of geography textbooks in 1930s Türkiye's nation building project"/>
+    <b v="0"/>
+    <n v="8.3333333333333329E-2"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="10.3390/molecules30030674"/>
+    <s v="Study on the Extraction of Rare Earth Elements (REEs) from Phosphogypsum Using Gluconobacter oxydans Culture Solution"/>
+    <s v="Study on the Extraction of Rare Earth Elements (REEs) from Phosphogypsum Using Gluconobacter Oxydans Culture Solution"/>
+    <b v="1"/>
+    <n v="8.3333333333333329E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1155/2022/2417523"/>
+    <s v="[Retracted] Construction of Sports Nutrition Dynamic Intervention Mechanism Based on the Improvement of College Students’ Physical Health"/>
+    <s v="Construction of Sports Nutrition Dynamic Intervention Mechanism Based on the Improvement of College Students’ Physical Health"/>
+    <b v="0"/>
+    <n v="7.6923076923076927E-2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.1155/2021/5545956"/>
+    <s v="[Retracted] Dynamic Index Optimal Investment Strategy Based on Stochastic Differential Equations in Financial Market Options"/>
+    <s v="Dynamic Index Optimal Investment Strategy Based on Stochastic Differential Equations in Financial Market Options"/>
+    <b v="0"/>
+    <n v="7.6923076923076927E-2"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <s v="10.5194/bg-19-845-2022"/>
+    <s v="Reconstruction of global surface ocean pCO&lt;sub&gt;2&lt;/sub&gt; using region-specific predictors based on a stepwise FFNN regression algorithm"/>
+    <s v="Reconstruction of global surface ocean &amp;amp;lt;i&amp;amp;gt;p&amp;amp;lt;/i&amp;amp;gt;CO&amp;amp;lt;sub&amp;amp;gt;2&amp;amp;lt;/sub&amp;amp;gt; using region-specific predictors based on a stepwise FFNN regression algorithm"/>
+    <b v="0"/>
+    <n v="7.6923076923076927E-2"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <s v="10.58818/ijems.v3i3.146"/>
+    <s v="Effect of Emotional Maturity on Student Discipline in Participating in Activities at the College of Qur'an Sciences (STIQ) Amuntai"/>
+    <s v="The Effect of Emotional Maturity on Student Discipline in Participating in Activities at the College of Qur'an Sciences (STIQ) Amuntai"/>
+    <b v="1"/>
+    <n v="7.6923076923076927E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.61218/hadith.1541223"/>
+    <s v="Sahâbenin ‘Şöyle Yapardık’ Sözünde Kastedilen Fiillerin Hz. Peygamber’e Aidiyeti Meselesi Üzerine Bir İnceleme"/>
+    <s v="Sahabenin ‘Şöyle Yapardık’ Sözünde Kastedilen Fiillerin Hz. Peygamber’e Aidiyeti Meselesi Üzerine Bir İnceleme"/>
+    <b v="1"/>
+    <n v="7.6923076923076927E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/mnras/stae137"/>
+    <s v="Modelling stellar variability in archival HARPS data: I - Rotation and activity properties with multidimensional Gaussian processes"/>
+    <s v="Modelling stellar variability in archival HARPS data: I - Rotation and activity properties with multi-dimensional Gaussian processes"/>
+    <b v="1"/>
+    <n v="7.1428571428571425E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1149/1945-7111/ad7989"/>
+    <s v="Synthesis and Characterization of a Novel Modified Biosensor Carbon/Chitosan L-Leucine and Albumin Electrode for Bilirubin and Uric Acid Blood Detection"/>
+    <s v="Synthesis and Characterization of a Novel Modified Biosensor Carbon/Chitosan L-Leucine and Albumin Electrode for Bili-rubin and Uric Acid Blood Detection"/>
+    <b v="1"/>
+    <n v="7.1428571428571425E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1111/andr.13436"/>
+    <s v="Novel sperm chromatin dispersion test with artificial intelligence aided halo evaluation: A comparison study with existing modalities"/>
+    <s v="Novel sperm chromatin dispersion test with artificial intelligence aided halo evaluation; A comparison study with existing modalities"/>
+    <b v="1"/>
+    <n v="6.6666666666666666E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.51220/jmr.v19-i2.10"/>
+    <s v="A Comprehensive Review on Actinomycetes Distribution, Novel Bioactive Compounds_x000a_and Their Implementation in The Field of Agronomy And Medical"/>
+    <s v="A Comprehensive Review on Actinomycetes Distribution, Novel Bioactive Compounds and Their Implementation in The Field of Agronomy And Medical"/>
+    <b v="1"/>
+    <n v="6.6666666666666666E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1093/jambio/lxaf002"/>
+    <s v="Isolation optimization and screening of halophilic enzymes and antimicrobial activities of halophilic archaea from the high-altitude, hypersaline Da Qaidam Salt Lake, China"/>
+    <s v="Isolation optimization and screening of halophilic enzymes and antimicrobial activities of halophilic archaea from the high-altitude, hypersaline Da Qaidam Salt lake, China"/>
+    <b v="1"/>
+    <n v="6.25E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.54151/27382559-2021.1b-292"/>
+    <s v="ОБ ОДНОЙ ИЗ ПРИЧИН ТРУДНОСТЕЙ УСВОЕНИЯ ОМОНИМИИ ПРИ ОБУЧЕНИИ РУССКОМУ ЯЗЫКУ КАК НЕРОДНОМУ / ON ONE OF THE REASONS FOR THE DIFFICULTIES IN MASTERING_x000a_HOMONYMY WHILE TEACHING RUSSIAN AS A FOREIGN LANGUAGE"/>
+    <s v="ОБ ОДНОЙ ИЗ ПРИЧИН ТРУДНОСТЕЙ УСВОЕНИЯ ОМОНИМИИ ПРИ ОБУЧЕНИИ РУССКОМУ ЯЗЫКУ КАК НЕРОДНОМУ / ON ONE OF THE REASONS FOR THE DIFFICULTIES IN MASTERING HOMONYMY WHILE TEACHING RUSSIAN AS A FOREIGN LANGUAGE"/>
+    <b v="1"/>
+    <n v="6.25E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1002/ange.202414652"/>
+    <s v="When Metal Complexes Evolve, and a Minor Species is the Most Active: the Case of Bis(Phenanthroline)Copper in the Catalysis of Glutathione Oxidation and Hydroxyl Radical Generation"/>
+    <s v="When Metal Complexes Evolve, and a Minor Species Is the Most Active: the Case of Bis(Phenanthroline)Copper in the Catalysis of Glutathione Oxidation and Hydroxyl Radical Generation"/>
+    <b v="1"/>
+    <n v="5.8823529411764712E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.4049/jimmunol.210.supp.172.25"/>
+    <s v="Therapeutic CAR T cells differentiate into diverse memory and exhausted T cell subsets in vivo to provide long-term protection from relapse and metastasis of solid tumors"/>
+    <s v="Therapeutic CAR T cells differentiate into diverse memory and exhausted T cell subsets in vivo to provide long-term protection from relapse and metastasis of solid tumors."/>
+    <b v="1"/>
+    <n v="5.2631578947368418E-2"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d4cc03367a"/>
+    <s v="High throughput production of a self-floating MIL-88A(Fe)@polyurethane sponge for efficient oil/water separation"/>
+    <s v="High throughput production of self-floating MIL-88A(Fe)@polyurethane sponge for efficient oil/water separation"/>
+    <b v="1"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1039/d4tc03192j"/>
+    <s v="Efficient and easily repeatable organic solar cells in a high boiling point solvent by introducing a highly mixed tolerant guest acceptor"/>
+    <s v="Efficient and easily repeatable organic solar cells under high boiling point solvent by introducing highly mixed tolerant guest acceptor"/>
+    <b v="1"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <s v="10.1115/1.4067013"/>
+    <s v="Rolling Formability Optimization of Locking Bolt Based on a Double-Thread Structure Composed of Coaxial Single and Multiple Threads"/>
+    <s v="Rolling Formability Optimization of Locking Bolt Based on Double-Thread Structure Composed of Coaxial Single and Multiple Threads"/>
+    <b v="1"/>
+    <n v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="3"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E3D8D78-8A13-1842-B1AE-ABB0BEB4CB29}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item x="6"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of error_classification" fld="5" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2989,10 +5784,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E324"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3002,9 +5798,10 @@
     <col min="3" max="3" width="76.33203125" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3020,489 +5817,576 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>628</v>
+      </c>
+      <c r="B4" t="s">
+        <v>629</v>
+      </c>
+      <c r="C4" t="s">
+        <v>630</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" t="s">
+        <v>562</v>
+      </c>
+      <c r="C5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D5" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B6" t="s">
+        <v>718</v>
+      </c>
+      <c r="C6" t="s">
+        <v>719</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>631</v>
+      </c>
+      <c r="B7" t="s">
+        <v>632</v>
+      </c>
+      <c r="C7" t="s">
+        <v>633</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>798</v>
+      </c>
+      <c r="B8" t="s">
+        <v>799</v>
+      </c>
+      <c r="C8" t="s">
+        <v>800</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>704</v>
+      </c>
+      <c r="B9" t="s">
+        <v>705</v>
+      </c>
+      <c r="C9" t="s">
+        <v>706</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>738</v>
+      </c>
+      <c r="B10" t="s">
+        <v>739</v>
+      </c>
+      <c r="C10" t="s">
+        <v>740</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B11" t="s">
+        <v>550</v>
+      </c>
+      <c r="C11" t="s">
+        <v>551</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>546</v>
+      </c>
+      <c r="B12" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" t="s">
+        <v>548</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>831</v>
+      </c>
+      <c r="B13" t="s">
+        <v>832</v>
+      </c>
+      <c r="C13" t="s">
+        <v>833</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>859</v>
+      </c>
+      <c r="B14" t="s">
+        <v>860</v>
+      </c>
+      <c r="C14" t="s">
+        <v>861</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>783</v>
+      </c>
+      <c r="B15" t="s">
+        <v>784</v>
+      </c>
+      <c r="C15" t="s">
+        <v>785</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>552</v>
+      </c>
+      <c r="B16" t="s">
+        <v>553</v>
+      </c>
+      <c r="C16" t="s">
+        <v>554</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>780</v>
+      </c>
+      <c r="B17" t="s">
+        <v>781</v>
+      </c>
+      <c r="C17" t="s">
+        <v>782</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>577</v>
+      </c>
+      <c r="B18" t="s">
+        <v>578</v>
+      </c>
+      <c r="C18" t="s">
+        <v>579</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>558</v>
+      </c>
+      <c r="B19" t="s">
+        <v>559</v>
+      </c>
+      <c r="C19" t="s">
+        <v>560</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>711</v>
+      </c>
+      <c r="B20" t="s">
+        <v>712</v>
+      </c>
+      <c r="C20" t="s">
+        <v>713</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>580</v>
+      </c>
+      <c r="B21" t="s">
+        <v>581</v>
+      </c>
+      <c r="C21" t="s">
+        <v>582</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>843</v>
+      </c>
+      <c r="B22" t="s">
+        <v>844</v>
+      </c>
+      <c r="C22" t="s">
+        <v>845</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>567</v>
+      </c>
+      <c r="B23" t="s">
+        <v>568</v>
+      </c>
+      <c r="C23" t="s">
+        <v>569</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>856</v>
+      </c>
+      <c r="B24" t="s">
+        <v>857</v>
+      </c>
+      <c r="C24" t="s">
+        <v>858</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>714</v>
+      </c>
+      <c r="B25" t="s">
+        <v>715</v>
+      </c>
+      <c r="C25" t="s">
+        <v>716</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>601</v>
+      </c>
+      <c r="B26" t="s">
+        <v>602</v>
+      </c>
+      <c r="C26" t="s">
+        <v>603</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" t="s">
+        <v>116</v>
+      </c>
+      <c r="C27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>813</v>
+      </c>
+      <c r="B28" t="s">
+        <v>814</v>
+      </c>
+      <c r="C28" t="s">
+        <v>815</v>
+      </c>
+      <c r="D28" t="b">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>376</v>
+      </c>
+      <c r="B29" t="s">
+        <v>377</v>
+      </c>
+      <c r="C29" t="s">
+        <v>378</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B30" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="b">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="b">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="b">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="b">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="b">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="b">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="b">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="b">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="b">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="b">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" t="s">
-        <v>89</v>
-      </c>
-      <c r="D23" t="b">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>90</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
-      <c r="C24" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B25" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="b">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="b">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="b">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="b">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" t="s">
-        <v>104</v>
       </c>
       <c r="C30" t="s">
         <v>25</v>
@@ -3513,13 +6397,16 @@
       <c r="E30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
         <v>25</v>
@@ -3530,13 +6417,16 @@
       <c r="E31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>25</v>
@@ -3547,13 +6437,16 @@
       <c r="E32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>109</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
         <v>25</v>
@@ -3564,13 +6457,16 @@
       <c r="E33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
         <v>25</v>
@@ -3581,13 +6477,16 @@
       <c r="E34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>114</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>25</v>
@@ -3598,16 +6497,19 @@
       <c r="E35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>25</v>
       </c>
       <c r="D36" t="b">
         <v>0</v>
@@ -3615,13 +6517,16 @@
       <c r="E36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>60</v>
       </c>
       <c r="C37" t="s">
         <v>25</v>
@@ -3632,13 +6537,16 @@
       <c r="E37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
         <v>25</v>
@@ -3649,13 +6557,16 @@
       <c r="E38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>123</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
         <v>25</v>
@@ -3666,13 +6577,16 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
       <c r="C40" t="s">
         <v>25</v>
@@ -3683,13 +6597,16 @@
       <c r="E40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>129</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>130</v>
+        <v>68</v>
       </c>
       <c r="C41" t="s">
         <v>25</v>
@@ -3700,13 +6617,16 @@
       <c r="E41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
         <v>25</v>
@@ -3717,13 +6637,16 @@
       <c r="E42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>25</v>
@@ -3734,13 +6657,16 @@
       <c r="E43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>25</v>
@@ -3751,13 +6677,16 @@
       <c r="E44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -3768,13 +6697,16 @@
       <c r="E45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
         <v>25</v>
@@ -3785,13 +6717,16 @@
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="C47" t="s">
         <v>25</v>
@@ -3802,16 +6737,19 @@
       <c r="E47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="B48" t="s">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="C48" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -3819,13 +6757,16 @@
       <c r="E48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>278</v>
+        <v>83</v>
       </c>
       <c r="B49" t="s">
-        <v>279</v>
+        <v>84</v>
       </c>
       <c r="C49" t="s">
         <v>25</v>
@@ -3836,13 +6777,16 @@
       <c r="E49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>280</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>25</v>
@@ -3853,13 +6797,16 @@
       <c r="E50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>282</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>283</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
@@ -3870,13 +6817,16 @@
       <c r="E51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>332</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>333</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
         <v>25</v>
@@ -3887,30 +6837,36 @@
       <c r="E52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>376</v>
+        <v>97</v>
       </c>
       <c r="B53" t="s">
-        <v>377</v>
+        <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>378</v>
+        <v>25</v>
       </c>
       <c r="D53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>382</v>
+        <v>99</v>
       </c>
       <c r="B54" t="s">
-        <v>383</v>
+        <v>100</v>
       </c>
       <c r="C54" t="s">
         <v>25</v>
@@ -3921,13 +6877,16 @@
       <c r="E54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>384</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>385</v>
+        <v>102</v>
       </c>
       <c r="C55" t="s">
         <v>25</v>
@@ -3938,13 +6897,16 @@
       <c r="E55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>386</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>387</v>
+        <v>104</v>
       </c>
       <c r="C56" t="s">
         <v>25</v>
@@ -3955,13 +6917,16 @@
       <c r="E56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>421</v>
+        <v>105</v>
       </c>
       <c r="B57" t="s">
-        <v>422</v>
+        <v>106</v>
       </c>
       <c r="C57" t="s">
         <v>25</v>
@@ -3972,13 +6937,16 @@
       <c r="E57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>432</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>433</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
         <v>25</v>
@@ -3989,13 +6957,16 @@
       <c r="E58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>434</v>
+        <v>109</v>
       </c>
       <c r="B59" t="s">
-        <v>435</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
         <v>25</v>
@@ -4006,13 +6977,16 @@
       <c r="E59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>436</v>
+        <v>111</v>
       </c>
       <c r="B60" t="s">
-        <v>437</v>
+        <v>112</v>
       </c>
       <c r="C60" t="s">
         <v>25</v>
@@ -4023,13 +6997,16 @@
       <c r="E60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>438</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>439</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
         <v>25</v>
@@ -4040,13 +7017,16 @@
       <c r="E61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>440</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>441</v>
+        <v>119</v>
       </c>
       <c r="C62" t="s">
         <v>25</v>
@@ -4057,13 +7037,16 @@
       <c r="E62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>442</v>
+        <v>120</v>
       </c>
       <c r="B63" t="s">
-        <v>443</v>
+        <v>121</v>
       </c>
       <c r="C63" t="s">
         <v>25</v>
@@ -4074,13 +7057,16 @@
       <c r="E63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>444</v>
+        <v>122</v>
       </c>
       <c r="B64" t="s">
-        <v>445</v>
+        <v>123</v>
       </c>
       <c r="C64" t="s">
         <v>25</v>
@@ -4091,13 +7077,16 @@
       <c r="E64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>446</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>447</v>
+        <v>125</v>
       </c>
       <c r="C65" t="s">
         <v>25</v>
@@ -4108,13 +7097,16 @@
       <c r="E65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>448</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>449</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s">
         <v>25</v>
@@ -4125,13 +7117,16 @@
       <c r="E66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>450</v>
+        <v>131</v>
       </c>
       <c r="B67" t="s">
-        <v>451</v>
+        <v>132</v>
       </c>
       <c r="C67" t="s">
         <v>25</v>
@@ -4142,13 +7137,16 @@
       <c r="E67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>452</v>
+        <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>453</v>
+        <v>137</v>
       </c>
       <c r="C68" t="s">
         <v>25</v>
@@ -4159,13 +7157,16 @@
       <c r="E68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>454</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>455</v>
+        <v>139</v>
       </c>
       <c r="C69" t="s">
         <v>25</v>
@@ -4176,13 +7177,16 @@
       <c r="E69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>456</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>457</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
         <v>25</v>
@@ -4193,13 +7197,16 @@
       <c r="E70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>458</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s">
-        <v>459</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s">
         <v>25</v>
@@ -4210,13 +7217,16 @@
       <c r="E71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>460</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>461</v>
+        <v>145</v>
       </c>
       <c r="C72" t="s">
         <v>25</v>
@@ -4227,13 +7237,16 @@
       <c r="E72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>462</v>
+        <v>278</v>
       </c>
       <c r="B73" t="s">
-        <v>463</v>
+        <v>279</v>
       </c>
       <c r="C73" t="s">
         <v>25</v>
@@ -4244,13 +7257,16 @@
       <c r="E73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>464</v>
+        <v>280</v>
       </c>
       <c r="B74" t="s">
-        <v>465</v>
+        <v>281</v>
       </c>
       <c r="C74" t="s">
         <v>25</v>
@@ -4261,13 +7277,16 @@
       <c r="E74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>466</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s">
-        <v>467</v>
+        <v>283</v>
       </c>
       <c r="C75" t="s">
         <v>25</v>
@@ -4278,13 +7297,16 @@
       <c r="E75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>468</v>
+        <v>332</v>
       </c>
       <c r="B76" t="s">
-        <v>469</v>
+        <v>333</v>
       </c>
       <c r="C76" t="s">
         <v>25</v>
@@ -4295,13 +7317,16 @@
       <c r="E76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>470</v>
+        <v>382</v>
       </c>
       <c r="B77" t="s">
-        <v>471</v>
+        <v>383</v>
       </c>
       <c r="C77" t="s">
         <v>25</v>
@@ -4312,13 +7337,16 @@
       <c r="E77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>472</v>
+        <v>384</v>
       </c>
       <c r="B78" t="s">
-        <v>473</v>
+        <v>385</v>
       </c>
       <c r="C78" t="s">
         <v>25</v>
@@ -4329,13 +7357,16 @@
       <c r="E78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>474</v>
+        <v>386</v>
       </c>
       <c r="B79" t="s">
-        <v>475</v>
+        <v>387</v>
       </c>
       <c r="C79" t="s">
         <v>25</v>
@@ -4346,13 +7377,16 @@
       <c r="E79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>476</v>
+        <v>421</v>
       </c>
       <c r="B80" t="s">
-        <v>477</v>
+        <v>422</v>
       </c>
       <c r="C80" t="s">
         <v>25</v>
@@ -4363,13 +7397,16 @@
       <c r="E80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>478</v>
+        <v>432</v>
       </c>
       <c r="B81" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="C81" t="s">
         <v>25</v>
@@ -4380,13 +7417,16 @@
       <c r="E81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>480</v>
+        <v>434</v>
       </c>
       <c r="B82" t="s">
-        <v>481</v>
+        <v>435</v>
       </c>
       <c r="C82" t="s">
         <v>25</v>
@@ -4397,13 +7437,16 @@
       <c r="E82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>494</v>
+        <v>436</v>
       </c>
       <c r="B83" t="s">
-        <v>495</v>
+        <v>437</v>
       </c>
       <c r="C83" t="s">
         <v>25</v>
@@ -4414,13 +7457,16 @@
       <c r="E83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>496</v>
+        <v>438</v>
       </c>
       <c r="B84" t="s">
-        <v>497</v>
+        <v>439</v>
       </c>
       <c r="C84" t="s">
         <v>25</v>
@@ -4431,13 +7477,16 @@
       <c r="E84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>498</v>
+        <v>440</v>
       </c>
       <c r="B85" t="s">
-        <v>499</v>
+        <v>441</v>
       </c>
       <c r="C85" t="s">
         <v>25</v>
@@ -4448,13 +7497,16 @@
       <c r="E85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>500</v>
+        <v>442</v>
       </c>
       <c r="B86" t="s">
-        <v>501</v>
+        <v>443</v>
       </c>
       <c r="C86" t="s">
         <v>25</v>
@@ -4465,30 +7517,36 @@
       <c r="E86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>502</v>
+        <v>444</v>
       </c>
       <c r="B87" t="s">
-        <v>503</v>
+        <v>445</v>
       </c>
       <c r="C87" t="s">
-        <v>504</v>
+        <v>25</v>
       </c>
       <c r="D87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>508</v>
+        <v>446</v>
       </c>
       <c r="B88" t="s">
-        <v>509</v>
+        <v>447</v>
       </c>
       <c r="C88" t="s">
         <v>25</v>
@@ -4499,13 +7557,16 @@
       <c r="E88">
         <v>1</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>510</v>
+        <v>448</v>
       </c>
       <c r="B89" t="s">
-        <v>511</v>
+        <v>449</v>
       </c>
       <c r="C89" t="s">
         <v>25</v>
@@ -4516,13 +7577,16 @@
       <c r="E89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>512</v>
+        <v>450</v>
       </c>
       <c r="B90" t="s">
-        <v>513</v>
+        <v>451</v>
       </c>
       <c r="C90" t="s">
         <v>25</v>
@@ -4533,13 +7597,16 @@
       <c r="E90">
         <v>1</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>514</v>
+        <v>452</v>
       </c>
       <c r="B91" t="s">
-        <v>515</v>
+        <v>453</v>
       </c>
       <c r="C91" t="s">
         <v>25</v>
@@ -4550,13 +7617,16 @@
       <c r="E91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>519</v>
+        <v>454</v>
       </c>
       <c r="B92" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
       <c r="C92" t="s">
         <v>25</v>
@@ -4567,47 +7637,56 @@
       <c r="E92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>524</v>
+        <v>456</v>
       </c>
       <c r="B93" t="s">
-        <v>525</v>
+        <v>457</v>
       </c>
       <c r="C93" t="s">
-        <v>526</v>
+        <v>25</v>
       </c>
       <c r="D93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>530</v>
+        <v>458</v>
       </c>
       <c r="B94" t="s">
-        <v>531</v>
+        <v>459</v>
       </c>
       <c r="C94" t="s">
-        <v>532</v>
+        <v>25</v>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>533</v>
+        <v>460</v>
       </c>
       <c r="B95" t="s">
-        <v>534</v>
+        <v>461</v>
       </c>
       <c r="C95" t="s">
         <v>25</v>
@@ -4618,13 +7697,16 @@
       <c r="E95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>535</v>
+        <v>462</v>
       </c>
       <c r="B96" t="s">
-        <v>536</v>
+        <v>463</v>
       </c>
       <c r="C96" t="s">
         <v>25</v>
@@ -4635,16 +7717,19 @@
       <c r="E96">
         <v>1</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>546</v>
+        <v>464</v>
       </c>
       <c r="B97" t="s">
-        <v>547</v>
+        <v>465</v>
       </c>
       <c r="C97" t="s">
-        <v>548</v>
+        <v>25</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -4652,16 +7737,19 @@
       <c r="E97">
         <v>1</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>549</v>
+        <v>466</v>
       </c>
       <c r="B98" t="s">
-        <v>550</v>
+        <v>467</v>
       </c>
       <c r="C98" t="s">
-        <v>551</v>
+        <v>25</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -4669,16 +7757,19 @@
       <c r="E98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>552</v>
+        <v>468</v>
       </c>
       <c r="B99" t="s">
-        <v>553</v>
+        <v>469</v>
       </c>
       <c r="C99" t="s">
-        <v>554</v>
+        <v>25</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -4686,16 +7777,19 @@
       <c r="E99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>555</v>
+        <v>470</v>
       </c>
       <c r="B100" t="s">
-        <v>556</v>
+        <v>471</v>
       </c>
       <c r="C100" t="s">
-        <v>557</v>
+        <v>25</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
@@ -4703,16 +7797,19 @@
       <c r="E100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>558</v>
+        <v>472</v>
       </c>
       <c r="B101" t="s">
-        <v>559</v>
+        <v>473</v>
       </c>
       <c r="C101" t="s">
-        <v>560</v>
+        <v>25</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -4720,16 +7817,19 @@
       <c r="E101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F101" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>561</v>
+        <v>474</v>
       </c>
       <c r="B102" t="s">
-        <v>562</v>
+        <v>475</v>
       </c>
       <c r="C102" t="s">
-        <v>563</v>
+        <v>25</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -4737,16 +7837,19 @@
       <c r="E102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>567</v>
+        <v>476</v>
       </c>
       <c r="B103" t="s">
-        <v>568</v>
+        <v>477</v>
       </c>
       <c r="C103" t="s">
-        <v>569</v>
+        <v>25</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -4754,13 +7857,16 @@
       <c r="E103">
         <v>1</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>573</v>
+        <v>478</v>
       </c>
       <c r="B104" t="s">
-        <v>574</v>
+        <v>479</v>
       </c>
       <c r="C104" t="s">
         <v>25</v>
@@ -4771,13 +7877,16 @@
       <c r="E104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>575</v>
+        <v>480</v>
       </c>
       <c r="B105" t="s">
-        <v>576</v>
+        <v>481</v>
       </c>
       <c r="C105" t="s">
         <v>25</v>
@@ -4788,16 +7897,19 @@
       <c r="E105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="B106" t="s">
-        <v>578</v>
+        <v>495</v>
       </c>
       <c r="C106" t="s">
-        <v>579</v>
+        <v>25</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -4805,16 +7917,19 @@
       <c r="E106">
         <v>1</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>580</v>
+        <v>496</v>
       </c>
       <c r="B107" t="s">
-        <v>581</v>
+        <v>497</v>
       </c>
       <c r="C107" t="s">
-        <v>582</v>
+        <v>25</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -4822,16 +7937,19 @@
       <c r="E107">
         <v>1</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>586</v>
+        <v>498</v>
       </c>
       <c r="B108" t="s">
-        <v>587</v>
+        <v>499</v>
       </c>
       <c r="C108" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -4839,16 +7957,19 @@
       <c r="E108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>588</v>
+        <v>500</v>
       </c>
       <c r="B109" t="s">
-        <v>587</v>
+        <v>501</v>
       </c>
       <c r="C109" t="s">
-        <v>220</v>
+        <v>25</v>
       </c>
       <c r="D109" t="b">
         <v>0</v>
@@ -4856,16 +7977,19 @@
       <c r="E109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>601</v>
+        <v>508</v>
       </c>
       <c r="B110" t="s">
-        <v>602</v>
+        <v>509</v>
       </c>
       <c r="C110" t="s">
-        <v>603</v>
+        <v>25</v>
       </c>
       <c r="D110" t="b">
         <v>0</v>
@@ -4873,33 +7997,39 @@
       <c r="E110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>619</v>
+        <v>510</v>
       </c>
       <c r="B111" t="s">
-        <v>620</v>
+        <v>511</v>
       </c>
       <c r="C111" t="s">
-        <v>621</v>
+        <v>25</v>
       </c>
       <c r="D111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F111" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>622</v>
+        <v>512</v>
       </c>
       <c r="B112" t="s">
-        <v>623</v>
+        <v>513</v>
       </c>
       <c r="C112" t="s">
-        <v>624</v>
+        <v>25</v>
       </c>
       <c r="D112" t="b">
         <v>0</v>
@@ -4907,16 +8037,19 @@
       <c r="E112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F112" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>628</v>
+        <v>514</v>
       </c>
       <c r="B113" t="s">
-        <v>629</v>
+        <v>515</v>
       </c>
       <c r="C113" t="s">
-        <v>630</v>
+        <v>25</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -4924,16 +8057,19 @@
       <c r="E113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F113" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>631</v>
+        <v>519</v>
       </c>
       <c r="B114" t="s">
-        <v>632</v>
+        <v>520</v>
       </c>
       <c r="C114" t="s">
-        <v>633</v>
+        <v>25</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -4941,33 +8077,39 @@
       <c r="E114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F114" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>637</v>
+        <v>533</v>
       </c>
       <c r="B115" t="s">
-        <v>638</v>
+        <v>534</v>
       </c>
       <c r="C115" t="s">
-        <v>639</v>
+        <v>25</v>
       </c>
       <c r="D115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>640</v>
+        <v>535</v>
       </c>
       <c r="B116" t="s">
-        <v>641</v>
+        <v>536</v>
       </c>
       <c r="C116" t="s">
-        <v>642</v>
+        <v>25</v>
       </c>
       <c r="D116" t="b">
         <v>0</v>
@@ -4975,16 +8117,19 @@
       <c r="E116">
         <v>1</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>643</v>
+        <v>573</v>
       </c>
       <c r="B117" t="s">
-        <v>644</v>
+        <v>574</v>
       </c>
       <c r="C117" t="s">
-        <v>645</v>
+        <v>25</v>
       </c>
       <c r="D117" t="b">
         <v>0</v>
@@ -4992,13 +8137,16 @@
       <c r="E117">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>649</v>
+        <v>575</v>
       </c>
       <c r="B118" t="s">
-        <v>650</v>
+        <v>576</v>
       </c>
       <c r="C118" t="s">
         <v>25</v>
@@ -5009,13 +8157,16 @@
       <c r="E118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B119" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C119" t="s">
         <v>25</v>
@@ -5026,13 +8177,16 @@
       <c r="E119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B120" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C120" t="s">
         <v>25</v>
@@ -5043,13 +8197,16 @@
       <c r="E120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B121" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C121" t="s">
         <v>25</v>
@@ -5060,13 +8217,16 @@
       <c r="E121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B122" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C122" t="s">
         <v>25</v>
@@ -5077,13 +8237,16 @@
       <c r="E122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B123" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C123" t="s">
         <v>25</v>
@@ -5094,16 +8257,19 @@
       <c r="E123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B124" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C124" t="s">
-        <v>666</v>
+        <v>25</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -5111,8 +8277,11 @@
       <c r="E124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>676</v>
       </c>
@@ -5128,8 +8297,11 @@
       <c r="E125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>678</v>
       </c>
@@ -5145,16 +8317,19 @@
       <c r="E126">
         <v>1</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
       <c r="B127" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="C127" t="s">
-        <v>682</v>
+        <v>25</v>
       </c>
       <c r="D127" t="b">
         <v>0</v>
@@ -5162,16 +8337,19 @@
       <c r="E127">
         <v>1</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="B128" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="C128" t="s">
-        <v>700</v>
+        <v>25</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -5179,16 +8357,19 @@
       <c r="E128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>704</v>
+        <v>747</v>
       </c>
       <c r="B129" t="s">
-        <v>705</v>
+        <v>748</v>
       </c>
       <c r="C129" t="s">
-        <v>706</v>
+        <v>25</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -5196,13 +8377,16 @@
       <c r="E129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="B130" t="s">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="C130" t="s">
         <v>25</v>
@@ -5213,13 +8397,16 @@
       <c r="E130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>709</v>
+        <v>760</v>
       </c>
       <c r="B131" t="s">
-        <v>710</v>
+        <v>761</v>
       </c>
       <c r="C131" t="s">
         <v>25</v>
@@ -5230,33 +8417,39 @@
       <c r="E131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>711</v>
+        <v>771</v>
       </c>
       <c r="B132" t="s">
-        <v>712</v>
+        <v>772</v>
       </c>
       <c r="C132" t="s">
-        <v>713</v>
+        <v>25</v>
       </c>
       <c r="D132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>714</v>
+        <v>773</v>
       </c>
       <c r="B133" t="s">
-        <v>715</v>
+        <v>774</v>
       </c>
       <c r="C133" t="s">
-        <v>716</v>
+        <v>25</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -5264,16 +8457,19 @@
       <c r="E133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>717</v>
+        <v>775</v>
       </c>
       <c r="B134" t="s">
-        <v>718</v>
+        <v>776</v>
       </c>
       <c r="C134" t="s">
-        <v>719</v>
+        <v>25</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -5281,16 +8477,19 @@
       <c r="E134">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>723</v>
+        <v>819</v>
       </c>
       <c r="B135" t="s">
-        <v>724</v>
+        <v>820</v>
       </c>
       <c r="C135" t="s">
-        <v>725</v>
+        <v>25</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -5298,8 +8497,11 @@
       <c r="E135">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>726</v>
       </c>
@@ -5316,15 +8518,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>738</v>
+        <v>824</v>
       </c>
       <c r="B137" t="s">
-        <v>739</v>
+        <v>825</v>
       </c>
       <c r="C137" t="s">
-        <v>740</v>
+        <v>25</v>
       </c>
       <c r="D137" t="b">
         <v>0</v>
@@ -5332,13 +8534,16 @@
       <c r="E137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>747</v>
+        <v>826</v>
       </c>
       <c r="B138" t="s">
-        <v>748</v>
+        <v>827</v>
       </c>
       <c r="C138" t="s">
         <v>25</v>
@@ -5349,13 +8554,16 @@
       <c r="E138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>749</v>
+        <v>852</v>
       </c>
       <c r="B139" t="s">
-        <v>750</v>
+        <v>853</v>
       </c>
       <c r="C139" t="s">
         <v>25</v>
@@ -5366,13 +8574,16 @@
       <c r="E139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>760</v>
+        <v>854</v>
       </c>
       <c r="B140" t="s">
-        <v>761</v>
+        <v>855</v>
       </c>
       <c r="C140" t="s">
         <v>25</v>
@@ -5383,16 +8594,19 @@
       <c r="E140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F140" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>771</v>
+        <v>218</v>
       </c>
       <c r="B141" t="s">
-        <v>772</v>
+        <v>219</v>
       </c>
       <c r="C141" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D141" t="b">
         <v>0</v>
@@ -5400,16 +8614,19 @@
       <c r="E141">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F141" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>773</v>
+        <v>586</v>
       </c>
       <c r="B142" t="s">
-        <v>774</v>
+        <v>587</v>
       </c>
       <c r="C142" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D142" t="b">
         <v>0</v>
@@ -5417,16 +8634,19 @@
       <c r="E142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F142" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>775</v>
+        <v>588</v>
       </c>
       <c r="B143" t="s">
-        <v>776</v>
+        <v>587</v>
       </c>
       <c r="C143" t="s">
-        <v>25</v>
+        <v>220</v>
       </c>
       <c r="D143" t="b">
         <v>0</v>
@@ -5434,288 +8654,339 @@
       <c r="E143">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F143" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>698</v>
+      </c>
+      <c r="B144" t="s">
+        <v>699</v>
+      </c>
+      <c r="C144" t="s">
+        <v>700</v>
+      </c>
+      <c r="D144" t="b">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>1</v>
+      </c>
+      <c r="F144" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>555</v>
+      </c>
+      <c r="B145" t="s">
+        <v>556</v>
+      </c>
+      <c r="C145" t="s">
+        <v>557</v>
+      </c>
+      <c r="D145" t="b">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>1</v>
+      </c>
+      <c r="F145" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>795</v>
+      </c>
+      <c r="B146" t="s">
+        <v>796</v>
+      </c>
+      <c r="C146" t="s">
+        <v>797</v>
+      </c>
+      <c r="D146" t="b">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>1</v>
+      </c>
+      <c r="F146" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>530</v>
+      </c>
+      <c r="B147" t="s">
+        <v>531</v>
+      </c>
+      <c r="C147" t="s">
+        <v>532</v>
+      </c>
+      <c r="D147" t="b">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>1</v>
+      </c>
+      <c r="F147" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>637</v>
+      </c>
+      <c r="B148" t="s">
+        <v>638</v>
+      </c>
+      <c r="C148" t="s">
+        <v>639</v>
+      </c>
+      <c r="D148" t="b">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>1</v>
+      </c>
+      <c r="F148" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>643</v>
+      </c>
+      <c r="B149" t="s">
+        <v>644</v>
+      </c>
+      <c r="C149" t="s">
+        <v>645</v>
+      </c>
+      <c r="D149" t="b">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>801</v>
+      </c>
+      <c r="B150" t="s">
+        <v>802</v>
+      </c>
+      <c r="C150" t="s">
+        <v>803</v>
+      </c>
+      <c r="D150" t="b">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>1</v>
+      </c>
+      <c r="F150" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>777</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B151" t="s">
         <v>778</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C151" t="s">
         <v>779</v>
       </c>
-      <c r="D144" t="b">
-        <v>0</v>
-      </c>
-      <c r="E144">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>780</v>
-      </c>
-      <c r="B145" t="s">
-        <v>781</v>
-      </c>
-      <c r="C145" t="s">
-        <v>782</v>
-      </c>
-      <c r="D145" t="b">
-        <v>0</v>
-      </c>
-      <c r="E145">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>783</v>
-      </c>
-      <c r="B146" t="s">
-        <v>784</v>
-      </c>
-      <c r="C146" t="s">
-        <v>785</v>
-      </c>
-      <c r="D146" t="b">
-        <v>0</v>
-      </c>
-      <c r="E146">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>795</v>
-      </c>
-      <c r="B147" t="s">
-        <v>796</v>
-      </c>
-      <c r="C147" t="s">
-        <v>797</v>
-      </c>
-      <c r="D147" t="b">
-        <v>0</v>
-      </c>
-      <c r="E147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>798</v>
-      </c>
-      <c r="B148" t="s">
-        <v>799</v>
-      </c>
-      <c r="C148" t="s">
-        <v>800</v>
-      </c>
-      <c r="D148" t="b">
-        <v>0</v>
-      </c>
-      <c r="E148">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>801</v>
-      </c>
-      <c r="B149" t="s">
-        <v>802</v>
-      </c>
-      <c r="C149" t="s">
-        <v>803</v>
-      </c>
-      <c r="D149" t="b">
-        <v>0</v>
-      </c>
-      <c r="E149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+      <c r="D151" t="b">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>1</v>
+      </c>
+      <c r="F151" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>502</v>
+      </c>
+      <c r="B152" t="s">
+        <v>503</v>
+      </c>
+      <c r="C152" t="s">
+        <v>504</v>
+      </c>
+      <c r="D152" t="b">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>828</v>
+      </c>
+      <c r="B153" t="s">
+        <v>829</v>
+      </c>
+      <c r="C153" t="s">
+        <v>830</v>
+      </c>
+      <c r="D153" t="b">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>1</v>
+      </c>
+      <c r="F153" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>619</v>
+      </c>
+      <c r="B154" t="s">
+        <v>620</v>
+      </c>
+      <c r="C154" t="s">
+        <v>621</v>
+      </c>
+      <c r="D154" t="b">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>640</v>
+      </c>
+      <c r="B155" t="s">
+        <v>641</v>
+      </c>
+      <c r="C155" t="s">
+        <v>642</v>
+      </c>
+      <c r="D155" t="b">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>1</v>
+      </c>
+      <c r="F155" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>622</v>
+      </c>
+      <c r="B156" t="s">
+        <v>623</v>
+      </c>
+      <c r="C156" t="s">
+        <v>624</v>
+      </c>
+      <c r="D156" t="b">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>1</v>
+      </c>
+      <c r="F156" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>810</v>
+      </c>
+      <c r="B157" t="s">
+        <v>811</v>
+      </c>
+      <c r="C157" t="s">
+        <v>812</v>
+      </c>
+      <c r="D157" t="b">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+      <c r="F157" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>87</v>
+      </c>
+      <c r="B158" t="s">
+        <v>88</v>
+      </c>
+      <c r="C158" t="s">
+        <v>89</v>
+      </c>
+      <c r="D158" t="b">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>1</v>
+      </c>
+      <c r="F158" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>807</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B159" t="s">
         <v>808</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C159" t="s">
         <v>809</v>
       </c>
-      <c r="D150" t="b">
-        <v>0</v>
-      </c>
-      <c r="E150">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>810</v>
-      </c>
-      <c r="B151" t="s">
-        <v>811</v>
-      </c>
-      <c r="C151" t="s">
-        <v>812</v>
-      </c>
-      <c r="D151" t="b">
-        <v>0</v>
-      </c>
-      <c r="E151">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>813</v>
-      </c>
-      <c r="B152" t="s">
-        <v>814</v>
-      </c>
-      <c r="C152" t="s">
-        <v>815</v>
-      </c>
-      <c r="D152" t="b">
-        <v>1</v>
-      </c>
-      <c r="E152">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>819</v>
-      </c>
-      <c r="B153" t="s">
-        <v>820</v>
-      </c>
-      <c r="C153" t="s">
-        <v>25</v>
-      </c>
-      <c r="D153" t="b">
-        <v>0</v>
-      </c>
-      <c r="E153">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>824</v>
-      </c>
-      <c r="B154" t="s">
-        <v>825</v>
-      </c>
-      <c r="C154" t="s">
-        <v>25</v>
-      </c>
-      <c r="D154" t="b">
-        <v>0</v>
-      </c>
-      <c r="E154">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>826</v>
-      </c>
-      <c r="B155" t="s">
-        <v>827</v>
-      </c>
-      <c r="C155" t="s">
-        <v>25</v>
-      </c>
-      <c r="D155" t="b">
-        <v>0</v>
-      </c>
-      <c r="E155">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>828</v>
-      </c>
-      <c r="B156" t="s">
-        <v>829</v>
-      </c>
-      <c r="C156" t="s">
-        <v>830</v>
-      </c>
-      <c r="D156" t="b">
-        <v>0</v>
-      </c>
-      <c r="E156">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>831</v>
-      </c>
-      <c r="B157" t="s">
-        <v>832</v>
-      </c>
-      <c r="C157" t="s">
-        <v>833</v>
-      </c>
-      <c r="D157" t="b">
-        <v>0</v>
-      </c>
-      <c r="E157">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>843</v>
-      </c>
-      <c r="B158" t="s">
-        <v>844</v>
-      </c>
-      <c r="C158" t="s">
-        <v>845</v>
-      </c>
-      <c r="D158" t="b">
-        <v>0</v>
-      </c>
-      <c r="E158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>852</v>
-      </c>
-      <c r="B159" t="s">
-        <v>853</v>
-      </c>
-      <c r="C159" t="s">
-        <v>25</v>
-      </c>
       <c r="D159" t="b">
         <v>0</v>
       </c>
       <c r="E159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F159" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>854</v>
+        <v>680</v>
       </c>
       <c r="B160" t="s">
-        <v>855</v>
+        <v>681</v>
       </c>
       <c r="C160" t="s">
-        <v>25</v>
+        <v>682</v>
       </c>
       <c r="D160" t="b">
         <v>0</v>
@@ -5723,16 +8994,19 @@
       <c r="E160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F160" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>856</v>
+        <v>664</v>
       </c>
       <c r="B161" t="s">
-        <v>857</v>
+        <v>665</v>
       </c>
       <c r="C161" t="s">
-        <v>858</v>
+        <v>666</v>
       </c>
       <c r="D161" t="b">
         <v>0</v>
@@ -5740,16 +9014,19 @@
       <c r="E161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F161" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>859</v>
+        <v>723</v>
       </c>
       <c r="B162" t="s">
-        <v>860</v>
+        <v>724</v>
       </c>
       <c r="C162" t="s">
-        <v>861</v>
+        <v>725</v>
       </c>
       <c r="D162" t="b">
         <v>0</v>
@@ -5757,8 +9034,11 @@
       <c r="E162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F162" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>849</v>
       </c>
@@ -5774,8 +9054,11 @@
       <c r="E163">
         <v>0.9375</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F163" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>604</v>
       </c>
@@ -5786,13 +9069,16 @@
         <v>606</v>
       </c>
       <c r="D164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E164">
         <v>0.9285714285714286</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F164" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -5809,15 +9095,15 @@
         <v>0.92307692307692313</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>361</v>
+        <v>754</v>
       </c>
       <c r="B166" t="s">
-        <v>362</v>
+        <v>755</v>
       </c>
       <c r="C166" t="s">
-        <v>363</v>
+        <v>756</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -5825,16 +9111,19 @@
       <c r="E166">
         <v>0.92307692307692313</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F166" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>667</v>
+        <v>361</v>
       </c>
       <c r="B167" t="s">
-        <v>668</v>
+        <v>362</v>
       </c>
       <c r="C167" t="s">
-        <v>669</v>
+        <v>363</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -5842,16 +9131,19 @@
       <c r="E167">
         <v>0.92307692307692313</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F167" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>754</v>
+        <v>667</v>
       </c>
       <c r="B168" t="s">
-        <v>755</v>
+        <v>668</v>
       </c>
       <c r="C168" t="s">
-        <v>756</v>
+        <v>669</v>
       </c>
       <c r="D168" t="b">
         <v>0</v>
@@ -5859,8 +9151,11 @@
       <c r="E168">
         <v>0.92307692307692313</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F168" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -5877,7 +9172,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>543</v>
       </c>
@@ -5893,8 +9188,11 @@
       <c r="E170">
         <v>0.91666666666666663</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F170" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -5911,7 +9209,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>485</v>
       </c>
@@ -5928,15 +9226,15 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>583</v>
+        <v>837</v>
       </c>
       <c r="B173" t="s">
-        <v>584</v>
+        <v>838</v>
       </c>
       <c r="C173" t="s">
-        <v>585</v>
+        <v>839</v>
       </c>
       <c r="D173" t="b">
         <v>0</v>
@@ -5944,16 +9242,19 @@
       <c r="E173">
         <v>0.90909090909090906</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F173" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>837</v>
+        <v>583</v>
       </c>
       <c r="B174" t="s">
-        <v>838</v>
+        <v>584</v>
       </c>
       <c r="C174" t="s">
-        <v>839</v>
+        <v>585</v>
       </c>
       <c r="D174" t="b">
         <v>0</v>
@@ -5961,8 +9262,11 @@
       <c r="E174">
         <v>0.90909090909090906</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F174" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>167</v>
       </c>
@@ -5973,13 +9277,16 @@
         <v>169</v>
       </c>
       <c r="D175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E175">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F175" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>355</v>
       </c>
@@ -5996,7 +9303,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>527</v>
       </c>
@@ -6013,7 +9320,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>616</v>
       </c>
@@ -6030,7 +9337,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>164</v>
       </c>
@@ -6047,7 +9354,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>670</v>
       </c>
@@ -6058,13 +9365,16 @@
         <v>672</v>
       </c>
       <c r="D180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E180">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F180" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>239</v>
       </c>
@@ -6081,7 +9391,7 @@
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -6098,7 +9408,7 @@
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -6115,7 +9425,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>269</v>
       </c>
@@ -6132,7 +9442,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>284</v>
       </c>
@@ -6148,8 +9458,11 @@
       <c r="E185">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F185" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>762</v>
       </c>
@@ -6160,13 +9473,13 @@
         <v>764</v>
       </c>
       <c r="D186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186">
         <v>0.8</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>194</v>
       </c>
@@ -6183,7 +9496,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>308</v>
       </c>
@@ -6200,7 +9513,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>242</v>
       </c>
@@ -6217,7 +9530,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>765</v>
       </c>
@@ -6234,7 +9547,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>126</v>
       </c>
@@ -6251,7 +9564,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>158</v>
       </c>
@@ -6268,7 +9581,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>426</v>
       </c>
@@ -6284,8 +9597,11 @@
       <c r="E193">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F193" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>570</v>
       </c>
@@ -6301,8 +9617,11 @@
       <c r="E194">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F194" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>613</v>
       </c>
@@ -6318,8 +9637,11 @@
       <c r="E195">
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F195" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>418</v>
       </c>
@@ -6336,7 +9658,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>152</v>
       </c>
@@ -6353,15 +9675,15 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>329</v>
+        <v>751</v>
       </c>
       <c r="B198" t="s">
-        <v>330</v>
+        <v>752</v>
       </c>
       <c r="C198" t="s">
-        <v>331</v>
+        <v>753</v>
       </c>
       <c r="D198" t="b">
         <v>0</v>
@@ -6369,8 +9691,11 @@
       <c r="E198">
         <v>0.6428571428571429</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F198" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>589</v>
       </c>
@@ -6381,21 +9706,24 @@
         <v>591</v>
       </c>
       <c r="D199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199">
         <v>0.6428571428571429</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F199" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>751</v>
+        <v>329</v>
       </c>
       <c r="B200" t="s">
-        <v>752</v>
+        <v>330</v>
       </c>
       <c r="C200" t="s">
-        <v>753</v>
+        <v>331</v>
       </c>
       <c r="D200" t="b">
         <v>0</v>
@@ -6403,8 +9731,11 @@
       <c r="E200">
         <v>0.6428571428571429</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F200" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>275</v>
       </c>
@@ -6421,7 +9752,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>54</v>
       </c>
@@ -6438,7 +9769,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -6449,13 +9780,16 @@
         <v>202</v>
       </c>
       <c r="D203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E203">
         <v>0.61538461538461542</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F203" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>337</v>
       </c>
@@ -6472,7 +9806,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>415</v>
       </c>
@@ -6489,7 +9823,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>287</v>
       </c>
@@ -6500,13 +9834,16 @@
         <v>289</v>
       </c>
       <c r="D206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E206">
         <v>0.5625</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F206" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>302</v>
       </c>
@@ -6523,7 +9860,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>610</v>
       </c>
@@ -6534,13 +9871,13 @@
         <v>612</v>
       </c>
       <c r="D208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E208">
         <v>0.5</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>646</v>
       </c>
@@ -6556,8 +9893,11 @@
       <c r="E209">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F209" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>744</v>
       </c>
@@ -6574,7 +9914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>768</v>
       </c>
@@ -6585,13 +9925,13 @@
         <v>770</v>
       </c>
       <c r="D211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E211">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>537</v>
       </c>
@@ -6602,13 +9942,16 @@
         <v>539</v>
       </c>
       <c r="D212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E212">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F212" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>521</v>
       </c>
@@ -6625,7 +9968,7 @@
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>634</v>
       </c>
@@ -6641,8 +9984,11 @@
       <c r="E214">
         <v>0.38461538461538458</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F214" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -6653,13 +9999,16 @@
         <v>217</v>
       </c>
       <c r="D215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E215">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F215" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>227</v>
       </c>
@@ -6676,7 +10025,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>263</v>
       </c>
@@ -6693,7 +10042,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>482</v>
       </c>
@@ -6710,7 +10059,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>516</v>
       </c>
@@ -6727,7 +10076,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>592</v>
       </c>
@@ -6744,7 +10093,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>683</v>
       </c>
@@ -6761,7 +10110,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>403</v>
       </c>
@@ -6778,7 +10127,7 @@
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>732</v>
       </c>
@@ -6795,7 +10144,7 @@
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>595</v>
       </c>
@@ -6812,7 +10161,7 @@
         <v>0.30769230769230771</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>149</v>
       </c>
@@ -6829,7 +10178,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>221</v>
       </c>
@@ -6846,7 +10195,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>170</v>
       </c>
@@ -6863,7 +10212,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>42</v>
       </c>
@@ -6880,7 +10229,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -6897,7 +10246,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>176</v>
       </c>
@@ -6914,7 +10263,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -6931,7 +10280,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>326</v>
       </c>
@@ -6948,7 +10297,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>367</v>
       </c>
@@ -6965,7 +10314,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>429</v>
       </c>
@@ -6982,7 +10331,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>735</v>
       </c>
@@ -6999,7 +10348,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>305</v>
       </c>
@@ -7016,7 +10365,7 @@
         <v>0.23076923076923081</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>379</v>
       </c>
@@ -7033,7 +10382,7 @@
         <v>0.23076923076923081</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>257</v>
       </c>
@@ -7050,7 +10399,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>334</v>
       </c>
@@ -7067,7 +10416,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>346</v>
       </c>
@@ -7084,7 +10433,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>397</v>
       </c>
@@ -7101,7 +10450,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>488</v>
       </c>
@@ -7118,7 +10467,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>133</v>
       </c>
@@ -7135,7 +10484,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>209</v>
       </c>
@@ -7152,7 +10501,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -7169,7 +10518,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>314</v>
       </c>
@@ -7186,7 +10535,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>320</v>
       </c>
@@ -7203,7 +10552,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>343</v>
       </c>
@@ -7220,7 +10569,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>409</v>
       </c>
@@ -7237,7 +10586,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>491</v>
       </c>
@@ -7254,7 +10603,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>505</v>
       </c>
@@ -7271,7 +10620,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>540</v>
       </c>
@@ -7288,7 +10637,7 @@
         <v>0.1875</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>146</v>
       </c>
@@ -7305,7 +10654,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>245</v>
       </c>
@@ -7322,7 +10671,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>311</v>
       </c>
@@ -7339,7 +10688,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>394</v>
       </c>
@@ -7356,7 +10705,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>692</v>
       </c>
@@ -7367,13 +10716,16 @@
         <v>694</v>
       </c>
       <c r="D257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E257">
         <v>0.1818181818181818</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F257" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>789</v>
       </c>
@@ -7390,7 +10742,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -7407,7 +10759,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>48</v>
       </c>
@@ -7424,7 +10776,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>230</v>
       </c>
@@ -7441,7 +10793,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>233</v>
       </c>
@@ -7458,7 +10810,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>251</v>
       </c>
@@ -7475,7 +10827,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>290</v>
       </c>
@@ -7492,7 +10844,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>317</v>
       </c>
@@ -7509,7 +10861,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>364</v>
       </c>
@@ -7526,7 +10878,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>598</v>
       </c>
@@ -7543,7 +10895,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>607</v>
       </c>
@@ -7560,7 +10912,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>729</v>
       </c>
@@ -7577,7 +10929,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>14</v>
       </c>
@@ -7594,7 +10946,7 @@
         <v>0.15384615384615391</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>197</v>
       </c>
@@ -7611,7 +10963,7 @@
         <v>0.15384615384615391</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>834</v>
       </c>
@@ -7628,7 +10980,7 @@
         <v>0.15384615384615391</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -7645,7 +10997,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>45</v>
       </c>
@@ -7662,7 +11014,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>203</v>
       </c>
@@ -7679,7 +11031,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -7696,7 +11048,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>686</v>
       </c>
@@ -7707,13 +11059,16 @@
         <v>688</v>
       </c>
       <c r="D277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E277">
         <v>0.14285714285714279</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F277" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>689</v>
       </c>
@@ -7730,7 +11085,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>701</v>
       </c>
@@ -7747,7 +11102,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>51</v>
       </c>
@@ -7764,7 +11119,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>212</v>
       </c>
@@ -7781,7 +11136,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>388</v>
       </c>
@@ -7798,7 +11153,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>720</v>
       </c>
@@ -7809,13 +11164,16 @@
         <v>722</v>
       </c>
       <c r="D283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E283">
         <v>0.125</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F283" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>39</v>
       </c>
@@ -7832,7 +11190,7 @@
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>188</v>
       </c>
@@ -7849,7 +11207,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>236</v>
       </c>
@@ -7866,7 +11224,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>323</v>
       </c>
@@ -7883,7 +11241,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>370</v>
       </c>
@@ -7894,13 +11252,16 @@
         <v>372</v>
       </c>
       <c r="D288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E288">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F288" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>412</v>
       </c>
@@ -7917,7 +11278,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>423</v>
       </c>
@@ -7928,13 +11289,16 @@
         <v>425</v>
       </c>
       <c r="D290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E290">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F290" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>625</v>
       </c>
@@ -7951,7 +11315,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>741</v>
       </c>
@@ -7968,7 +11332,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>786</v>
       </c>
@@ -7985,7 +11349,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>821</v>
       </c>
@@ -8002,7 +11366,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>352</v>
       </c>
@@ -8019,24 +11383,27 @@
         <v>0.10526315789473679</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>299</v>
+        <v>661</v>
       </c>
       <c r="B296" t="s">
-        <v>300</v>
+        <v>662</v>
       </c>
       <c r="C296" t="s">
-        <v>301</v>
+        <v>663</v>
       </c>
       <c r="D296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E296">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F296" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>564</v>
       </c>
@@ -8047,30 +11414,36 @@
         <v>566</v>
       </c>
       <c r="D297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E297">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F297" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>661</v>
+        <v>299</v>
       </c>
       <c r="B298" t="s">
-        <v>662</v>
+        <v>300</v>
       </c>
       <c r="C298" t="s">
-        <v>663</v>
+        <v>301</v>
       </c>
       <c r="D298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E298">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F298" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>260</v>
       </c>
@@ -8087,7 +11460,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>161</v>
       </c>
@@ -8104,41 +11477,47 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="B301" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C301" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E301">
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F301" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="B302" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C302" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E302">
         <v>9.0909090909090912E-2</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F302" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>272</v>
       </c>
@@ -8155,7 +11534,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>36</v>
       </c>
@@ -8172,58 +11551,67 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>224</v>
+        <v>673</v>
       </c>
       <c r="B305" t="s">
-        <v>225</v>
+        <v>674</v>
       </c>
       <c r="C305" t="s">
-        <v>226</v>
+        <v>675</v>
       </c>
       <c r="D305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E305">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F305" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>349</v>
+        <v>224</v>
       </c>
       <c r="B306" t="s">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="C306" t="s">
-        <v>351</v>
+        <v>226</v>
       </c>
       <c r="D306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E306">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F306" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>673</v>
+        <v>349</v>
       </c>
       <c r="B307" t="s">
-        <v>674</v>
+        <v>350</v>
       </c>
       <c r="C307" t="s">
-        <v>675</v>
+        <v>351</v>
       </c>
       <c r="D307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E307">
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F307" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>695</v>
       </c>
@@ -8240,41 +11628,47 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B309" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="C309" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E309">
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F309" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B310" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C310" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E310">
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F310" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>804</v>
       </c>
@@ -8285,13 +11679,16 @@
         <v>806</v>
       </c>
       <c r="D311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E311">
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F311" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>840</v>
       </c>
@@ -8308,7 +11705,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>846</v>
       </c>
@@ -8325,7 +11722,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>293</v>
       </c>
@@ -8342,7 +11739,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>391</v>
       </c>
@@ -8359,7 +11756,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>340</v>
       </c>
@@ -8376,7 +11773,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>792</v>
       </c>
@@ -8393,7 +11790,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>266</v>
       </c>
@@ -8410,7 +11807,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>816</v>
       </c>
@@ -8427,7 +11824,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -8444,7 +11841,7 @@
         <v>5.8823529411764712E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>757</v>
       </c>
@@ -8461,7 +11858,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>155</v>
       </c>
@@ -8478,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>179</v>
       </c>
@@ -8495,7 +11892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>358</v>
       </c>
@@ -8513,9 +11910,209 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E324">
+  <autoFilter ref="A1:F324" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="FALSE"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Inconsistent value representation"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F311">
     <sortCondition descending="1" ref="E2:E324"/>
+    <sortCondition ref="C2:C324"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D55A398-1037-5740-9F55-79BCF1AB99FE}">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="B1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>864</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>863</v>
+      </c>
+      <c r="B3" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>865</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>866</v>
+      </c>
+      <c r="B5" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>867</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>862</v>
+      </c>
+      <c r="B7" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>870</v>
+      </c>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>871</v>
+      </c>
+      <c r="B9" s="5">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>873</v>
+      </c>
+      <c r="B16" t="s">
+        <v>874</v>
+      </c>
+      <c r="C16">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>866</v>
+      </c>
+      <c r="B17">
+        <v>123</v>
+      </c>
+      <c r="C17" s="6">
+        <f>B17/$C$16</f>
+        <v>1.2314777733279936E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>863</v>
+      </c>
+      <c r="B18">
+        <v>58</v>
+      </c>
+      <c r="C18" s="6">
+        <f t="shared" ref="C18:C23" si="0">B18/$C$16</f>
+        <v>5.8069683620344415E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>862</v>
+      </c>
+      <c r="B19">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6">
+        <f t="shared" si="0"/>
+        <v>8.0096115338406087E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>864</v>
+      </c>
+      <c r="B20">
+        <v>7</v>
+      </c>
+      <c r="C20" s="6">
+        <f t="shared" si="0"/>
+        <v>7.0084100921105326E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>867</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="6">
+        <f t="shared" si="0"/>
+        <v>2.0024028834601522E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>865</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" si="0"/>
+        <v>1.0012014417300761E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>871</v>
+      </c>
+      <c r="B23">
+        <v>199</v>
+      </c>
+      <c r="C23" s="6">
+        <f t="shared" si="0"/>
+        <v>1.9923908690428514E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:B23">
+    <sortCondition descending="1" ref="B16:B23"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Part_2_data/false_match_on_title.xlsx
+++ b/Part_2_data/false_match_on_title.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/poppyriddle/Documents/Github/Research_proposal/Part_2_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBF37E0-7370-1440-B039-51FD9DA27FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D441C5B-7F5D-4E44-BBCC-2D71B0058903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34180" yWindow="1100" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34180" yWindow="1100" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="analysis" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$324</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId3"/>
+    <pivotCache cacheId="33" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1193" uniqueCount="875">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1223" uniqueCount="881">
   <si>
     <t>DOI</t>
   </si>
@@ -2678,10 +2678,28 @@
     <t>Count of error_classification</t>
   </si>
   <si>
-    <t>Error or noise classification</t>
-  </si>
-  <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>Information gain</t>
+  </si>
+  <si>
+    <t>information gain</t>
+  </si>
+  <si>
+    <t>information loss</t>
+  </si>
+  <si>
+    <t>total full set</t>
+  </si>
+  <si>
+    <t>Error and noise classification</t>
+  </si>
+  <si>
+    <t>Percentage of non-matching</t>
+  </si>
+  <si>
+    <t>Percentage of whole set</t>
   </si>
 </sst>
 </file>
@@ -2760,26 +2778,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -2793,7 +2830,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Poppy Riddle" refreshedDate="45989.50280115741" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="324" xr:uid="{BE8D97D8-8858-4E4F-B159-AD67E1A7AF2D}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Poppy Riddle" refreshedDate="45990.621988078703" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="324" xr:uid="{BE8D97D8-8858-4E4F-B159-AD67E1A7AF2D}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:F1048576" sheet="Sheet1"/>
   </cacheSource>
@@ -2814,12 +2851,13 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0" maxValue="1"/>
     </cacheField>
     <cacheField name="error_classification" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+      <sharedItems containsBlank="1" count="8">
         <s v="Inconsistent value representation"/>
-        <s v="semantic noise"/>
+        <s v="Information gain"/>
         <s v="Information loss"/>
         <m/>
         <s v="Missing information"/>
+        <s v="semantic noise"/>
         <s v="incorrect value"/>
         <s v="datatype noise"/>
       </sharedItems>
@@ -4305,7 +4343,7 @@
     <s v="1949, Commission on Human RightsDraft International Covenant on Human Rights: Fifth session"/>
     <b v="0"/>
     <n v="0.8"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="10.4103/ijohs.ijohs_8_21"/>
@@ -4313,7 +4351,7 @@
     <s v="Laser versus surgical: Different treatment modalities of mucocele: A case series"/>
     <b v="1"/>
     <n v="0.8"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1039/d5mh00046g"/>
@@ -4369,7 +4407,7 @@
     <s v="Ecospirituality and the Moralization of Nature"/>
     <b v="0"/>
     <n v="0.66666666666666663"/>
-    <x v="5"/>
+    <x v="6"/>
   </r>
   <r>
     <s v="10.18795/gumusmaviatlas.681798"/>
@@ -4425,7 +4463,7 @@
     <s v="Observation of double &amp;lt;math display=&amp;quot;inline&amp;quot;&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;mi&amp;gt;J&amp;lt;/mi&amp;gt;&amp;lt;/mrow&amp;gt;&amp;lt;mo&amp;gt;/&amp;lt;/mo&amp;gt;&amp;lt;mi&amp;gt;ψ&amp;lt;/mi&amp;gt;&amp;lt;/math&amp;gt; meson production in &amp;lt;math display=&amp;quot;inline&amp;quot;&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;mi&amp;gt;p&amp;lt;/mi&amp;gt;&amp;lt;mi&amp;gt;Pb&amp;lt;/mi&amp;gt;&amp;lt;/mrow&amp;gt;&amp;lt;/math&amp;gt; collisions at &amp;lt;math display=&amp;quot;inline&amp;quot;&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;msqrt&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;msub&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;mi&amp;gt;s&amp;lt;/mi&amp;gt;&amp;lt;/mrow&amp;gt;&amp;lt;mrow&amp;gt;&amp;lt;mi&amp;gt;NN&amp;lt;/mi&amp;gt;&amp;lt;/…"/>
     <b v="0"/>
     <n v="0.6428571428571429"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="10.1093/jge/gxaf022"/>
@@ -4473,7 +4511,7 @@
     <s v="Part V New Financial Technology in Financial Markets and Infrastructure, 14 Fintech and Financial Markets Infrastructure—A Legal and Regulatory Perspective"/>
     <b v="0"/>
     <n v="0.5625"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="10.1093/molbev/msae108"/>
@@ -4487,9 +4525,9 @@
     <s v="10.22199/issn.0717-6279-6048"/>
     <s v="Higher order mKdV breathers"/>
     <s v="Higher order mKdV breathers: nonlinear stability"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.5"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.31260/repertmedcir.01217372.1235"/>
@@ -4497,7 +4535,7 @@
     <s v="Tratamiento endoscópico del Tratamiento endoscópico del divertículo de Zenker divertículo de Zenker"/>
     <b v="0"/>
     <n v="0.5"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="10.3847/2515-5172/ad7113"/>
@@ -4511,9 +4549,9 @@
     <s v="10.4103/srmjrds.srmjrds_46_22"/>
     <s v="Effects of platelet-rich fibrin in the surgical extraction of mandibular third molar"/>
     <s v="Effects of platelet-rich fibrin in the surgical extraction of mandibular third molar: A systematic review and meta-analysis"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.41666666666666669"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.15575/psy.v9i1.7571"/>
@@ -4537,7 +4575,7 @@
     <s v="Sürdürülebilirliğin Satın Alma Niyeti Üzerine Web of Science Veri Tabanı Aracılığıyla Bibliyometrik Bir Analiz"/>
     <b v="0"/>
     <n v="0.38461538461538458"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="10.1075/pbns.313.12luo"/>
@@ -4545,7 +4583,7 @@
     <s v="Chapter 12. Modified self-praise in social media"/>
     <b v="0"/>
     <n v="0.33333333333333331"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="10.1093/bioinformatics/btae516"/>
@@ -4567,9 +4605,9 @@
     <s v="10.1209/0295-5075/ada8d5"/>
     <s v="On the equation of motion in supersymmetric Yang-Mills plasma"/>
     <s v="On the equation of motion in N = 4 supersymmetric Yang-Mills plasma"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.33333333333333331"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1364/ol.551558"/>
@@ -4583,9 +4621,9 @@
     <s v="10.2174/0929866529666220905112156"/>
     <s v="Amplification of Amyloid Protein-induced Aggregation of the Eukaryotic_x000a_Ribosome"/>
     <s v="Amplification of Amyloid Protein-induced Aggregation of the Eukaryotic Ribosome"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.33333333333333331"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.33735/phimisci.2020.i.48"/>
@@ -4615,9 +4653,9 @@
     <s v="10.2174/0929867328666211214165814"/>
     <s v="A Novel Approach for Designing Electrochemical Aptamer-Based_x000a_Biosensor for Ultrasensitive Detection of Zearalenone as a Prevalent_x000a_Estrogenic Mycotoxin"/>
     <s v="A Novel Approach for Designing Electrochemical Aptamer-Based Biosensor for Ultrasensitive Detection of Zearalenone as a Prevalent Estrogenic Mycotoxin"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.30769230769230771"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1039/d2sc06436g"/>
@@ -4663,9 +4701,9 @@
     <s v="10.1039/d4sc06441k"/>
     <s v="Reassessing the role and lifetime of Q&lt;sub&gt;x&lt;/sub&gt; in the energy transfer dynamics of chlorophyll a"/>
     <s v="Reassessing the role and lifetime of Qx in the energy transfer dynamics of Chlorophyll a"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.25"/>
-    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="10.1093/humrep/dead093.277"/>
@@ -4703,9 +4741,9 @@
     <s v="10.37741/t.71.4.2"/>
     <s v="Destination Choice,_x000a_Satisfaction, and Loyalty of Ski Tourists in the Indian Himalayas"/>
     <s v="Destination Choice, Satisfaction, and Loyalty of Ski Tourists in the Indian Himalayas"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.25"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1093/nop/npae008"/>
@@ -4831,17 +4869,17 @@
     <s v="10.1364/oe.541425"/>
     <s v="SNSPD-based detector system for NASA’s Deep Space Optical Communications project"/>
     <s v="An SNSPD-based detector system for NASA's Deep Space Optical Communications project"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.2"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1558/bar.18313"/>
     <s v="&amp;lt;i&amp;gt;Social Skins of the Head: Body Beliefs and Ritual in Ancient Mesoamerica and the Andes&amp;lt;/i&amp;gt; Edited by V. Tiesler and M. C. Lozada (2018)"/>
     <s v="Social Skins of the Head: Body Beliefs and Ritual in Ancient Mesoamerica and the Andes edited by V. Tiesler and M. C. Lozada (2018)"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.1875"/>
-    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="10.1039/d2en00837h"/>
@@ -4887,9 +4925,9 @@
     <s v="10.51220/jmr.v18i1.6"/>
     <s v="Repositioning Urban Agenda For Sustainable Development Goals In Jammu And_x000a_Kashmir"/>
     <s v="Repositioning Urban Agenda For Sustainable Development Goals In Jammu And Kashmir"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.1818181818181818"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1002/chem.202402809"/>
@@ -4959,25 +4997,25 @@
     <s v="10.2174/1567202620666230303144323"/>
     <s v="Curcumin Alleviates Oxidative Stress, Neuroinflammation, and Promotes_x000a_Behavioral Recovery After Traumatic Brain Injury"/>
     <s v="Curcumin Alleviates Oxidative Stress, Neuroinflammation, and Promotes Behavioral Recovery After Traumatic Brain Injury"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.16666666666666671"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.21931/bj/2024.01.01.75"/>
     <s v="Evaluation of DNA damage through cytogenetic approach in smokers and vapers with and without_x000a_nicotine compared with control group"/>
     <s v="Evaluation of DNA damage through cytogenetic approach in smokers and vapers with and without nicotine compared with control group"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.16666666666666671"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.36937/ben.2024.4951"/>
     <s v="Development and Performance Evaluation of Push Type Manually Operated Hilling_x000a_Corn with Double Wheel Hoe"/>
     <s v="Development and Performance Evaluation of Push Type Manually Operated Hilling Corn with Double Wheel Hoe"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.16666666666666671"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1002/cbdv.202402361"/>
@@ -4999,9 +5037,9 @@
     <s v="10.5604/01.3001.0013.8156"/>
     <s v="SOLUTIONS ENSURING SAFETY DURING TRANSPORT_x000a_OF STATE VIPS BY MILITARY AIRFCRAFT (part 2)"/>
     <s v="SOLUTIONS ENSURING SAFETY DURING TRANSPORT OF STATE VIPS BY MILITARY AIRFCRAFT (part 2)"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.15384615384615391"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1002/ange.202424183"/>
@@ -5041,7 +5079,7 @@
     <s v="ЭФФЕКТИВНОСТЬ ПРИМЕНЕНИЯ КОРМОВОЙ ДОБАВКИ &quot;БЕТАКОРМ&quot; ПРИ КОКЦИДИОЗЕ ЦЫПЛЯТ-БРОЙЛЕРОВ Ильин Г.М., Рябцев П.С., Комарчев А.С."/>
     <b v="0"/>
     <n v="0.14285714285714279"/>
-    <x v="1"/>
+    <x v="5"/>
   </r>
   <r>
     <s v="10.3389/fnut.2025.1551349"/>
@@ -5055,9 +5093,9 @@
     <s v="10.34091/ajss.13.2.04"/>
     <s v="The Effect of Explicit Knowledge Sharing on Human Resource Performance_x000a_Efficiency: Moderating Role of Human Capacity Development"/>
     <s v="The Effect of Explicit Knowledge Sharing on Human Resource Performance Efficiency: Moderating Role of Human Capacity Development"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.14285714285714279"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1002/nbm.5134"/>
@@ -5089,7 +5127,7 @@
     <s v="The Fourth Most Utility: - Compressed Air Engine"/>
     <b v="0"/>
     <n v="0.125"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="10.1002/jbm.a.37614"/>
@@ -5103,9 +5141,9 @@
     <s v="10.1039/d5ay00460h"/>
     <s v="A BODIPY-based fluorescent probe for rapid detection of NO in cells and zebrafish"/>
     <s v="BODIPY-based fluorescent probe for rapid detection of NO in cells and zebrafish"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.1111111111111111"/>
-    <x v="3"/>
+    <x v="2"/>
   </r>
   <r>
     <s v="10.1093/bjs/znab430.230"/>
@@ -5129,7 +5167,7 @@
     <s v="Simulation Analysis &amp;amp; Image Processing of the Exhaust Silencing Chamber and Coil"/>
     <b v="0"/>
     <n v="0.1111111111111111"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="10.1158/1055-9965.epi-24-1398"/>
@@ -5145,15 +5183,15 @@
     <s v="Toxicologic Pathology Forum*: mRNA Vaccine Safety–Separating Fact From Fiction"/>
     <b v="0"/>
     <n v="0.1111111111111111"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="10.26656/fr.2017.5(6).125"/>
     <s v="Electronic nose to differentiate between several drying techniques for_x000a_Origanum syriacum leaves"/>
     <s v="Electronic nose to differentiate between several drying techniques for Origanum syriacum leaves"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.1111111111111111"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.3828/index.2024.26"/>
@@ -5167,17 +5205,17 @@
     <s v="10.47836/mjms.17.3.05"/>
     <s v="Variable-order Implicit Fractional Differential Equations based on the_x000a_Kuratowski MNC Technique"/>
     <s v="Variable-order Implicit Fractional Differential Equations based on the Kuratowski MNC Technique"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.1111111111111111"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.55529/jcfmbs.35.6.16"/>
     <s v="Assets Investment and Financial Performance of_x000a_Deposit Money Banks in Nigeria (2016-2021)"/>
     <s v="Assets Investment and Financial Performance of Deposit Money Banks in Nigeria (2016-2021)"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0.1111111111111111"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1111/neup.12938"/>
@@ -5201,7 +5239,7 @@
     <s v="Instrumental Non-Invasive Diagnostics of the Depth of Skin Burn:&amp;#x0D; Current Opportunities and Unsolved Problems"/>
     <b v="0"/>
     <n v="0.1"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="10.1093/mnras/staf007"/>
@@ -5209,7 +5247,7 @@
     <s v="The XMM Cluster Survey: Automating the estimation of hydrostatic mass for large samples of galaxy clusters – I. Methodology, validation, &amp;amp; application to the SDSSRM-XCS sample"/>
     <b v="0"/>
     <n v="0.1"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="10.1093/humrep/deae108.1004"/>
@@ -5313,15 +5351,15 @@
     <s v="Reconstruction of global surface ocean &amp;amp;lt;i&amp;amp;gt;p&amp;amp;lt;/i&amp;amp;gt;CO&amp;amp;lt;sub&amp;amp;gt;2&amp;amp;lt;/sub&amp;amp;gt; using region-specific predictors based on a stepwise FFNN regression algorithm"/>
     <b v="0"/>
     <n v="7.6923076923076927E-2"/>
-    <x v="6"/>
+    <x v="7"/>
   </r>
   <r>
     <s v="10.58818/ijems.v3i3.146"/>
     <s v="Effect of Emotional Maturity on Student Discipline in Participating in Activities at the College of Qur'an Sciences (STIQ) Amuntai"/>
     <s v="The Effect of Emotional Maturity on Student Discipline in Participating in Activities at the College of Qur'an Sciences (STIQ) Amuntai"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="7.6923076923076927E-2"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.61218/hadith.1541223"/>
@@ -5359,9 +5397,9 @@
     <s v="10.51220/jmr.v19-i2.10"/>
     <s v="A Comprehensive Review on Actinomycetes Distribution, Novel Bioactive Compounds_x000a_and Their Implementation in The Field of Agronomy And Medical"/>
     <s v="A Comprehensive Review on Actinomycetes Distribution, Novel Bioactive Compounds and Their Implementation in The Field of Agronomy And Medical"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="6.6666666666666666E-2"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1093/jambio/lxaf002"/>
@@ -5375,9 +5413,9 @@
     <s v="10.54151/27382559-2021.1b-292"/>
     <s v="ОБ ОДНОЙ ИЗ ПРИЧИН ТРУДНОСТЕЙ УСВОЕНИЯ ОМОНИМИИ ПРИ ОБУЧЕНИИ РУССКОМУ ЯЗЫКУ КАК НЕРОДНОМУ / ON ONE OF THE REASONS FOR THE DIFFICULTIES IN MASTERING_x000a_HOMONYMY WHILE TEACHING RUSSIAN AS A FOREIGN LANGUAGE"/>
     <s v="ОБ ОДНОЙ ИЗ ПРИЧИН ТРУДНОСТЕЙ УСВОЕНИЯ ОМОНИМИИ ПРИ ОБУЧЕНИИ РУССКОМУ ЯЗЫКУ КАК НЕРОДНОМУ / ON ONE OF THE REASONS FOR THE DIFFICULTIES IN MASTERING HOMONYMY WHILE TEACHING RUSSIAN AS A FOREIGN LANGUAGE"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="6.25E-2"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="10.1002/ange.202414652"/>
@@ -5415,9 +5453,9 @@
     <s v="10.1115/1.4067013"/>
     <s v="Rolling Formability Optimization of Locking Bolt Based on a Double-Thread Structure Composed of Coaxial Single and Multiple Threads"/>
     <s v="Rolling Formability Optimization of Locking Bolt Based on Double-Thread Structure Composed of Coaxial Single and Multiple Threads"/>
-    <b v="1"/>
+    <b v="0"/>
     <n v="0"/>
-    <x v="3"/>
+    <x v="1"/>
   </r>
   <r>
     <m/>
@@ -5431,8 +5469,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E3D8D78-8A13-1842-B1AE-ABB0BEB4CB29}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6E3D8D78-8A13-1842-B1AE-ABB0BEB4CB29}" name="PivotTable2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A1:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="6">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -5440,14 +5478,15 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
+      <items count="9">
+        <item x="7"/>
+        <item x="0"/>
         <item x="6"/>
-        <item x="0"/>
-        <item x="5"/>
         <item x="2"/>
         <item x="4"/>
+        <item x="5"/>
+        <item x="3"/>
         <item x="1"/>
-        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5455,7 +5494,7 @@
   <rowFields count="1">
     <field x="5"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="9">
     <i>
       <x/>
     </i>
@@ -5477,6 +5516,9 @@
     <i>
       <x v="6"/>
     </i>
+    <i>
+      <x v="7"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -5487,6 +5529,11 @@
   <dataFields count="1">
     <dataField name="Count of error_classification" fld="5" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
+  <formats count="1">
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -5784,11 +5831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F324"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F307"/>
+    <sheetView topLeftCell="B296" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C329" sqref="C329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5841,7 +5887,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>524</v>
       </c>
@@ -5858,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>862</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -6141,7 +6187,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>577</v>
       </c>
@@ -6381,7 +6427,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -6401,7 +6447,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -6421,7 +6467,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>28</v>
       </c>
@@ -6441,7 +6487,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -6461,7 +6507,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -6481,7 +6527,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -6501,7 +6547,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -6521,7 +6567,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>59</v>
       </c>
@@ -6541,7 +6587,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -6561,7 +6607,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>63</v>
       </c>
@@ -6581,7 +6627,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -6601,7 +6647,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>67</v>
       </c>
@@ -6621,7 +6667,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>69</v>
       </c>
@@ -6641,7 +6687,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>71</v>
       </c>
@@ -6661,7 +6707,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>73</v>
       </c>
@@ -6681,7 +6727,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>75</v>
       </c>
@@ -6701,7 +6747,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>77</v>
       </c>
@@ -6721,7 +6767,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -6741,7 +6787,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -6761,7 +6807,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>83</v>
       </c>
@@ -6781,7 +6827,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -6801,7 +6847,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -6821,7 +6867,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
@@ -6841,7 +6887,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>97</v>
       </c>
@@ -6861,7 +6907,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>99</v>
       </c>
@@ -6881,7 +6927,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -6901,7 +6947,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>103</v>
       </c>
@@ -6921,7 +6967,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>105</v>
       </c>
@@ -6941,7 +6987,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>107</v>
       </c>
@@ -6961,7 +7007,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>109</v>
       </c>
@@ -6981,7 +7027,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>111</v>
       </c>
@@ -7001,7 +7047,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>113</v>
       </c>
@@ -7021,7 +7067,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -7041,7 +7087,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -7061,7 +7107,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -7081,7 +7127,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -7101,7 +7147,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -7121,7 +7167,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>131</v>
       </c>
@@ -7141,7 +7187,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>136</v>
       </c>
@@ -7161,7 +7207,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>138</v>
       </c>
@@ -7181,7 +7227,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>140</v>
       </c>
@@ -7201,7 +7247,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>142</v>
       </c>
@@ -7221,7 +7267,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>144</v>
       </c>
@@ -7241,7 +7287,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>278</v>
       </c>
@@ -7261,7 +7307,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>280</v>
       </c>
@@ -7281,7 +7327,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>282</v>
       </c>
@@ -7301,7 +7347,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>332</v>
       </c>
@@ -7321,7 +7367,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>382</v>
       </c>
@@ -7341,7 +7387,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>384</v>
       </c>
@@ -7361,7 +7407,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>386</v>
       </c>
@@ -7381,7 +7427,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="80" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>421</v>
       </c>
@@ -7401,7 +7447,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>432</v>
       </c>
@@ -7421,7 +7467,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>434</v>
       </c>
@@ -7441,7 +7487,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>436</v>
       </c>
@@ -7461,7 +7507,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>438</v>
       </c>
@@ -7481,7 +7527,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>440</v>
       </c>
@@ -7501,7 +7547,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>442</v>
       </c>
@@ -7521,7 +7567,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>444</v>
       </c>
@@ -7541,7 +7587,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>446</v>
       </c>
@@ -7561,7 +7607,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>448</v>
       </c>
@@ -7581,7 +7627,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>450</v>
       </c>
@@ -7601,7 +7647,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>452</v>
       </c>
@@ -7621,7 +7667,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>454</v>
       </c>
@@ -7641,7 +7687,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>456</v>
       </c>
@@ -7661,7 +7707,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>458</v>
       </c>
@@ -7681,7 +7727,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>460</v>
       </c>
@@ -7701,7 +7747,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>462</v>
       </c>
@@ -7721,7 +7767,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>464</v>
       </c>
@@ -7741,7 +7787,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>466</v>
       </c>
@@ -7761,7 +7807,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>468</v>
       </c>
@@ -7781,7 +7827,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>470</v>
       </c>
@@ -7801,7 +7847,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>472</v>
       </c>
@@ -7821,7 +7867,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>474</v>
       </c>
@@ -7841,7 +7887,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>476</v>
       </c>
@@ -7861,7 +7907,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>478</v>
       </c>
@@ -7881,7 +7927,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>480</v>
       </c>
@@ -7901,7 +7947,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>494</v>
       </c>
@@ -7921,7 +7967,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>496</v>
       </c>
@@ -7941,7 +7987,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>498</v>
       </c>
@@ -7961,7 +8007,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>500</v>
       </c>
@@ -7981,7 +8027,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>508</v>
       </c>
@@ -8001,7 +8047,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>510</v>
       </c>
@@ -8021,7 +8067,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>512</v>
       </c>
@@ -8041,7 +8087,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>514</v>
       </c>
@@ -8061,7 +8107,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>519</v>
       </c>
@@ -8081,7 +8127,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>533</v>
       </c>
@@ -8101,7 +8147,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>535</v>
       </c>
@@ -8121,7 +8167,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>573</v>
       </c>
@@ -8141,7 +8187,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>575</v>
       </c>
@@ -8161,7 +8207,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>649</v>
       </c>
@@ -8181,7 +8227,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>651</v>
       </c>
@@ -8201,7 +8247,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>653</v>
       </c>
@@ -8221,7 +8267,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>655</v>
       </c>
@@ -8241,7 +8287,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>657</v>
       </c>
@@ -8261,7 +8307,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>659</v>
       </c>
@@ -8281,7 +8327,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>676</v>
       </c>
@@ -8301,7 +8347,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>678</v>
       </c>
@@ -8321,7 +8367,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>707</v>
       </c>
@@ -8341,7 +8387,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>709</v>
       </c>
@@ -8361,7 +8407,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>747</v>
       </c>
@@ -8381,7 +8427,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>749</v>
       </c>
@@ -8401,7 +8447,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>760</v>
       </c>
@@ -8421,7 +8467,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>771</v>
       </c>
@@ -8441,7 +8487,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>773</v>
       </c>
@@ -8461,7 +8507,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>775</v>
       </c>
@@ -8481,7 +8527,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>819</v>
       </c>
@@ -8501,7 +8547,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>726</v>
       </c>
@@ -8518,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>824</v>
       </c>
@@ -8538,7 +8584,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>826</v>
       </c>
@@ -8558,7 +8604,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>852</v>
       </c>
@@ -8578,7 +8624,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>854</v>
       </c>
@@ -8598,7 +8644,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>218</v>
       </c>
@@ -8618,7 +8664,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>586</v>
       </c>
@@ -8638,7 +8684,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>588</v>
       </c>
@@ -8818,7 +8864,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>502</v>
       </c>
@@ -9078,7 +9124,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>173</v>
       </c>
@@ -9155,7 +9201,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -9192,7 +9238,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>191</v>
       </c>
@@ -9209,7 +9255,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>485</v>
       </c>
@@ -9266,7 +9312,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>167</v>
       </c>
@@ -9286,7 +9332,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="176" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>355</v>
       </c>
@@ -9303,7 +9349,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="177" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>527</v>
       </c>
@@ -9320,7 +9366,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="178" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>616</v>
       </c>
@@ -9337,7 +9383,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="179" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>164</v>
       </c>
@@ -9374,7 +9420,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="181" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>239</v>
       </c>
@@ -9391,7 +9437,7 @@
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="182" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>373</v>
       </c>
@@ -9408,7 +9454,7 @@
         <v>0.84615384615384615</v>
       </c>
     </row>
-    <row r="183" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -9425,7 +9471,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="184" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>269</v>
       </c>
@@ -9442,7 +9488,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="185" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>284</v>
       </c>
@@ -9462,7 +9508,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="186" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>762</v>
       </c>
@@ -9478,8 +9524,11 @@
       <c r="E186">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F186" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>194</v>
       </c>
@@ -9496,7 +9545,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="188" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>308</v>
       </c>
@@ -9513,7 +9562,7 @@
         <v>0.77777777777777779</v>
       </c>
     </row>
-    <row r="189" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>242</v>
       </c>
@@ -9530,7 +9579,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="190" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>765</v>
       </c>
@@ -9547,7 +9596,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="191" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>126</v>
       </c>
@@ -9564,7 +9613,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="192" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>158</v>
       </c>
@@ -9581,7 +9630,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="193" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>426</v>
       </c>
@@ -9641,7 +9690,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="196" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>418</v>
       </c>
@@ -9658,7 +9707,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="197" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>152</v>
       </c>
@@ -9695,7 +9744,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="199" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>589</v>
       </c>
@@ -9715,7 +9764,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="200" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>329</v>
       </c>
@@ -9735,7 +9784,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="201" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>275</v>
       </c>
@@ -9752,7 +9801,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="202" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>54</v>
       </c>
@@ -9769,7 +9818,7 @@
         <v>0.61538461538461542</v>
       </c>
     </row>
-    <row r="203" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>200</v>
       </c>
@@ -9786,10 +9835,10 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="F203" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>337</v>
       </c>
@@ -9806,7 +9855,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>415</v>
       </c>
@@ -9823,7 +9872,7 @@
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>287</v>
       </c>
@@ -9843,7 +9892,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>302</v>
       </c>
@@ -9860,7 +9909,7 @@
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>610</v>
       </c>
@@ -9871,13 +9920,16 @@
         <v>612</v>
       </c>
       <c r="D208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E208">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F208" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>646</v>
       </c>
@@ -9897,7 +9949,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>744</v>
       </c>
@@ -9914,7 +9966,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="211" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>768</v>
       </c>
@@ -9925,13 +9977,16 @@
         <v>770</v>
       </c>
       <c r="D211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F211" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>537</v>
       </c>
@@ -9951,7 +10006,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>521</v>
       </c>
@@ -9968,7 +10023,7 @@
         <v>0.3888888888888889</v>
       </c>
     </row>
-    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>634</v>
       </c>
@@ -9988,7 +10043,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="215" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>215</v>
       </c>
@@ -10008,7 +10063,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="216" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>227</v>
       </c>
@@ -10025,7 +10080,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="217" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>263</v>
       </c>
@@ -10042,7 +10097,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>482</v>
       </c>
@@ -10053,13 +10108,16 @@
         <v>484</v>
       </c>
       <c r="D218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E218">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F218" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>516</v>
       </c>
@@ -10076,7 +10134,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="220" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>592</v>
       </c>
@@ -10087,13 +10145,16 @@
         <v>594</v>
       </c>
       <c r="D220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F220" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>683</v>
       </c>
@@ -10110,7 +10171,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="222" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>403</v>
       </c>
@@ -10127,7 +10188,7 @@
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>732</v>
       </c>
@@ -10144,7 +10205,7 @@
         <v>0.31578947368421051</v>
       </c>
     </row>
-    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>595</v>
       </c>
@@ -10155,13 +10216,16 @@
         <v>597</v>
       </c>
       <c r="D224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E224">
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F224" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>149</v>
       </c>
@@ -10178,7 +10242,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>221</v>
       </c>
@@ -10195,7 +10259,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>170</v>
       </c>
@@ -10212,7 +10276,7 @@
         <v>0.27272727272727271</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>42</v>
       </c>
@@ -10229,7 +10293,7 @@
         <v>0.26315789473684209</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>11</v>
       </c>
@@ -10246,7 +10310,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>176</v>
       </c>
@@ -10257,13 +10321,16 @@
         <v>178</v>
       </c>
       <c r="D230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E230">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F230" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>254</v>
       </c>
@@ -10280,7 +10347,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>326</v>
       </c>
@@ -10297,7 +10364,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>367</v>
       </c>
@@ -10314,7 +10381,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>429</v>
       </c>
@@ -10331,7 +10398,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>735</v>
       </c>
@@ -10342,13 +10409,16 @@
         <v>737</v>
       </c>
       <c r="D235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E235">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F235" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>305</v>
       </c>
@@ -10365,7 +10435,7 @@
         <v>0.23076923076923081</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>379</v>
       </c>
@@ -10382,7 +10452,7 @@
         <v>0.23076923076923081</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>257</v>
       </c>
@@ -10399,7 +10469,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>334</v>
       </c>
@@ -10416,7 +10486,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>346</v>
       </c>
@@ -10433,7 +10503,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>397</v>
       </c>
@@ -10450,7 +10520,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>488</v>
       </c>
@@ -10467,7 +10537,7 @@
         <v>0.22222222222222221</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>133</v>
       </c>
@@ -10484,7 +10554,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>209</v>
       </c>
@@ -10501,7 +10571,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>248</v>
       </c>
@@ -10518,7 +10588,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>314</v>
       </c>
@@ -10535,7 +10605,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>320</v>
       </c>
@@ -10552,7 +10622,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>343</v>
       </c>
@@ -10569,7 +10639,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>409</v>
       </c>
@@ -10586,7 +10656,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>491</v>
       </c>
@@ -10603,7 +10673,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>505</v>
       </c>
@@ -10614,13 +10684,16 @@
         <v>507</v>
       </c>
       <c r="D251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E251">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F251" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>540</v>
       </c>
@@ -10631,13 +10704,16 @@
         <v>542</v>
       </c>
       <c r="D252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E252">
         <v>0.1875</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F252" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>146</v>
       </c>
@@ -10654,7 +10730,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>245</v>
       </c>
@@ -10671,7 +10747,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>311</v>
       </c>
@@ -10688,7 +10764,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>394</v>
       </c>
@@ -10705,7 +10781,7 @@
         <v>0.1818181818181818</v>
       </c>
     </row>
-    <row r="257" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>692</v>
       </c>
@@ -10725,7 +10801,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>789</v>
       </c>
@@ -10736,13 +10812,16 @@
         <v>791</v>
       </c>
       <c r="D258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E258">
         <v>0.1818181818181818</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F258" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -10759,7 +10838,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="260" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>48</v>
       </c>
@@ -10776,7 +10855,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="261" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>230</v>
       </c>
@@ -10793,7 +10872,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>233</v>
       </c>
@@ -10810,7 +10889,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="263" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>251</v>
       </c>
@@ -10827,7 +10906,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="264" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>290</v>
       </c>
@@ -10844,7 +10923,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="265" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>317</v>
       </c>
@@ -10861,7 +10940,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="266" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>364</v>
       </c>
@@ -10878,7 +10957,7 @@
         <v>0.16666666666666671</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>598</v>
       </c>
@@ -10889,13 +10968,16 @@
         <v>600</v>
       </c>
       <c r="D267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E267">
         <v>0.16666666666666671</v>
       </c>
-    </row>
-    <row r="268" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F267" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>607</v>
       </c>
@@ -10906,13 +10988,16 @@
         <v>609</v>
       </c>
       <c r="D268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E268">
         <v>0.16666666666666671</v>
       </c>
-    </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F268" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>729</v>
       </c>
@@ -10923,13 +11008,16 @@
         <v>731</v>
       </c>
       <c r="D269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E269">
         <v>0.16666666666666671</v>
       </c>
-    </row>
-    <row r="270" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F269" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>14</v>
       </c>
@@ -10946,7 +11034,7 @@
         <v>0.15384615384615391</v>
       </c>
     </row>
-    <row r="271" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>197</v>
       </c>
@@ -10963,7 +11051,7 @@
         <v>0.15384615384615391</v>
       </c>
     </row>
-    <row r="272" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>834</v>
       </c>
@@ -10974,13 +11062,16 @@
         <v>836</v>
       </c>
       <c r="D272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E272">
         <v>0.15384615384615391</v>
       </c>
-    </row>
-    <row r="273" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F272" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>8</v>
       </c>
@@ -10997,7 +11088,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="274" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>45</v>
       </c>
@@ -11014,7 +11105,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="275" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>203</v>
       </c>
@@ -11031,7 +11122,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="276" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>296</v>
       </c>
@@ -11048,7 +11139,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="277" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>686</v>
       </c>
@@ -11068,7 +11159,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="278" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>689</v>
       </c>
@@ -11085,7 +11176,7 @@
         <v>0.14285714285714279</v>
       </c>
     </row>
-    <row r="279" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>701</v>
       </c>
@@ -11096,13 +11187,16 @@
         <v>703</v>
       </c>
       <c r="D279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E279">
         <v>0.14285714285714279</v>
       </c>
-    </row>
-    <row r="280" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F279" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>51</v>
       </c>
@@ -11119,7 +11213,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="281" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>212</v>
       </c>
@@ -11136,7 +11230,7 @@
         <v>0.1333333333333333</v>
       </c>
     </row>
-    <row r="282" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>388</v>
       </c>
@@ -11153,7 +11247,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="283" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>720</v>
       </c>
@@ -11173,7 +11267,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>39</v>
       </c>
@@ -11190,7 +11284,7 @@
         <v>0.1176470588235294</v>
       </c>
     </row>
-    <row r="285" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>188</v>
       </c>
@@ -11201,13 +11295,16 @@
         <v>190</v>
       </c>
       <c r="D285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E285">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="286" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F285" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>236</v>
       </c>
@@ -11224,7 +11321,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="287" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>323</v>
       </c>
@@ -11241,7 +11338,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>370</v>
       </c>
@@ -11261,7 +11358,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="289" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>412</v>
       </c>
@@ -11278,7 +11375,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>423</v>
       </c>
@@ -11298,7 +11395,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="291" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>625</v>
       </c>
@@ -11309,13 +11406,16 @@
         <v>627</v>
       </c>
       <c r="D291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E291">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="292" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F291" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>741</v>
       </c>
@@ -11332,7 +11432,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="293" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>786</v>
       </c>
@@ -11343,13 +11443,16 @@
         <v>788</v>
       </c>
       <c r="D293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E293">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F293" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>821</v>
       </c>
@@ -11360,13 +11463,16 @@
         <v>823</v>
       </c>
       <c r="D294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E294">
         <v>0.1111111111111111</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F294" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>352</v>
       </c>
@@ -11383,7 +11489,7 @@
         <v>0.10526315789473679</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>661</v>
       </c>
@@ -11403,7 +11509,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="297" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>564</v>
       </c>
@@ -11423,7 +11529,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="298" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>299</v>
       </c>
@@ -11443,7 +11549,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="299" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>260</v>
       </c>
@@ -11460,7 +11566,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>161</v>
       </c>
@@ -11477,7 +11583,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="301" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>206</v>
       </c>
@@ -11497,7 +11603,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="302" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>182</v>
       </c>
@@ -11517,7 +11623,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>272</v>
       </c>
@@ -11534,7 +11640,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
     </row>
-    <row r="304" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>36</v>
       </c>
@@ -11571,7 +11677,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>224</v>
       </c>
@@ -11611,7 +11717,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>695</v>
       </c>
@@ -11628,7 +11734,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>406</v>
       </c>
@@ -11648,7 +11754,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>400</v>
       </c>
@@ -11668,7 +11774,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="311" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>804</v>
       </c>
@@ -11688,7 +11794,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>840</v>
       </c>
@@ -11699,13 +11805,16 @@
         <v>842</v>
       </c>
       <c r="D312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E312">
         <v>7.6923076923076927E-2</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F312" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>846</v>
       </c>
@@ -11722,7 +11831,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>293</v>
       </c>
@@ -11739,7 +11848,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>391</v>
       </c>
@@ -11756,7 +11865,7 @@
         <v>7.1428571428571425E-2</v>
       </c>
     </row>
-    <row r="316" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>340</v>
       </c>
@@ -11773,7 +11882,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>792</v>
       </c>
@@ -11784,13 +11893,16 @@
         <v>794</v>
       </c>
       <c r="D317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E317">
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F317" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>266</v>
       </c>
@@ -11807,7 +11919,7 @@
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="319" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>816</v>
       </c>
@@ -11818,13 +11930,16 @@
         <v>818</v>
       </c>
       <c r="D319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E319">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.2">
+      <c r="F319" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -11841,7 +11956,7 @@
         <v>5.8823529411764712E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>757</v>
       </c>
@@ -11858,7 +11973,7 @@
         <v>5.2631578947368418E-2</v>
       </c>
     </row>
-    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>155</v>
       </c>
@@ -11875,7 +11990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>179</v>
       </c>
@@ -11892,7 +12007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>358</v>
       </c>
@@ -11903,25 +12018,16 @@
         <v>360</v>
       </c>
       <c r="D324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E324">
         <v>0</v>
       </c>
+      <c r="F324" t="s">
+        <v>875</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F324" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="FALSE"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Inconsistent value representation"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F311">
     <sortCondition descending="1" ref="E2:E324"/>
     <sortCondition ref="C2:C324"/>
@@ -11932,23 +12038,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D55A398-1037-5740-9F55-79BCF1AB99FE}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>872</v>
       </c>
     </row>
@@ -11956,7 +12062,7 @@
       <c r="A2" s="4" t="s">
         <v>864</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <v>7</v>
       </c>
     </row>
@@ -11964,7 +12070,7 @@
       <c r="A3" s="4" t="s">
         <v>863</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>58</v>
       </c>
     </row>
@@ -11972,7 +12078,7 @@
       <c r="A4" s="4" t="s">
         <v>865</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
     </row>
@@ -11980,15 +12086,15 @@
       <c r="A5" s="4" t="s">
         <v>866</v>
       </c>
-      <c r="B5" s="5">
-        <v>123</v>
+      <c r="B5" s="6">
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>867</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>2</v>
       </c>
     </row>
@@ -11996,122 +12102,191 @@
       <c r="A7" s="4" t="s">
         <v>862</v>
       </c>
-      <c r="B7" s="5">
-        <v>8</v>
+      <c r="B7" s="6">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>870</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="B9" s="6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>871</v>
       </c>
-      <c r="B9" s="5">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B10" s="6">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>877</v>
+      </c>
+      <c r="C15">
+        <v>9988</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>869</v>
+      </c>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>878</v>
+      </c>
+      <c r="B18" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C18" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>866</v>
+      </c>
+      <c r="B19">
+        <v>126</v>
+      </c>
+      <c r="C19" s="5">
+        <f>B19/$B$26</f>
+        <v>0.56502242152466364</v>
+      </c>
+      <c r="D19" s="5">
+        <f>B19/$C$15</f>
+        <v>1.2615138165798959E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>863</v>
+      </c>
+      <c r="B20">
+        <v>58</v>
+      </c>
+      <c r="C20" s="5">
+        <f t="shared" ref="C20:C26" si="0">B20/$B$26</f>
+        <v>0.26008968609865468</v>
+      </c>
+      <c r="D20" s="5">
+        <f t="shared" ref="D20:D26" si="1">B20/$C$15</f>
+        <v>5.8069683620344415E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>874</v>
       </c>
-      <c r="C16">
-        <v>9988</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>866</v>
-      </c>
-      <c r="B17">
-        <v>123</v>
-      </c>
-      <c r="C17" s="6">
-        <f>B17/$C$16</f>
-        <v>1.2314777733279936E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>863</v>
-      </c>
-      <c r="B18">
-        <v>58</v>
-      </c>
-      <c r="C18" s="6">
-        <f t="shared" ref="C18:C23" si="0">B18/$C$16</f>
-        <v>5.8069683620344415E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B21">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5">
+        <f t="shared" si="0"/>
+        <v>0.1031390134529148</v>
+      </c>
+      <c r="D21" s="5">
+        <f t="shared" si="1"/>
+        <v>2.3027633159791749E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>862</v>
       </c>
-      <c r="B19">
-        <v>8</v>
-      </c>
-      <c r="C19" s="6">
+      <c r="B22">
+        <v>6</v>
+      </c>
+      <c r="C22" s="5">
         <f t="shared" si="0"/>
-        <v>8.0096115338406087E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>2.6905829596412557E-2</v>
+      </c>
+      <c r="D22" s="5">
+        <f t="shared" si="1"/>
+        <v>6.0072086503804565E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>864</v>
       </c>
-      <c r="B20">
+      <c r="B23">
         <v>7</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C23" s="5">
         <f t="shared" si="0"/>
+        <v>3.1390134529147982E-2</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" si="1"/>
         <v>7.0084100921105326E-4</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>867</v>
       </c>
-      <c r="B21">
+      <c r="B24">
         <v>2</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C24" s="5">
         <f t="shared" si="0"/>
+        <v>8.9686098654708519E-3</v>
+      </c>
+      <c r="D24" s="5">
+        <f t="shared" si="1"/>
         <v>2.0024028834601522E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>865</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5">
         <f t="shared" si="0"/>
+        <v>4.4843049327354259E-3</v>
+      </c>
+      <c r="D25" s="5">
+        <f t="shared" si="1"/>
         <v>1.0012014417300761E-4</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>871</v>
       </c>
-      <c r="B23">
-        <v>199</v>
-      </c>
-      <c r="C23" s="6">
+      <c r="B26">
+        <v>223</v>
+      </c>
+      <c r="C26" s="5">
         <f t="shared" si="0"/>
-        <v>1.9923908690428514E-2</v>
+        <v>1</v>
+      </c>
+      <c r="D26" s="5">
+        <f t="shared" si="1"/>
+        <v>2.2326792150580695E-2</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A16:B23">
-    <sortCondition descending="1" ref="B16:B23"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:B26">
+    <sortCondition descending="1" ref="B18:B26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
